--- a/零式梦幻乐园缇亚拉 残梦之章4.xlsx
+++ b/零式梦幻乐园缇亚拉 残梦之章4.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_夢幻楽園ティエラ零式　残夢編4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tiera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A093FAAA-002D-4569-9429-0F151EB0ED65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="635" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="1" r:id="rId1"/>
@@ -20,8 +19,9 @@
     <sheet name="关卡机制设计（2）" sheetId="4" r:id="rId5"/>
     <sheet name="黎明过山车" sheetId="5" r:id="rId6"/>
     <sheet name="黄昏旋转木马" sheetId="7" r:id="rId7"/>
+    <sheet name="梦幻乐园" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="228">
   <si>
     <t>版本记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1764,10 +1764,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>塔的判定范围为半径3m的圆形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（8，90°）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1800,10 +1796,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>八个塔的圆心的坐标分别为：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>【第二轮塔，与第一次配置完全相同，4个一人黑 + 4个一人白】</t>
   </si>
   <si>
@@ -2023,6 +2015,112 @@
   </si>
   <si>
     <r>
+      <t>黄昏旋转木马</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>读条结束，场地八个方向出现【第一轮塔】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>第一轮塔判定，玩家被赋予</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黑之命运、白之命运</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>debuff</t>
+    </r>
+  </si>
+  <si>
+    <t>出现【第二轮塔】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二轮塔判定</t>
+  </si>
+  <si>
+    <t>出现【第三轮塔】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>boss开始读条</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC45911"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>流星群</t>
+    </r>
+  </si>
+  <si>
+    <t>第三轮塔判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>流星群</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读条结束，对离boss最远的四名角色造成小范围AOE伤害，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并生成【第四轮塔】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四轮塔判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现【第五轮塔】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五轮塔判定</t>
+  </si>
+  <si>
+    <r>
       <t>急急如律令</t>
     </r>
     <r>
@@ -2034,28 +2132,164 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>读条结束，伤害判定，黎明过山车机制结束</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>黄昏旋转木马</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>读条结束，场地八个方向出现【第一轮塔】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>第一轮塔判定，玩家被赋予</t>
+      <t>读条结束，伤害判定</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>黑之命运、白之命运</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>debuff倒计时结束（此时仍未解除debuff则玩家死亡）</t>
+    </r>
+  </si>
+  <si>
+    <t>创建原word文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.7.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复写到本excel文档（完成到黄昏旋转木马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦幻乐园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Boss读条</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC45911"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>梦幻乐园</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，读条时间5s。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">本机制分成 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>列车突进</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">及 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黑白塔</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两部分同时进行，具体细则下述。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列车突进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Boss读条结束时，场地东南西北中随机一个方向外周出现</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传送门0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时所有玩家角色随机被点名1-8的序号。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>并对受到伤害的玩家附加30s</t>
     </r>
     <r>
       <rPr>
@@ -2065,30 +2299,569 @@
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
-      </rPr>
-      <t>黑之命运、白之命运</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>debuff</t>
-    </r>
-  </si>
-  <si>
-    <t>出现【第二轮塔】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二轮塔判定</t>
-  </si>
-  <si>
-    <t>出现【第三轮塔】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>物理易伤</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>伤害判定的同时在1号玩家所在位置留下一个新</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传送门1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>伤害判定的同时在1号玩家所在位置留下一个新</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>传送门2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>一段时间过后，列车</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>由传送门0向1号玩家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进行突进，对沿途造成</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>距离衰减伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（物理伤害）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物理易伤</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：受到所有物理伤害提高100倍，持续30s</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续3-8号玩家同理。即列车总共突进8次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列车距离衰减伤害细则如下图所示：</t>
+  </si>
+  <si>
+    <r>
+      <t>随后，列车</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>由传送门1向2号玩家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进行突进，对沿途造成</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>距离衰减伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>并附带</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>物理易伤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（同上）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑白塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄昏旋转木马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>塔的判定范围为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>半径3m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的圆形</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>八个塔的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>圆心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的坐标分别为：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在（10，45°）及（10，225°）位置各出现1个四人</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黑塔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（黑白塔细则详见</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4s后，在（10，0°）及（10，180°）位置各出现1个四人</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白塔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>再4s后，在（10，-45°）及（10，135°）位置各出现1个四人</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黑塔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>再4s后，在（10，-90°）及（10，90°）位置各出现1个四人</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白塔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即每一轮出现2个四人塔，总共四轮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>传送门0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的位置为极坐标系90°方向（y轴正方向）：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔的配置如下图所示：</t>
+  </si>
+  <si>
+    <t>机制整体流程图示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机制时间轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦幻乐园  机制内时间轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到主时间轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦幻paradise读条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦幻paradise读条结束，传送门0出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赋予黑白debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑白debuff倒计时结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1列车突进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2列车突进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>急急如律令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读条结束，伤害判定</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3列车突进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-4列车突进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-5列车突进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-6列车突进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-7列车突进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-8列车突进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔1、2出现</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔3、4出现</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔5、6出现</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔7、8出现</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔1、2判定</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔3、4判定</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔5、6判定</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔7、8判定</t>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2104,111 +2877,38 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>流星群</t>
-    </r>
-  </si>
-  <si>
-    <t>第三轮塔判定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>流星群</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>读条结束，对离boss最远的四名角色造成小范围AOE伤害，</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>并生成【第四轮塔】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四轮塔判定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现【第五轮塔】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第五轮塔判定</t>
-  </si>
-  <si>
-    <r>
-      <t>boss开始读条</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFC45911"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>急急如律令</t>
     </r>
-  </si>
-  <si>
-    <r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>boss出现，开始读条</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>急急如律令</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>读条结束，伤害判定</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>黑之命运、白之命运</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>debuff倒计时结束（此时仍未解除debuff则玩家死亡）</t>
-    </r>
-  </si>
-  <si>
-    <t>创建原word文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.7.17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复写到本excel文档（完成到黄昏旋转木马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回到顶部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2478,15 +3178,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -2512,8 +3203,30 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2550,6 +3263,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2564,7 +3289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2611,18 +3336,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2632,22 +3346,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2655,6 +3355,77 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2693,7 +3464,7 @@
         <xdr:cNvPr id="7" name="图形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30550A4F-09EC-D5E0-DD8E-D62D116DC5EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30550A4F-09EC-D5E0-DD8E-D62D116DC5EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2705,7 +3476,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2743,7 +3514,7 @@
         <xdr:cNvPr id="8" name="图形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A663BC8C-291E-7E34-3B2F-F707997B3BC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A663BC8C-291E-7E34-3B2F-F707997B3BC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2755,7 +3526,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2793,7 +3564,7 @@
         <xdr:cNvPr id="9" name="图形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9356973A-31E4-30F0-02C9-71FCE853527B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9356973A-31E4-30F0-02C9-71FCE853527B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2805,7 +3576,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2834,13 +3605,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>448733</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2848,7 +3619,7 @@
         <xdr:cNvPr id="4" name="图形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC42D317-D275-E0EB-01BB-967C7967E283}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC42D317-D275-E0EB-01BB-967C7967E283}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2860,7 +3631,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2884,13 +3655,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>60961</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>386081</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2898,7 +3669,7 @@
         <xdr:cNvPr id="5" name="图形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6200373B-BE66-4CE6-D476-123E7B1B2332}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6200373B-BE66-4CE6-D476-123E7B1B2332}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2910,7 +3681,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2934,13 +3705,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>97155</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2948,7 +3719,7 @@
         <xdr:cNvPr id="6" name="图形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA4E6A10-D5E5-F8BE-2666-65C89006724C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA4E6A10-D5E5-F8BE-2666-65C89006724C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2960,7 +3731,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2984,13 +3755,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2998,7 +3769,7 @@
         <xdr:cNvPr id="7" name="图形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F03BF5-B449-6E07-B2D8-009730997649}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24F03BF5-B449-6E07-B2D8-009730997649}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3010,7 +3781,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3034,13 +3805,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3048,7 +3819,7 @@
         <xdr:cNvPr id="8" name="图形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CEED0E-018D-62AC-7628-0133305A567A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02CEED0E-018D-62AC-7628-0133305A567A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3060,7 +3831,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3084,13 +3855,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>228599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>32860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3098,7 +3869,7 @@
         <xdr:cNvPr id="9" name="图形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C31F56-9130-8B63-5BE1-9CC35BF18262}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78C31F56-9130-8B63-5BE1-9CC35BF18262}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3110,7 +3881,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId10"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3134,13 +3905,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>167164</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3148,7 +3919,7 @@
         <xdr:cNvPr id="11" name="图形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66FEA8E4-7479-633F-BAD8-59804560CA64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66FEA8E4-7479-633F-BAD8-59804560CA64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3160,7 +3931,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId12"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3184,13 +3955,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>188595</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3198,7 +3969,7 @@
         <xdr:cNvPr id="12" name="图形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D220289E-9034-22A7-5A6B-904F5E802D8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D220289E-9034-22A7-5A6B-904F5E802D8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3210,7 +3981,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId14"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3234,13 +4005,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>353907</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3248,7 +4019,7 @@
         <xdr:cNvPr id="13" name="图形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4AA4174-8963-41F0-B638-7AC71ADA759E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4AA4174-8963-41F0-B638-7AC71ADA759E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3260,7 +4031,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3284,13 +4055,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>543560</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>205740</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3298,7 +4069,7 @@
         <xdr:cNvPr id="14" name="图形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A72AB1F8-2CB1-E314-CCEB-45127655A069}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A72AB1F8-2CB1-E314-CCEB-45127655A069}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3310,7 +4081,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId18"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3322,6 +4093,239 @@
         <a:xfrm>
           <a:off x="1828800" y="31798260"/>
           <a:ext cx="6014720" cy="3383280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371601" y="4810125"/>
+          <a:ext cx="5486398" cy="3086099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>48817</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828676" y="10791826"/>
+          <a:ext cx="5810250" cy="3268266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>610451</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>171929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="14935200"/>
+          <a:ext cx="6096851" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>610451</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>171929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="14935200"/>
+          <a:ext cx="6096851" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>610451</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>171929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="18554700"/>
+          <a:ext cx="6096851" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>610451</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>171929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="18554700"/>
+          <a:ext cx="6096851" cy="3429479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3595,23 +4599,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="10.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="10.44140625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.875" style="6"/>
+    <col min="2" max="2" width="10.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="6"/>
+    <col min="4" max="4" width="10.5" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
@@ -3619,20 +4623,20 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3643,19 +4647,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FB7DEA-5E25-410F-B2A0-825003AA7FFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -3673,7 +4677,7 @@
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
     </row>
-    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
@@ -3681,7 +4685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
@@ -3689,12 +4693,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L7" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -3704,12 +4708,12 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
@@ -3722,12 +4726,12 @@
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
     </row>
-    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L13" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
@@ -3740,22 +4744,22 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L15" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K17" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>7</v>
       </c>
@@ -3763,7 +4767,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L19" s="6" t="s">
         <v>126</v>
       </c>
@@ -3775,317 +4779,709 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0443B4-A1FE-4992-9ECB-245C606FF47F}">
-  <dimension ref="A1:AC24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AJ43"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="8.88671875" style="2"/>
-    <col min="10" max="10" width="9.6640625" style="45" customWidth="1"/>
-    <col min="11" max="18" width="8.88671875" style="2"/>
-    <col min="19" max="19" width="8.88671875" style="45"/>
-    <col min="20" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="10" width="8.875" style="45"/>
+    <col min="11" max="11" width="9.625" style="49" customWidth="1"/>
+    <col min="12" max="19" width="8.875" style="45"/>
+    <col min="20" max="20" width="8.875" style="49"/>
+    <col min="21" max="28" width="8.875" style="45"/>
+    <col min="29" max="29" width="8.875" style="49"/>
+    <col min="30" max="31" width="10.75" style="45" customWidth="1"/>
+    <col min="32" max="32" width="12.375" style="45" customWidth="1"/>
+    <col min="33" max="33" width="8.875" style="45"/>
+    <col min="34" max="34" width="11.75" style="45" customWidth="1"/>
+    <col min="35" max="16384" width="8.875" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="44"/>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
       <c r="E1" s="44"/>
-    </row>
-    <row r="2" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="32" t="s">
+      <c r="F1" s="44"/>
+      <c r="K1" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="S2" s="32" t="s">
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="T1" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AC1" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AJ1" s="45" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="48">
+        <v>0</v>
+      </c>
+      <c r="L2" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="AC2" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J3" s="33">
+      <c r="T2" s="48">
         <v>0</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="U2" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC2" s="54">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="13"/>
+    </row>
+    <row r="3" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="48">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="T3" s="48">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="U3" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC3" s="54">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AD3" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="13"/>
+    </row>
+    <row r="4" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="48">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC4" s="54">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="AD4" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+    </row>
+    <row r="5" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="48"/>
+      <c r="L5" s="13"/>
+      <c r="T5" s="50">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="13"/>
+    </row>
+    <row r="6" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="50">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="T6" s="48">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="U6" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC6" s="54">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="AD6" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="55"/>
+      <c r="AG6" s="55"/>
+      <c r="AH6" s="13"/>
+    </row>
+    <row r="7" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K7" s="48">
+        <v>1.2499999999999999E-2</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+    </row>
+    <row r="8" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="48">
+        <v>1.3194444444444399E-2</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="T8" s="48">
+        <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="55"/>
+      <c r="AF8" s="55"/>
+      <c r="AG8" s="55"/>
+      <c r="AH8" s="13"/>
+    </row>
+    <row r="9" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="48">
+        <v>1.38888888888889E-2</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="T9" s="48">
+        <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="U9" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC9" s="54">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="AD9" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="55"/>
+      <c r="AG9" s="55"/>
+      <c r="AH9" s="13"/>
+    </row>
+    <row r="10" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="48">
+        <v>1.4583333333333301E-2</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="T10" s="48">
+        <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="U10" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+    </row>
+    <row r="11" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="51">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="L11" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC11" s="54">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="AD11" s="55"/>
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG11" s="55"/>
+      <c r="AH11" s="13"/>
+    </row>
+    <row r="12" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T12" s="48">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="U12" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC12" s="59">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="AD12" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE12" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF12" s="55"/>
+      <c r="AG12" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH12" s="61"/>
+    </row>
+    <row r="13" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="50">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="T13" s="48">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="U13" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC13" s="54">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="AD13" s="55"/>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG13" s="55"/>
+      <c r="AH13" s="13"/>
+    </row>
+    <row r="14" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K14" s="48">
+        <v>2.2916666666666669E-2</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+    </row>
+    <row r="15" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="51">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="L15" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC15" s="54">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="AD15" s="55"/>
+      <c r="AE15" s="55"/>
+      <c r="AF15" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG15" s="55"/>
+      <c r="AH15" s="13"/>
+    </row>
+    <row r="16" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K16" s="52">
+        <v>2.36111111111111E-2</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="T16" s="48">
+        <v>2.5694444444444447E-2</v>
+      </c>
+      <c r="U16" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC16" s="54">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="AD16" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE16" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF16" s="55"/>
+      <c r="AG16" s="55"/>
+      <c r="AH16" s="13"/>
+    </row>
+    <row r="17" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="52">
+        <v>2.4305555555555601E-2</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="T17" s="48">
+        <v>2.5694444444444447E-2</v>
+      </c>
+      <c r="U17" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC17" s="54">
+        <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="AD17" s="55"/>
+      <c r="AE17" s="55"/>
+      <c r="AF17" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+    </row>
+    <row r="18" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="52">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+    </row>
+    <row r="19" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T19" s="48">
+        <v>3.125E-2</v>
+      </c>
+      <c r="U19" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC19" s="54">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="AD19" s="55"/>
+      <c r="AE19" s="55"/>
+      <c r="AF19" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+    </row>
+    <row r="20" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="48">
+        <v>2.5694444444444447E-2</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC20" s="54">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="AD20" s="55"/>
+      <c r="AE20" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF20" s="55"/>
+      <c r="AG20" s="55"/>
+      <c r="AH20" s="13"/>
+    </row>
+    <row r="21" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K21" s="48">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="L21" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="S3" s="33">
-        <v>0</v>
-      </c>
-      <c r="T3" s="34" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J4" s="33">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="S4" s="33">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="T4" s="36" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J5" s="33">
-        <v>4.8611111111111112E-3</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J6" s="33"/>
-      <c r="K6" s="13"/>
-      <c r="S6" s="35">
-        <v>9.0277777777777787E-3</v>
-      </c>
-      <c r="T6" s="21" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J7" s="35">
-        <v>1.1805555555555555E-2</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="S7" s="33">
-        <v>9.0277777777777787E-3</v>
-      </c>
-      <c r="T7" s="21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J8" s="33">
-        <v>1.2499999999999999E-2</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J9" s="33">
-        <v>1.3194444444444399E-2</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="S9" s="33">
-        <v>1.4583333333333332E-2</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J10" s="33">
-        <v>1.38888888888889E-2</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="S10" s="33">
-        <v>1.4583333333333332E-2</v>
-      </c>
-      <c r="T10" s="21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J11" s="33">
-        <v>1.4583333333333301E-2</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="S11" s="33">
-        <v>1.4583333333333332E-2</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J12" s="46">
-        <v>1.5277777777777777E-2</v>
-      </c>
-      <c r="K12" s="34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S13" s="33">
+      <c r="T21" s="48">
+        <v>3.1944444444444449E-2</v>
+      </c>
+      <c r="U21" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC21" s="54">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="AD21" s="55"/>
+      <c r="AE21" s="55"/>
+      <c r="AF21" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG21" s="55"/>
+      <c r="AH21" s="13"/>
+    </row>
+    <row r="22" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K22" s="48">
+        <v>3.125E-2</v>
+      </c>
+      <c r="L22" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="T22" s="48">
+        <v>3.5416666666666666E-2</v>
+      </c>
+      <c r="U22" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="55"/>
+      <c r="AH22" s="13"/>
+    </row>
+    <row r="23" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T23" s="50">
+        <v>3.6805555555555557E-2</v>
+      </c>
+      <c r="U23" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC23" s="54">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="AD23" s="55"/>
+      <c r="AE23" s="55"/>
+      <c r="AF23" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG23" s="55"/>
+      <c r="AH23" s="13"/>
+    </row>
+    <row r="24" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K24" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC24" s="54">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF24" s="55"/>
+      <c r="AG24" s="55"/>
+      <c r="AH24" s="13"/>
+    </row>
+    <row r="25" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T25" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC25" s="54">
         <v>2.013888888888889E-2</v>
       </c>
-      <c r="T13" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J14" s="35">
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="S14" s="33">
-        <v>2.013888888888889E-2</v>
-      </c>
-      <c r="T14" s="34" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J15" s="33">
-        <v>2.2916666666666669E-2</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="T15" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J16" s="46">
-        <v>2.361111111111111E-2</v>
-      </c>
-      <c r="K16" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="10:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J17" s="47">
-        <v>2.36111111111111E-2</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="S17" s="33">
-        <v>2.5694444444444447E-2</v>
-      </c>
-      <c r="T17" s="6" t="s">
+      <c r="AD25" s="55"/>
+      <c r="AE25" s="55"/>
+      <c r="AF25" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG25" s="55"/>
+      <c r="AH25" s="13"/>
+    </row>
+    <row r="26" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC26" s="56"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="55"/>
+      <c r="AH26" s="13"/>
+    </row>
+    <row r="27" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC27" s="54">
+        <v>2.1527777777777781E-2</v>
+      </c>
+      <c r="AD27" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE27" s="55"/>
+      <c r="AF27" s="55"/>
+      <c r="AG27" s="55"/>
+      <c r="AH27" s="13"/>
+    </row>
+    <row r="28" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC28" s="56"/>
+      <c r="AD28" s="55"/>
+      <c r="AE28" s="55"/>
+      <c r="AF28" s="55"/>
+      <c r="AG28" s="55"/>
+      <c r="AH28" s="13"/>
+    </row>
+    <row r="29" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC29" s="54">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="AD29" s="37" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="18" spans="10:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J18" s="47">
-        <v>2.4305555555555601E-2</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="S18" s="33">
-        <v>2.5694444444444447E-2</v>
-      </c>
-      <c r="T18" s="21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="10:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J19" s="47">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="10:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S20" s="33">
-        <v>3.125E-2</v>
-      </c>
-      <c r="T20" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="10:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J21" s="33">
-        <v>2.5694444444444447E-2</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="10:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J22" s="33">
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="K22" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="S22" s="33">
-        <v>3.1944444444444449E-2</v>
-      </c>
-      <c r="T22" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="10:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J23" s="33">
-        <v>3.125E-2</v>
-      </c>
-      <c r="K23" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="S23" s="33">
-        <v>3.5416666666666666E-2</v>
-      </c>
-      <c r="T23" s="34" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="10:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S24" s="35">
-        <v>3.6805555555555557E-2</v>
-      </c>
-      <c r="T24" s="49" t="s">
-        <v>172</v>
-      </c>
+      <c r="AE29" s="55"/>
+      <c r="AF29" s="55"/>
+      <c r="AG29" s="55"/>
+      <c r="AH29" s="13"/>
+    </row>
+    <row r="30" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC30" s="56"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="55"/>
+      <c r="AH30" s="13"/>
+    </row>
+    <row r="31" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC31" s="54">
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="AD31" s="55"/>
+      <c r="AE31" s="55"/>
+      <c r="AF31" s="55"/>
+      <c r="AG31" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH31" s="61"/>
+    </row>
+    <row r="32" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC32" s="56"/>
+      <c r="AD32" s="55"/>
+      <c r="AE32" s="55"/>
+      <c r="AF32" s="55"/>
+      <c r="AG32" s="55"/>
+      <c r="AH32" s="13"/>
+    </row>
+    <row r="33" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC33" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE33" s="13"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13"/>
+    </row>
+    <row r="34" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="42"/>
+      <c r="AE34" s="42"/>
+      <c r="AF34" s="42"/>
+      <c r="AG34" s="42"/>
+    </row>
+    <row r="35" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC35" s="43"/>
+      <c r="AD35" s="42"/>
+      <c r="AE35" s="42"/>
+      <c r="AF35" s="42"/>
+      <c r="AG35" s="42"/>
+    </row>
+    <row r="36" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC36" s="43"/>
+      <c r="AD36" s="42"/>
+      <c r="AE36" s="42"/>
+      <c r="AF36" s="42"/>
+      <c r="AG36" s="42"/>
+    </row>
+    <row r="37" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC37" s="43"/>
+      <c r="AD37" s="42"/>
+      <c r="AE37" s="42"/>
+      <c r="AF37" s="42"/>
+      <c r="AG37" s="42"/>
+    </row>
+    <row r="38" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG38" s="42"/>
+    </row>
+    <row r="39" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC39" s="43"/>
+      <c r="AD39" s="42"/>
+      <c r="AE39" s="42"/>
+      <c r="AF39" s="42"/>
+      <c r="AG39" s="42"/>
+    </row>
+    <row r="40" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC40" s="43"/>
+      <c r="AD40" s="42"/>
+      <c r="AE40" s="42"/>
+      <c r="AF40" s="42"/>
+      <c r="AG40" s="42"/>
+    </row>
+    <row r="41" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC41" s="43"/>
+      <c r="AD41" s="42"/>
+      <c r="AE41" s="42"/>
+      <c r="AF41" s="42"/>
+      <c r="AG41" s="42"/>
+    </row>
+    <row r="42" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC42" s="43"/>
+      <c r="AD42" s="42"/>
+      <c r="AE42" s="42"/>
+      <c r="AF42" s="42"/>
+      <c r="AG42" s="42"/>
+    </row>
+    <row r="43" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC43" s="43"/>
+      <c r="AD43" s="42"/>
+      <c r="AE43" s="42"/>
+      <c r="AF43" s="42"/>
+      <c r="AG43" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="T25" location="关卡时间轴!A1" display="跳转到主时间轴"/>
+    <hyperlink ref="AC33" location="关卡时间轴!A1" display="跳转到主时间轴"/>
+    <hyperlink ref="K24" location="关卡时间轴!A1" display="跳转到主时间轴"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C73D3D2-F23A-4250-8AC8-777C67F51935}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O59"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>49</v>
       </c>
@@ -4096,7 +5492,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
@@ -4105,22 +5501,22 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="13" t="s">
         <v>23</v>
       </c>
@@ -4134,17 +5530,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
@@ -4153,27 +5549,27 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>30</v>
       </c>
@@ -4182,22 +5578,22 @@
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="13" t="s">
         <v>40</v>
       </c>
@@ -4205,12 +5601,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O32" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>32</v>
       </c>
@@ -4219,22 +5615,22 @@
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
     </row>
-    <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="13" t="s">
         <v>40</v>
       </c>
@@ -4242,12 +5638,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O42" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>34</v>
       </c>
@@ -4256,22 +5652,22 @@
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
     </row>
-    <row r="46" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>36</v>
       </c>
@@ -4280,17 +5676,17 @@
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
     </row>
-    <row r="55" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="13" t="s">
         <v>48</v>
       </c>
@@ -4302,21 +5698,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9F69B0-3A2B-4DBB-B6B7-9763FF5B4F06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>50</v>
       </c>
@@ -4327,12 +5723,12 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>53</v>
       </c>
@@ -4340,27 +5736,27 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>58</v>
       </c>
@@ -4368,34 +5764,32 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" location="黎明过山车!A1" display="黎明过山车" xr:uid="{54337726-BCB2-48FF-99FF-D257E44DFF38}"/>
-    <hyperlink ref="D7" location="黄昏旋转木马!A1" display="黄昏旋转木马" xr:uid="{037647D6-E377-449E-BB14-8A26F8890B78}"/>
+    <hyperlink ref="D5" location="黎明过山车!A1" display="黎明过山车"/>
+    <hyperlink ref="D7" location="黄昏旋转木马!A1" display="黄昏旋转木马"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493F8AA9-B608-493B-821B-A0C38AA8EE1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="22"/>
-    <col min="3" max="3" width="13.44140625" style="22" customWidth="1"/>
-    <col min="4" max="7" width="8.88671875" style="22"/>
-    <col min="8" max="8" width="11.88671875" style="22" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="22" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="22" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="22"/>
+    <col min="1" max="2" width="8.875" style="22"/>
+    <col min="3" max="3" width="13.5" style="22" customWidth="1"/>
+    <col min="4" max="7" width="8.875" style="22"/>
+    <col min="8" max="8" width="11.875" style="22" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="22" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="22" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="22"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="28"/>
@@ -4406,52 +5800,52 @@
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="23" t="s">
         <v>63</v>
       </c>
@@ -4460,7 +5854,7 @@
       </c>
       <c r="E32" s="21"/>
     </row>
-    <row r="34" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="24" t="s">
         <v>62</v>
       </c>
@@ -4469,12 +5863,12 @@
       </c>
       <c r="E34" s="21"/>
     </row>
-    <row r="35" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="21" t="s">
         <v>86</v>
       </c>
@@ -4482,7 +5876,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="25" t="s">
         <v>64</v>
       </c>
@@ -4490,37 +5884,37 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="26" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="21" t="s">
         <v>81</v>
       </c>
@@ -4533,32 +5927,35 @@
       <c r="M83" s="21"/>
       <c r="N83" s="21"/>
     </row>
-    <row r="84" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D84" s="30" t="s">
+      <c r="D84" s="41" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="31" t="s">
-        <v>147</v>
+    <row r="87" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="30" t="s">
+        <v>145</v>
       </c>
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
+      <c r="D87" s="63" t="s">
+        <v>227</v>
+      </c>
       <c r="E87" s="28"/>
       <c r="F87" s="28"/>
       <c r="G87" s="28"/>
       <c r="H87" s="28"/>
     </row>
-    <row r="93" spans="1:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="1:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I83" location="'关卡机制设计（1）'!A1" display="急急如律令" xr:uid="{167D1302-3F27-4020-8F61-56DB2AAE1FAB}"/>
-    <hyperlink ref="D84" location="关卡时间轴!A1" display="关卡时间轴" xr:uid="{78915070-5CB7-432D-B80F-2F4ED8098FCF}"/>
+    <hyperlink ref="I83" location="'关卡机制设计（1）'!A1" display="急急如律令"/>
+    <hyperlink ref="D84" location="关卡时间轴!K1" display="关卡时间轴"/>
+    <hyperlink ref="D87" location="黎明过山车!A1" display="回到顶部"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4566,28 +5963,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58C4C96-AE59-4207-9168-56DD4E873026}">
-  <dimension ref="A1:AC167"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>102</v>
       </c>
       <c r="B2" s="28"/>
@@ -4598,28 +5995,28 @@
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="41" t="s">
+    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-    </row>
-    <row r="6" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+    </row>
+    <row r="6" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -4630,7 +6027,7 @@
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
     </row>
-    <row r="9" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
@@ -4640,8 +6037,8 @@
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
     </row>
-    <row r="10" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="40" t="s">
+    <row r="10" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="35" t="s">
         <v>106</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -4656,12 +6053,12 @@
       <c r="S10" s="29"/>
       <c r="T10" s="10"/>
     </row>
-    <row r="11" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="6" t="s">
         <v>108</v>
       </c>
       <c r="M11" s="10"/>
-      <c r="N11" s="39" t="s">
+      <c r="N11" s="34" t="s">
         <v>115</v>
       </c>
       <c r="O11" s="29"/>
@@ -4671,7 +6068,7 @@
       <c r="S11" s="29"/>
       <c r="T11" s="10"/>
     </row>
-    <row r="12" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M12" s="10"/>
       <c r="N12" s="29"/>
       <c r="O12" s="29"/>
@@ -4681,7 +6078,7 @@
       <c r="S12" s="29"/>
       <c r="T12" s="10"/>
     </row>
-    <row r="13" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="21" t="s">
         <v>109</v>
       </c>
@@ -4696,7 +6093,7 @@
       <c r="S13" s="29"/>
       <c r="T13" s="10"/>
     </row>
-    <row r="14" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>110</v>
       </c>
@@ -4711,7 +6108,7 @@
       <c r="S14" s="29"/>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="29"/>
@@ -4721,7 +6118,7 @@
       <c r="S15" s="29"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="21" t="s">
         <v>112</v>
       </c>
@@ -4736,7 +6133,7 @@
       <c r="S16" s="29"/>
       <c r="T16" s="10"/>
     </row>
-    <row r="17" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M17" s="10"/>
       <c r="N17" s="29" t="s">
         <v>118</v>
@@ -4748,7 +6145,7 @@
       <c r="S17" s="29"/>
       <c r="T17" s="10"/>
     </row>
-    <row r="18" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="6" t="s">
         <v>113</v>
       </c>
@@ -4761,7 +6158,7 @@
       <c r="S18" s="29"/>
       <c r="T18" s="10"/>
     </row>
-    <row r="19" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="29"/>
@@ -4771,7 +6168,7 @@
       <c r="S19" s="29"/>
       <c r="T19" s="10"/>
     </row>
-    <row r="20" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="21" t="s">
         <v>114</v>
       </c>
@@ -4784,7 +6181,7 @@
       <c r="S20" s="29"/>
       <c r="T20" s="10"/>
     </row>
-    <row r="21" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="29"/>
@@ -4794,7 +6191,7 @@
       <c r="S21" s="29"/>
       <c r="T21" s="10"/>
     </row>
-    <row r="22" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="29"/>
@@ -4804,230 +6201,437 @@
       <c r="S22" s="29"/>
       <c r="T22" s="10"/>
     </row>
-    <row r="23" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
+    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
       <c r="T23" s="10"/>
     </row>
-    <row r="25" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="21" t="s">
+    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+    </row>
+    <row r="26" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="42" t="s">
+    <row r="28" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-    </row>
-    <row r="28" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+    </row>
+    <row r="29" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>136</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H29" s="1" t="s">
+    <row r="30" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="30" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="1" t="s">
-        <v>132</v>
+      <c r="G30" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="22" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+    </row>
+    <row r="54" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="42" t="s">
+    <row r="75" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-    </row>
-    <row r="53" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="21" t="s">
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+    </row>
+    <row r="76" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="21" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="22" t="s">
+    <row r="78" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-    </row>
-    <row r="75" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="6" t="s">
+    <row r="100" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+    </row>
+    <row r="101" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="21" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="22" t="s">
+    <row r="103" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="99" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="42" t="s">
+    <row r="138" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C138" s="36"/>
+      <c r="D138" s="36"/>
+      <c r="E138" s="36"/>
+      <c r="F138" s="36"/>
+    </row>
+    <row r="139" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C160" s="22"/>
+      <c r="D160" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E160" s="22"/>
+    </row>
+    <row r="163" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B163" s="28"/>
+      <c r="C163" s="28"/>
+      <c r="D163" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="E163" s="28"/>
+      <c r="F163" s="28"/>
+      <c r="G163" s="28"/>
+      <c r="H163" s="28"/>
+    </row>
+    <row r="164" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="22"/>
+      <c r="B164" s="22"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="22"/>
+      <c r="E164" s="22"/>
+      <c r="F164" s="22"/>
+      <c r="G164" s="22"/>
+      <c r="H164" s="22"/>
+    </row>
+    <row r="168" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
         <v>144</v>
-      </c>
-      <c r="C99" s="42"/>
-      <c r="D99" s="42"/>
-      <c r="E99" s="42"/>
-      <c r="F99" s="42"/>
-      <c r="G99" s="42"/>
-    </row>
-    <row r="100" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="137" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="C137" s="42"/>
-      <c r="D137" s="42"/>
-      <c r="E137" s="42"/>
-      <c r="F137" s="42"/>
-    </row>
-    <row r="138" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="140" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C159" s="22"/>
-      <c r="D159" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E159" s="22"/>
-    </row>
-    <row r="162" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="B162" s="28"/>
-      <c r="C162" s="28"/>
-      <c r="D162" s="28"/>
-      <c r="E162" s="28"/>
-      <c r="F162" s="28"/>
-      <c r="G162" s="28"/>
-      <c r="H162" s="28"/>
-    </row>
-    <row r="163" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="22"/>
-      <c r="B163" s="22"/>
-      <c r="C163" s="22"/>
-      <c r="D163" s="22"/>
-      <c r="E163" s="22"/>
-      <c r="F163" s="22"/>
-      <c r="G163" s="22"/>
-      <c r="H163" s="22"/>
-    </row>
-    <row r="167" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D159" location="关卡时间轴!A1" display="关卡时间轴" xr:uid="{001C124A-C590-40E0-A7B1-A787198EC5F0}"/>
+    <hyperlink ref="D160" location="关卡时间轴!T1" display="关卡时间轴"/>
+    <hyperlink ref="D163" location="黄昏旋转木马!A1" display="回到顶部"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L128"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B7" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16" s="29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B22" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B24" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>190</v>
+      </c>
+      <c r="I48" s="41" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B50" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B52" s="21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B54" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B56" s="21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B57" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+    </row>
+    <row r="122" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A122" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="B122" s="33"/>
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="33"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>198</v>
+      </c>
+      <c r="C124" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A128" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B128" s="28"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="E128" s="28"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="28"/>
+      <c r="H128" s="28"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I48" location="黄昏旋转木马!A1" display="黄昏旋转木马"/>
+    <hyperlink ref="C124" location="关卡时间轴!AC1" display="关卡时间轴"/>
+    <hyperlink ref="D128" location="梦幻乐园!A1" display="回到顶部"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/零式梦幻乐园缇亚拉 残梦之章4.xlsx
+++ b/零式梦幻乐园缇亚拉 残梦之章4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="635" activeTab="7"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="9300" tabRatio="635" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="1" r:id="rId1"/>
@@ -1192,10 +1192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t> 备注：圆内接正五边形边长2r*sin36°，略微增加容错率故取r=12m，则得边长约为14m。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>圆形AOE和分摊均为魔法伤害并附加3s的</t>
     </r>
@@ -1344,10 +1340,6 @@
   </si>
   <si>
     <t>判定时：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若塔里的角色数小于所需人数，则塔爆炸并对所有玩家造成血量上限十倍的伤害。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2901,6 +2893,39 @@
   </si>
   <si>
     <t>回到顶部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>若塔里的角色数小于所需人数，则</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1s后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>塔爆炸并对所有玩家造成血量上限十倍的伤害。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> 备注：圆内接正五边形边长2r*sin36°，出于略微增加容错率考虑取r=12m，则得边长约为14m。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3464,7 +3489,7 @@
         <xdr:cNvPr id="7" name="图形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30550A4F-09EC-D5E0-DD8E-D62D116DC5EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30550A4F-09EC-D5E0-DD8E-D62D116DC5EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3476,7 +3501,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3514,7 +3539,7 @@
         <xdr:cNvPr id="8" name="图形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A663BC8C-291E-7E34-3B2F-F707997B3BC9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A663BC8C-291E-7E34-3B2F-F707997B3BC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3526,7 +3551,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId4"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3564,7 +3589,7 @@
         <xdr:cNvPr id="9" name="图形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9356973A-31E4-30F0-02C9-71FCE853527B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9356973A-31E4-30F0-02C9-71FCE853527B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3576,7 +3601,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3619,7 +3644,7 @@
         <xdr:cNvPr id="4" name="图形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC42D317-D275-E0EB-01BB-967C7967E283}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC42D317-D275-E0EB-01BB-967C7967E283}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3631,7 +3656,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3669,7 +3694,7 @@
         <xdr:cNvPr id="5" name="图形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6200373B-BE66-4CE6-D476-123E7B1B2332}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6200373B-BE66-4CE6-D476-123E7B1B2332}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3681,7 +3706,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId4"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3719,7 +3744,7 @@
         <xdr:cNvPr id="6" name="图形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA4E6A10-D5E5-F8BE-2666-65C89006724C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA4E6A10-D5E5-F8BE-2666-65C89006724C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3731,7 +3756,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3769,7 +3794,7 @@
         <xdr:cNvPr id="7" name="图形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24F03BF5-B449-6E07-B2D8-009730997649}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F03BF5-B449-6E07-B2D8-009730997649}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3781,7 +3806,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3819,7 +3844,7 @@
         <xdr:cNvPr id="8" name="图形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02CEED0E-018D-62AC-7628-0133305A567A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CEED0E-018D-62AC-7628-0133305A567A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3831,7 +3856,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId8"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3869,7 +3894,7 @@
         <xdr:cNvPr id="9" name="图形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78C31F56-9130-8B63-5BE1-9CC35BF18262}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C31F56-9130-8B63-5BE1-9CC35BF18262}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3881,7 +3906,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId10"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3919,7 +3944,7 @@
         <xdr:cNvPr id="11" name="图形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66FEA8E4-7479-633F-BAD8-59804560CA64}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66FEA8E4-7479-633F-BAD8-59804560CA64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3931,7 +3956,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId12"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3969,7 +3994,7 @@
         <xdr:cNvPr id="12" name="图形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D220289E-9034-22A7-5A6B-904F5E802D8F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D220289E-9034-22A7-5A6B-904F5E802D8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3981,7 +4006,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId14"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4019,7 +4044,7 @@
         <xdr:cNvPr id="13" name="图形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4AA4174-8963-41F0-B638-7AC71ADA759E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4AA4174-8963-41F0-B638-7AC71ADA759E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4031,7 +4056,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId16"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4069,7 +4094,7 @@
         <xdr:cNvPr id="14" name="图形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A72AB1F8-2CB1-E314-CCEB-45127655A069}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A72AB1F8-2CB1-E314-CCEB-45127655A069}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4081,7 +4106,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId18"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4628,15 +4653,15 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -4741,7 +4766,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="L14" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4756,7 +4781,7 @@
     </row>
     <row r="17" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K17" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4764,12 +4789,12 @@
         <v>7</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L19" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4782,7 +4807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AJ43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
@@ -4811,7 +4836,7 @@
       <c r="E1" s="44"/>
       <c r="F1" s="44"/>
       <c r="K1" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L1" s="47"/>
       <c r="M1" s="47"/>
@@ -4819,7 +4844,7 @@
       <c r="O1" s="47"/>
       <c r="P1" s="47"/>
       <c r="T1" s="46" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="U1" s="47"/>
       <c r="V1" s="47"/>
@@ -4828,7 +4853,7 @@
       <c r="Y1" s="47"/>
       <c r="Z1" s="47"/>
       <c r="AC1" s="46" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AD1" s="47"/>
       <c r="AE1" s="47"/>
@@ -4836,7 +4861,7 @@
       <c r="AG1" s="47"/>
       <c r="AH1" s="47"/>
       <c r="AJ1" s="45" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4844,19 +4869,19 @@
         <v>0</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="T2" s="48">
         <v>0</v>
       </c>
       <c r="U2" s="37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AC2" s="54">
         <v>0</v>
       </c>
       <c r="AD2" s="55" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AE2" s="55"/>
       <c r="AF2" s="55"/>
@@ -4868,19 +4893,19 @@
         <v>3.472222222222222E-3</v>
       </c>
       <c r="L3" s="37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T3" s="48">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="U3" s="31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AC3" s="54">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="AD3" s="55" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AE3" s="55"/>
       <c r="AF3" s="55"/>
@@ -4892,13 +4917,13 @@
         <v>4.8611111111111112E-3</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC4" s="54">
         <v>4.8611111111111112E-3</v>
       </c>
       <c r="AD4" s="55" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AE4" s="13"/>
       <c r="AF4" s="13"/>
@@ -4912,7 +4937,7 @@
         <v>9.0277777777777787E-3</v>
       </c>
       <c r="U5" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AC5" s="56"/>
       <c r="AD5" s="55"/>
@@ -4926,19 +4951,19 @@
         <v>1.1805555555555555E-2</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T6" s="48">
         <v>9.0277777777777787E-3</v>
       </c>
       <c r="U6" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AC6" s="54">
         <v>5.5555555555555558E-3</v>
       </c>
       <c r="AD6" s="57" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AE6" s="55"/>
       <c r="AF6" s="55"/>
@@ -4950,7 +4975,7 @@
         <v>1.2499999999999999E-2</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC7" s="56"/>
       <c r="AD7" s="13"/>
@@ -4964,13 +4989,13 @@
         <v>1.3194444444444399E-2</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T8" s="48">
         <v>1.4583333333333332E-2</v>
       </c>
       <c r="U8" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AC8" s="56"/>
       <c r="AD8" s="13"/>
@@ -4984,19 +5009,19 @@
         <v>1.38888888888889E-2</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T9" s="48">
         <v>1.4583333333333332E-2</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AC9" s="54">
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="AD9" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AE9" s="55"/>
       <c r="AF9" s="55"/>
@@ -5008,13 +5033,13 @@
         <v>1.4583333333333301E-2</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T10" s="48">
         <v>1.4583333333333332E-2</v>
       </c>
       <c r="U10" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AC10" s="56"/>
       <c r="AD10" s="13"/>
@@ -5028,7 +5053,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
       <c r="L11" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC11" s="54">
         <v>1.0416666666666666E-2</v>
@@ -5036,7 +5061,7 @@
       <c r="AD11" s="55"/>
       <c r="AE11" s="55"/>
       <c r="AF11" s="55" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG11" s="55"/>
       <c r="AH11" s="13"/>
@@ -5046,20 +5071,20 @@
         <v>2.013888888888889E-2</v>
       </c>
       <c r="U12" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AC12" s="59">
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="AD12" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE12" s="57" t="s">
         <v>219</v>
-      </c>
-      <c r="AE12" s="57" t="s">
-        <v>221</v>
       </c>
       <c r="AF12" s="55"/>
       <c r="AG12" s="61" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AH12" s="61"/>
     </row>
@@ -5068,13 +5093,13 @@
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T13" s="48">
         <v>2.013888888888889E-2</v>
       </c>
       <c r="U13" s="37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AC13" s="54">
         <v>1.1805555555555555E-2</v>
@@ -5082,7 +5107,7 @@
       <c r="AD13" s="55"/>
       <c r="AE13" s="55"/>
       <c r="AF13" s="55" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AG13" s="55"/>
       <c r="AH13" s="13"/>
@@ -5092,10 +5117,10 @@
         <v>2.2916666666666669E-2</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U14" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AC14" s="56"/>
       <c r="AD14" s="13"/>
@@ -5109,7 +5134,7 @@
         <v>2.361111111111111E-2</v>
       </c>
       <c r="L15" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC15" s="54">
         <v>1.3194444444444444E-2</v>
@@ -5117,7 +5142,7 @@
       <c r="AD15" s="55"/>
       <c r="AE15" s="55"/>
       <c r="AF15" s="55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AG15" s="55"/>
       <c r="AH15" s="13"/>
@@ -5127,22 +5152,22 @@
         <v>2.36111111111111E-2</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T16" s="48">
         <v>2.5694444444444447E-2</v>
       </c>
       <c r="U16" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AC16" s="54">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="AD16" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE16" s="58" t="s">
         <v>220</v>
-      </c>
-      <c r="AE16" s="58" t="s">
-        <v>222</v>
       </c>
       <c r="AF16" s="55"/>
       <c r="AG16" s="55"/>
@@ -5153,13 +5178,13 @@
         <v>2.4305555555555601E-2</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T17" s="48">
         <v>2.5694444444444447E-2</v>
       </c>
       <c r="U17" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AC17" s="54">
         <v>1.4583333333333332E-2</v>
@@ -5167,7 +5192,7 @@
       <c r="AD17" s="55"/>
       <c r="AE17" s="55"/>
       <c r="AF17" s="55" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AG17" s="13"/>
       <c r="AH17" s="13"/>
@@ -5177,7 +5202,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC18" s="56"/>
       <c r="AD18" s="13"/>
@@ -5191,7 +5216,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="U19" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AC19" s="54">
         <v>1.5972222222222224E-2</v>
@@ -5199,7 +5224,7 @@
       <c r="AD19" s="55"/>
       <c r="AE19" s="55"/>
       <c r="AF19" s="55" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG19" s="13"/>
       <c r="AH19" s="13"/>
@@ -5209,14 +5234,14 @@
         <v>2.5694444444444447E-2</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC20" s="54">
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="AD20" s="55"/>
       <c r="AE20" s="60" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AF20" s="55"/>
       <c r="AG20" s="55"/>
@@ -5227,13 +5252,13 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="L21" s="37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T21" s="48">
         <v>3.1944444444444449E-2</v>
       </c>
       <c r="U21" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AC21" s="54">
         <v>1.7361111111111112E-2</v>
@@ -5241,7 +5266,7 @@
       <c r="AD21" s="55"/>
       <c r="AE21" s="55"/>
       <c r="AF21" s="55" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AG21" s="55"/>
       <c r="AH21" s="13"/>
@@ -5251,13 +5276,13 @@
         <v>3.125E-2</v>
       </c>
       <c r="L22" s="37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="T22" s="48">
         <v>3.5416666666666666E-2</v>
       </c>
       <c r="U22" s="37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AC22" s="56"/>
       <c r="AD22" s="13"/>
@@ -5271,7 +5296,7 @@
         <v>3.6805555555555557E-2</v>
       </c>
       <c r="U23" s="38" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AC23" s="54">
         <v>1.8749999999999999E-2</v>
@@ -5279,21 +5304,21 @@
       <c r="AD23" s="55"/>
       <c r="AE23" s="55"/>
       <c r="AF23" s="55" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AG23" s="55"/>
       <c r="AH23" s="13"/>
     </row>
     <row r="24" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K24" s="53" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AC24" s="54">
         <v>1.9444444444444445E-2</v>
       </c>
       <c r="AD24" s="55"/>
       <c r="AE24" s="62" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AF24" s="55"/>
       <c r="AG24" s="55"/>
@@ -5301,7 +5326,7 @@
     </row>
     <row r="25" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T25" s="53" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AC25" s="54">
         <v>2.013888888888889E-2</v>
@@ -5309,7 +5334,7 @@
       <c r="AD25" s="55"/>
       <c r="AE25" s="55"/>
       <c r="AF25" s="55" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AG25" s="55"/>
       <c r="AH25" s="13"/>
@@ -5327,7 +5352,7 @@
         <v>2.1527777777777781E-2</v>
       </c>
       <c r="AD27" s="55" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AE27" s="55"/>
       <c r="AF27" s="55"/>
@@ -5347,7 +5372,7 @@
         <v>2.4999999999999998E-2</v>
       </c>
       <c r="AD29" s="37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AE29" s="55"/>
       <c r="AF29" s="55"/>
@@ -5370,7 +5395,7 @@
       <c r="AE31" s="55"/>
       <c r="AF31" s="55"/>
       <c r="AG31" s="61" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AH31" s="61"/>
     </row>
@@ -5384,7 +5409,7 @@
     </row>
     <row r="33" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC33" s="53" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AE33" s="13"/>
       <c r="AF33" s="13"/>
@@ -5472,7 +5497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -5702,7 +5727,7 @@
   <dimension ref="A2:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5775,7 +5800,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N93"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5827,7 +5854,7 @@
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="29" t="s">
-        <v>85</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5870,7 +5897,7 @@
     </row>
     <row r="36" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L36" s="29" t="s">
         <v>77</v>
@@ -5937,12 +5964,12 @@
     </row>
     <row r="87" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
       <c r="D87" s="63" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E87" s="28"/>
       <c r="F87" s="28"/>
@@ -5966,8 +5993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC168"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="D160" sqref="D160"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5980,12 +6007,12 @@
   <sheetData>
     <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -5997,7 +6024,7 @@
     </row>
     <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -6006,17 +6033,17 @@
     </row>
     <row r="6" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -6039,10 +6066,10 @@
     </row>
     <row r="10" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>107</v>
+        <v>226</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
@@ -6055,11 +6082,11 @@
     </row>
     <row r="11" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O11" s="29"/>
       <c r="P11" s="29"/>
@@ -6080,11 +6107,11 @@
     </row>
     <row r="13" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M13" s="10"/>
       <c r="N13" s="29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O13" s="29"/>
       <c r="P13" s="29"/>
@@ -6095,12 +6122,12 @@
     </row>
     <row r="14" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M14" s="10"/>
       <c r="N14" s="29"/>
       <c r="O14" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P14" s="29"/>
       <c r="Q14" s="10"/>
@@ -6120,11 +6147,11 @@
     </row>
     <row r="16" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O16" s="29"/>
       <c r="P16" s="29"/>
@@ -6136,7 +6163,7 @@
     <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M17" s="10"/>
       <c r="N17" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
@@ -6147,7 +6174,7 @@
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M18" s="10"/>
       <c r="N18" s="29"/>
@@ -6170,7 +6197,7 @@
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
@@ -6213,7 +6240,7 @@
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
@@ -6230,12 +6257,12 @@
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C28" s="32"/>
       <c r="D28" s="32"/>
@@ -6245,40 +6272,40 @@
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F32" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6288,7 +6315,7 @@
     </row>
     <row r="53" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C53" s="36"/>
       <c r="D53" s="36"/>
@@ -6299,7 +6326,7 @@
     </row>
     <row r="54" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6309,7 +6336,7 @@
     </row>
     <row r="75" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C75" s="36"/>
       <c r="D75" s="36"/>
@@ -6320,22 +6347,22 @@
     </row>
     <row r="76" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6345,7 +6372,7 @@
     </row>
     <row r="100" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="36" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C100" s="36"/>
       <c r="D100" s="36"/>
@@ -6355,7 +6382,7 @@
     </row>
     <row r="101" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6365,7 +6392,7 @@
     </row>
     <row r="138" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C138" s="36"/>
       <c r="D138" s="36"/>
@@ -6374,7 +6401,7 @@
     </row>
     <row r="139" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="141" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6384,12 +6411,12 @@
     </row>
     <row r="157" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="158" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="160" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6404,12 +6431,12 @@
     </row>
     <row r="163" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B163" s="28"/>
       <c r="C163" s="28"/>
       <c r="D163" s="63" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E163" s="28"/>
       <c r="F163" s="28"/>
@@ -6428,7 +6455,7 @@
     </row>
     <row r="168" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -6438,7 +6465,8 @@
     <hyperlink ref="D163" location="黄昏旋转木马!A1" display="回到顶部"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6446,15 +6474,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -6466,7 +6492,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B4" s="21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
@@ -6476,12 +6502,12 @@
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -6490,55 +6516,55 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B12" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B17" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B22" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B24" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -6547,45 +6573,45 @@
     </row>
     <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I48" s="41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B50" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B52" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B54" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B56" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B57" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A79" s="39" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B79" s="33"/>
       <c r="C79" s="33"/>
@@ -6594,7 +6620,7 @@
     </row>
     <row r="122" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A122" s="39" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B122" s="33"/>
       <c r="C122" s="33"/>
@@ -6603,7 +6629,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C124" s="41" t="s">
         <v>83</v>
@@ -6611,12 +6637,12 @@
     </row>
     <row r="128" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A128" s="30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
       <c r="D128" s="63" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E128" s="28"/>
       <c r="F128" s="28"/>

--- a/零式梦幻乐园缇亚拉 残梦之章4.xlsx
+++ b/零式梦幻乐园缇亚拉 残梦之章4.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tiera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiera\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C4BB11-BDEC-487D-BEDF-2AD9D3CCA606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="9300" tabRatio="635" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="635" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="230">
   <si>
     <t>版本记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2755,14 +2756,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>梦幻paradise读条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦幻paradise读条结束，传送门0出现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boss消失</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2926,13 +2919,62 @@
   </si>
   <si>
     <t> 备注：圆内接正五边形边长2r*sin36°，出于略微增加容错率考虑取r=12m，则得边长约为14m。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.7.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦幻乐园机制复写到excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>梦幻乐园</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读条开始</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>梦幻乐园</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读条结束，传送门0出现</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3489,7 +3531,7 @@
         <xdr:cNvPr id="7" name="图形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30550A4F-09EC-D5E0-DD8E-D62D116DC5EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30550A4F-09EC-D5E0-DD8E-D62D116DC5EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3501,7 +3543,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3539,7 +3581,7 @@
         <xdr:cNvPr id="8" name="图形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A663BC8C-291E-7E34-3B2F-F707997B3BC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A663BC8C-291E-7E34-3B2F-F707997B3BC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3551,7 +3593,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3589,7 +3631,7 @@
         <xdr:cNvPr id="9" name="图形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9356973A-31E4-30F0-02C9-71FCE853527B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9356973A-31E4-30F0-02C9-71FCE853527B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3601,7 +3643,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3644,7 +3686,7 @@
         <xdr:cNvPr id="4" name="图形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC42D317-D275-E0EB-01BB-967C7967E283}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC42D317-D275-E0EB-01BB-967C7967E283}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3656,7 +3698,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3694,7 +3736,7 @@
         <xdr:cNvPr id="5" name="图形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6200373B-BE66-4CE6-D476-123E7B1B2332}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6200373B-BE66-4CE6-D476-123E7B1B2332}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3706,7 +3748,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3744,7 +3786,7 @@
         <xdr:cNvPr id="6" name="图形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA4E6A10-D5E5-F8BE-2666-65C89006724C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA4E6A10-D5E5-F8BE-2666-65C89006724C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3756,7 +3798,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3794,7 +3836,7 @@
         <xdr:cNvPr id="7" name="图形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F03BF5-B449-6E07-B2D8-009730997649}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F03BF5-B449-6E07-B2D8-009730997649}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3806,7 +3848,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3844,7 +3886,7 @@
         <xdr:cNvPr id="8" name="图形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CEED0E-018D-62AC-7628-0133305A567A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CEED0E-018D-62AC-7628-0133305A567A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3856,7 +3898,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3894,7 +3936,7 @@
         <xdr:cNvPr id="9" name="图形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C31F56-9130-8B63-5BE1-9CC35BF18262}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C31F56-9130-8B63-5BE1-9CC35BF18262}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3906,7 +3948,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3944,7 +3986,7 @@
         <xdr:cNvPr id="11" name="图形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66FEA8E4-7479-633F-BAD8-59804560CA64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66FEA8E4-7479-633F-BAD8-59804560CA64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3956,7 +3998,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3994,7 +4036,7 @@
         <xdr:cNvPr id="12" name="图形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D220289E-9034-22A7-5A6B-904F5E802D8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D220289E-9034-22A7-5A6B-904F5E802D8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4006,7 +4048,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4044,7 +4086,7 @@
         <xdr:cNvPr id="13" name="图形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4AA4174-8963-41F0-B638-7AC71ADA759E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4AA4174-8963-41F0-B638-7AC71ADA759E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4056,7 +4098,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4094,7 +4136,7 @@
         <xdr:cNvPr id="14" name="图形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A72AB1F8-2CB1-E314-CCEB-45127655A069}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A72AB1F8-2CB1-E314-CCEB-45127655A069}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4106,7 +4148,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4134,19 +4176,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>349734</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4159,8 +4207,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371601" y="4810125"/>
-          <a:ext cx="5486398" cy="3086099"/>
+          <a:off x="1219200" y="4724400"/>
+          <a:ext cx="5836134" cy="3192780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4177,14 +4225,20 @@
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>466726</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>48817</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4197,8 +4251,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="828676" y="10791826"/>
-          <a:ext cx="5810250" cy="3268266"/>
+          <a:off x="752476" y="10530841"/>
+          <a:ext cx="5511164" cy="3165396"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4215,14 +4269,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>610451</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
       <xdr:row>98</xdr:row>
       <xdr:rowOff>171929</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4235,8 +4295,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="14935200"/>
-          <a:ext cx="6096851" cy="3429479"/>
+          <a:off x="609600" y="14546580"/>
+          <a:ext cx="5806440" cy="3326609"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4253,14 +4313,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>610451</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
       <xdr:row>98</xdr:row>
       <xdr:rowOff>171929</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4273,8 +4339,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7543800" y="14935200"/>
-          <a:ext cx="6096851" cy="3429479"/>
+          <a:off x="6705600" y="14546580"/>
+          <a:ext cx="5722620" cy="3326609"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4291,14 +4357,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>610451</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
       <xdr:row>118</xdr:row>
       <xdr:rowOff>171929</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4311,8 +4383,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="18554700"/>
-          <a:ext cx="6096851" cy="3429479"/>
+          <a:off x="609600" y="18051780"/>
+          <a:ext cx="5760720" cy="3326609"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4324,19 +4396,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>610451</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>214211</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>171929</xdr:rowOff>
+      <xdr:rowOff>164309</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4349,8 +4427,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7543800" y="18554700"/>
-          <a:ext cx="6096851" cy="3429479"/>
+          <a:off x="6918960" y="18044160"/>
+          <a:ext cx="5487251" cy="3326609"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4624,23 +4702,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B4:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="6"/>
-    <col min="2" max="2" width="10.625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="6"/>
-    <col min="4" max="4" width="10.5" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="10.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="10.44140625" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
@@ -4648,7 +4726,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -4656,12 +4734,20 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>168</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4672,19 +4758,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.875" style="6"/>
+    <col min="1" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -4702,7 +4788,7 @@
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
     </row>
-    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
@@ -4710,7 +4796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
@@ -4718,12 +4804,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L7" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -4733,12 +4819,12 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
@@ -4751,12 +4837,12 @@
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
     </row>
-    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L13" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
@@ -4769,22 +4855,22 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L15" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K17" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>7</v>
       </c>
@@ -4792,7 +4878,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L19" s="6" t="s">
         <v>124</v>
       </c>
@@ -4804,30 +4890,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AJ43"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="8.875" style="45"/>
-    <col min="11" max="11" width="9.625" style="49" customWidth="1"/>
-    <col min="12" max="19" width="8.875" style="45"/>
-    <col min="20" max="20" width="8.875" style="49"/>
-    <col min="21" max="28" width="8.875" style="45"/>
-    <col min="29" max="29" width="8.875" style="49"/>
-    <col min="30" max="31" width="10.75" style="45" customWidth="1"/>
-    <col min="32" max="32" width="12.375" style="45" customWidth="1"/>
-    <col min="33" max="33" width="8.875" style="45"/>
-    <col min="34" max="34" width="11.75" style="45" customWidth="1"/>
-    <col min="35" max="16384" width="8.875" style="45"/>
+    <col min="1" max="10" width="8.88671875" style="45"/>
+    <col min="11" max="11" width="9.6640625" style="49" customWidth="1"/>
+    <col min="12" max="19" width="8.88671875" style="45"/>
+    <col min="20" max="20" width="8.88671875" style="49"/>
+    <col min="21" max="28" width="8.88671875" style="45"/>
+    <col min="29" max="29" width="8.88671875" style="49"/>
+    <col min="30" max="31" width="10.77734375" style="45" customWidth="1"/>
+    <col min="32" max="32" width="12.33203125" style="45" customWidth="1"/>
+    <col min="33" max="33" width="11.33203125" style="45" customWidth="1"/>
+    <col min="34" max="34" width="11.77734375" style="45" customWidth="1"/>
+    <col min="35" max="16384" width="8.88671875" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="40" t="s">
         <v>83</v>
       </c>
@@ -4864,7 +4950,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K2" s="48">
         <v>0</v>
       </c>
@@ -4880,15 +4966,15 @@
       <c r="AC2" s="54">
         <v>0</v>
       </c>
-      <c r="AD2" s="55" t="s">
-        <v>201</v>
+      <c r="AD2" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="AE2" s="55"/>
       <c r="AF2" s="55"/>
       <c r="AG2" s="55"/>
       <c r="AH2" s="13"/>
     </row>
-    <row r="3" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K3" s="48">
         <v>3.472222222222222E-3</v>
       </c>
@@ -4904,15 +4990,15 @@
       <c r="AC3" s="54">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="AD3" s="55" t="s">
-        <v>202</v>
+      <c r="AD3" s="13" t="s">
+        <v>229</v>
       </c>
       <c r="AE3" s="55"/>
       <c r="AF3" s="55"/>
       <c r="AG3" s="55"/>
       <c r="AH3" s="13"/>
     </row>
-    <row r="4" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K4" s="48">
         <v>4.8611111111111112E-3</v>
       </c>
@@ -4923,14 +5009,14 @@
         <v>4.8611111111111112E-3</v>
       </c>
       <c r="AD4" s="55" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AE4" s="13"/>
       <c r="AF4" s="13"/>
       <c r="AG4" s="13"/>
       <c r="AH4" s="13"/>
     </row>
-    <row r="5" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K5" s="48"/>
       <c r="L5" s="13"/>
       <c r="T5" s="50">
@@ -4946,7 +5032,7 @@
       <c r="AG5" s="55"/>
       <c r="AH5" s="13"/>
     </row>
-    <row r="6" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K6" s="50">
         <v>1.1805555555555555E-2</v>
       </c>
@@ -4963,14 +5049,14 @@
         <v>5.5555555555555558E-3</v>
       </c>
       <c r="AD6" s="57" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AE6" s="55"/>
       <c r="AF6" s="55"/>
       <c r="AG6" s="55"/>
       <c r="AH6" s="13"/>
     </row>
-    <row r="7" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K7" s="48">
         <v>1.2499999999999999E-2</v>
       </c>
@@ -4984,7 +5070,7 @@
       <c r="AG7" s="13"/>
       <c r="AH7" s="13"/>
     </row>
-    <row r="8" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K8" s="48">
         <v>1.3194444444444399E-2</v>
       </c>
@@ -5004,7 +5090,7 @@
       <c r="AG8" s="55"/>
       <c r="AH8" s="13"/>
     </row>
-    <row r="9" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K9" s="48">
         <v>1.38888888888889E-2</v>
       </c>
@@ -5021,14 +5107,14 @@
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="AD9" s="58" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AE9" s="55"/>
       <c r="AF9" s="55"/>
       <c r="AG9" s="55"/>
       <c r="AH9" s="13"/>
     </row>
-    <row r="10" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K10" s="48">
         <v>1.4583333333333301E-2</v>
       </c>
@@ -5048,7 +5134,7 @@
       <c r="AG10" s="13"/>
       <c r="AH10" s="13"/>
     </row>
-    <row r="11" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K11" s="51">
         <v>1.5277777777777777E-2</v>
       </c>
@@ -5061,12 +5147,12 @@
       <c r="AD11" s="55"/>
       <c r="AE11" s="55"/>
       <c r="AF11" s="55" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG11" s="55"/>
       <c r="AH11" s="13"/>
     </row>
-    <row r="12" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T12" s="48">
         <v>2.013888888888889E-2</v>
       </c>
@@ -5077,18 +5163,18 @@
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="AD12" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE12" s="57" t="s">
         <v>217</v>
-      </c>
-      <c r="AE12" s="57" t="s">
-        <v>219</v>
       </c>
       <c r="AF12" s="55"/>
       <c r="AG12" s="61" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AH12" s="61"/>
     </row>
-    <row r="13" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K13" s="50">
         <v>2.2222222222222223E-2</v>
       </c>
@@ -5107,12 +5193,12 @@
       <c r="AD13" s="55"/>
       <c r="AE13" s="55"/>
       <c r="AF13" s="55" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AG13" s="55"/>
       <c r="AH13" s="13"/>
     </row>
-    <row r="14" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K14" s="48">
         <v>2.2916666666666669E-2</v>
       </c>
@@ -5129,7 +5215,7 @@
       <c r="AG14" s="13"/>
       <c r="AH14" s="13"/>
     </row>
-    <row r="15" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K15" s="51">
         <v>2.361111111111111E-2</v>
       </c>
@@ -5142,12 +5228,12 @@
       <c r="AD15" s="55"/>
       <c r="AE15" s="55"/>
       <c r="AF15" s="55" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AG15" s="55"/>
       <c r="AH15" s="13"/>
     </row>
-    <row r="16" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K16" s="52">
         <v>2.36111111111111E-2</v>
       </c>
@@ -5164,16 +5250,16 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="AD16" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE16" s="58" t="s">
         <v>218</v>
-      </c>
-      <c r="AE16" s="58" t="s">
-        <v>220</v>
       </c>
       <c r="AF16" s="55"/>
       <c r="AG16" s="55"/>
       <c r="AH16" s="13"/>
     </row>
-    <row r="17" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K17" s="52">
         <v>2.4305555555555601E-2</v>
       </c>
@@ -5192,12 +5278,12 @@
       <c r="AD17" s="55"/>
       <c r="AE17" s="55"/>
       <c r="AF17" s="55" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG17" s="13"/>
       <c r="AH17" s="13"/>
     </row>
-    <row r="18" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K18" s="52">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -5211,7 +5297,7 @@
       <c r="AG18" s="13"/>
       <c r="AH18" s="13"/>
     </row>
-    <row r="19" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T19" s="48">
         <v>3.125E-2</v>
       </c>
@@ -5224,12 +5310,12 @@
       <c r="AD19" s="55"/>
       <c r="AE19" s="55"/>
       <c r="AF19" s="55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AG19" s="13"/>
       <c r="AH19" s="13"/>
     </row>
-    <row r="20" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K20" s="48">
         <v>2.5694444444444447E-2</v>
       </c>
@@ -5241,13 +5327,13 @@
       </c>
       <c r="AD20" s="55"/>
       <c r="AE20" s="60" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AF20" s="55"/>
       <c r="AG20" s="55"/>
       <c r="AH20" s="13"/>
     </row>
-    <row r="21" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K21" s="48">
         <v>2.7777777777777776E-2</v>
       </c>
@@ -5258,7 +5344,7 @@
         <v>3.1944444444444449E-2</v>
       </c>
       <c r="U21" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AC21" s="54">
         <v>1.7361111111111112E-2</v>
@@ -5266,17 +5352,17 @@
       <c r="AD21" s="55"/>
       <c r="AE21" s="55"/>
       <c r="AF21" s="55" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AG21" s="55"/>
       <c r="AH21" s="13"/>
     </row>
-    <row r="22" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K22" s="48">
         <v>3.125E-2</v>
       </c>
       <c r="L22" s="37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="T22" s="48">
         <v>3.5416666666666666E-2</v>
@@ -5291,7 +5377,7 @@
       <c r="AG22" s="55"/>
       <c r="AH22" s="13"/>
     </row>
-    <row r="23" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T23" s="50">
         <v>3.6805555555555557E-2</v>
       </c>
@@ -5304,12 +5390,12 @@
       <c r="AD23" s="55"/>
       <c r="AE23" s="55"/>
       <c r="AF23" s="55" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG23" s="55"/>
       <c r="AH23" s="13"/>
     </row>
-    <row r="24" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K24" s="53" t="s">
         <v>199</v>
       </c>
@@ -5318,13 +5404,13 @@
       </c>
       <c r="AD24" s="55"/>
       <c r="AE24" s="62" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AF24" s="55"/>
       <c r="AG24" s="55"/>
       <c r="AH24" s="13"/>
     </row>
-    <row r="25" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T25" s="53" t="s">
         <v>199</v>
       </c>
@@ -5334,12 +5420,12 @@
       <c r="AD25" s="55"/>
       <c r="AE25" s="55"/>
       <c r="AF25" s="55" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AG25" s="55"/>
       <c r="AH25" s="13"/>
     </row>
-    <row r="26" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC26" s="56"/>
       <c r="AD26" s="13"/>
       <c r="AE26" s="13"/>
@@ -5347,19 +5433,19 @@
       <c r="AG26" s="55"/>
       <c r="AH26" s="13"/>
     </row>
-    <row r="27" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC27" s="54">
         <v>2.1527777777777781E-2</v>
       </c>
       <c r="AD27" s="55" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AE27" s="55"/>
       <c r="AF27" s="55"/>
       <c r="AG27" s="55"/>
       <c r="AH27" s="13"/>
     </row>
-    <row r="28" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC28" s="56"/>
       <c r="AD28" s="55"/>
       <c r="AE28" s="55"/>
@@ -5367,7 +5453,7 @@
       <c r="AG28" s="55"/>
       <c r="AH28" s="13"/>
     </row>
-    <row r="29" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC29" s="54">
         <v>2.4999999999999998E-2</v>
       </c>
@@ -5379,7 +5465,7 @@
       <c r="AG29" s="55"/>
       <c r="AH29" s="13"/>
     </row>
-    <row r="30" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC30" s="56"/>
       <c r="AD30" s="13"/>
       <c r="AE30" s="13"/>
@@ -5387,7 +5473,7 @@
       <c r="AG30" s="55"/>
       <c r="AH30" s="13"/>
     </row>
-    <row r="31" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC31" s="54">
         <v>3.888888888888889E-2</v>
       </c>
@@ -5395,11 +5481,11 @@
       <c r="AE31" s="55"/>
       <c r="AF31" s="55"/>
       <c r="AG31" s="61" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AH31" s="61"/>
     </row>
-    <row r="32" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC32" s="56"/>
       <c r="AD32" s="55"/>
       <c r="AE32" s="55"/>
@@ -5407,7 +5493,7 @@
       <c r="AG32" s="55"/>
       <c r="AH32" s="13"/>
     </row>
-    <row r="33" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC33" s="53" t="s">
         <v>199</v>
       </c>
@@ -5416,66 +5502,66 @@
       <c r="AG33" s="13"/>
       <c r="AH33" s="13"/>
     </row>
-    <row r="34" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC34" s="43"/>
       <c r="AD34" s="42"/>
       <c r="AE34" s="42"/>
       <c r="AF34" s="42"/>
       <c r="AG34" s="42"/>
     </row>
-    <row r="35" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC35" s="43"/>
       <c r="AD35" s="42"/>
       <c r="AE35" s="42"/>
       <c r="AF35" s="42"/>
       <c r="AG35" s="42"/>
     </row>
-    <row r="36" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC36" s="43"/>
       <c r="AD36" s="42"/>
       <c r="AE36" s="42"/>
       <c r="AF36" s="42"/>
       <c r="AG36" s="42"/>
     </row>
-    <row r="37" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC37" s="43"/>
       <c r="AD37" s="42"/>
       <c r="AE37" s="42"/>
       <c r="AF37" s="42"/>
       <c r="AG37" s="42"/>
     </row>
-    <row r="38" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG38" s="42"/>
     </row>
-    <row r="39" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC39" s="43"/>
       <c r="AD39" s="42"/>
       <c r="AE39" s="42"/>
       <c r="AF39" s="42"/>
       <c r="AG39" s="42"/>
     </row>
-    <row r="40" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC40" s="43"/>
       <c r="AD40" s="42"/>
       <c r="AE40" s="42"/>
       <c r="AF40" s="42"/>
       <c r="AG40" s="42"/>
     </row>
-    <row r="41" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC41" s="43"/>
       <c r="AD41" s="42"/>
       <c r="AE41" s="42"/>
       <c r="AF41" s="42"/>
       <c r="AG41" s="42"/>
     </row>
-    <row r="42" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC42" s="43"/>
       <c r="AD42" s="42"/>
       <c r="AE42" s="42"/>
       <c r="AF42" s="42"/>
       <c r="AG42" s="42"/>
     </row>
-    <row r="43" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC43" s="43"/>
       <c r="AD43" s="42"/>
       <c r="AE43" s="42"/>
@@ -5485,28 +5571,28 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="T25" location="关卡时间轴!A1" display="跳转到主时间轴"/>
-    <hyperlink ref="AC33" location="关卡时间轴!A1" display="跳转到主时间轴"/>
-    <hyperlink ref="K24" location="关卡时间轴!A1" display="跳转到主时间轴"/>
+    <hyperlink ref="T25" location="关卡时间轴!A1" display="跳转到主时间轴" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="AC33" location="关卡时间轴!A1" display="跳转到主时间轴" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="K24" location="关卡时间轴!A1" display="跳转到主时间轴" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:O59"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.875" style="2"/>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>49</v>
       </c>
@@ -5517,7 +5603,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
@@ -5526,22 +5612,22 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="13" t="s">
         <v>23</v>
       </c>
@@ -5555,17 +5641,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
@@ -5574,27 +5660,27 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
         <v>30</v>
       </c>
@@ -5603,22 +5689,22 @@
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="13" t="s">
         <v>40</v>
       </c>
@@ -5626,12 +5712,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O32" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
         <v>32</v>
       </c>
@@ -5640,22 +5726,22 @@
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
     </row>
-    <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="13" t="s">
         <v>40</v>
       </c>
@@ -5663,12 +5749,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O42" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
         <v>34</v>
       </c>
@@ -5677,22 +5763,22 @@
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
     </row>
-    <row r="46" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="5" t="s">
         <v>36</v>
       </c>
@@ -5701,17 +5787,17 @@
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
     </row>
-    <row r="55" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" s="13" t="s">
         <v>48</v>
       </c>
@@ -5723,21 +5809,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>50</v>
       </c>
@@ -5748,12 +5834,12 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>53</v>
       </c>
@@ -5761,27 +5847,27 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>58</v>
       </c>
@@ -5789,33 +5875,33 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" location="黎明过山车!A1" display="黎明过山车"/>
-    <hyperlink ref="D7" location="黄昏旋转木马!A1" display="黄昏旋转木马"/>
+    <hyperlink ref="D5" location="黎明过山车!A1" display="黎明过山车" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="D7" location="黄昏旋转木马!A1" display="黄昏旋转木马" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.875" style="22"/>
-    <col min="3" max="3" width="13.5" style="22" customWidth="1"/>
-    <col min="4" max="7" width="8.875" style="22"/>
-    <col min="8" max="8" width="11.875" style="22" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="22" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="22" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="22"/>
+    <col min="1" max="2" width="8.88671875" style="22"/>
+    <col min="3" max="3" width="13.44140625" style="22" customWidth="1"/>
+    <col min="4" max="7" width="8.88671875" style="22"/>
+    <col min="8" max="8" width="11.88671875" style="22" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="22" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="22"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>59</v>
       </c>
@@ -5827,52 +5913,52 @@
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="29" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="23" t="s">
         <v>63</v>
       </c>
@@ -5881,7 +5967,7 @@
       </c>
       <c r="E32" s="21"/>
     </row>
-    <row r="34" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="24" t="s">
         <v>62</v>
       </c>
@@ -5890,12 +5976,12 @@
       </c>
       <c r="E34" s="21"/>
     </row>
-    <row r="35" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="21" t="s">
         <v>85</v>
       </c>
@@ -5903,7 +5989,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="25" t="s">
         <v>64</v>
       </c>
@@ -5911,37 +5997,37 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="26" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="21" t="s">
         <v>81</v>
       </c>
@@ -5954,7 +6040,7 @@
       <c r="M83" s="21"/>
       <c r="N83" s="21"/>
     </row>
-    <row r="84" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="22" t="s">
         <v>82</v>
       </c>
@@ -5962,27 +6048,27 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="30" t="s">
         <v>143</v>
       </c>
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
       <c r="D87" s="63" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E87" s="28"/>
       <c r="F87" s="28"/>
       <c r="G87" s="28"/>
       <c r="H87" s="28"/>
     </row>
-    <row r="93" spans="1:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I83" location="'关卡机制设计（1）'!A1" display="急急如律令"/>
-    <hyperlink ref="D84" location="关卡时间轴!K1" display="关卡时间轴"/>
-    <hyperlink ref="D87" location="黎明过山车!A1" display="回到顶部"/>
+    <hyperlink ref="I83" location="'关卡机制设计（1）'!A1" display="急急如律令" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="D84" location="关卡时间轴!K1" display="关卡时间轴" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="D87" location="黎明过山车!A1" display="回到顶部" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5990,27 +6076,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AC168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>101</v>
       </c>
@@ -6022,7 +6108,7 @@
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>102</v>
       </c>
@@ -6031,17 +6117,17 @@
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
     </row>
-    <row r="6" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="20" t="s">
         <v>186</v>
       </c>
@@ -6054,7 +6140,7 @@
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
     </row>
-    <row r="9" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
@@ -6064,12 +6150,12 @@
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
     </row>
-    <row r="10" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="35" t="s">
         <v>105</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
@@ -6080,7 +6166,7 @@
       <c r="S10" s="29"/>
       <c r="T10" s="10"/>
     </row>
-    <row r="11" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="6" t="s">
         <v>106</v>
       </c>
@@ -6095,7 +6181,7 @@
       <c r="S11" s="29"/>
       <c r="T11" s="10"/>
     </row>
-    <row r="12" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M12" s="10"/>
       <c r="N12" s="29"/>
       <c r="O12" s="29"/>
@@ -6105,7 +6191,7 @@
       <c r="S12" s="29"/>
       <c r="T12" s="10"/>
     </row>
-    <row r="13" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>107</v>
       </c>
@@ -6120,7 +6206,7 @@
       <c r="S13" s="29"/>
       <c r="T13" s="10"/>
     </row>
-    <row r="14" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>108</v>
       </c>
@@ -6135,7 +6221,7 @@
       <c r="S14" s="29"/>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="29"/>
@@ -6145,7 +6231,7 @@
       <c r="S15" s="29"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="21" t="s">
         <v>110</v>
       </c>
@@ -6160,7 +6246,7 @@
       <c r="S16" s="29"/>
       <c r="T16" s="10"/>
     </row>
-    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M17" s="10"/>
       <c r="N17" s="29" t="s">
         <v>116</v>
@@ -6172,7 +6258,7 @@
       <c r="S17" s="29"/>
       <c r="T17" s="10"/>
     </row>
-    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="6" t="s">
         <v>111</v>
       </c>
@@ -6185,7 +6271,7 @@
       <c r="S18" s="29"/>
       <c r="T18" s="10"/>
     </row>
-    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="29"/>
@@ -6195,7 +6281,7 @@
       <c r="S19" s="29"/>
       <c r="T19" s="10"/>
     </row>
-    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="21" t="s">
         <v>112</v>
       </c>
@@ -6208,7 +6294,7 @@
       <c r="S20" s="29"/>
       <c r="T20" s="10"/>
     </row>
-    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="29"/>
@@ -6218,7 +6304,7 @@
       <c r="S21" s="29"/>
       <c r="T21" s="10"/>
     </row>
-    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="29"/>
@@ -6228,7 +6314,7 @@
       <c r="S22" s="29"/>
       <c r="T22" s="10"/>
     </row>
-    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
       <c r="O23" s="29"/>
@@ -6238,7 +6324,7 @@
       <c r="S23" s="29"/>
       <c r="T23" s="10"/>
     </row>
-    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>117</v>
       </c>
@@ -6255,12 +6341,12 @@
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
     </row>
-    <row r="26" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="21" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="36" t="s">
         <v>119</v>
       </c>
@@ -6270,12 +6356,12 @@
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
     </row>
-    <row r="29" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>187</v>
       </c>
@@ -6289,7 +6375,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F31" s="1" t="s">
         <v>129</v>
       </c>
@@ -6297,7 +6383,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F32" s="1" t="s">
         <v>132</v>
       </c>
@@ -6308,12 +6394,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
         <v>133</v>
       </c>
@@ -6324,17 +6410,17 @@
       <c r="G53" s="36"/>
       <c r="H53" s="36"/>
     </row>
-    <row r="54" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="36" t="s">
         <v>135</v>
       </c>
@@ -6345,32 +6431,32 @@
       <c r="G75" s="36"/>
       <c r="H75" s="36"/>
     </row>
-    <row r="76" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="21" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="100" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="36" t="s">
         <v>140</v>
       </c>
@@ -6380,17 +6466,17 @@
       <c r="F100" s="36"/>
       <c r="G100" s="36"/>
     </row>
-    <row r="101" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="103" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="138" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="36" t="s">
         <v>144</v>
       </c>
@@ -6399,27 +6485,27 @@
       <c r="E138" s="36"/>
       <c r="F138" s="36"/>
     </row>
-    <row r="139" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="21" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="141" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="157" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="158" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="160" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="22" t="s">
         <v>82</v>
       </c>
@@ -6429,21 +6515,21 @@
       </c>
       <c r="E160" s="22"/>
     </row>
-    <row r="163" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="30" t="s">
         <v>143</v>
       </c>
       <c r="B163" s="28"/>
       <c r="C163" s="28"/>
       <c r="D163" s="63" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E163" s="28"/>
       <c r="F163" s="28"/>
       <c r="G163" s="28"/>
       <c r="H163" s="28"/>
     </row>
-    <row r="164" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="22"/>
       <c r="B164" s="22"/>
       <c r="C164" s="22"/>
@@ -6453,7 +6539,7 @@
       <c r="G164" s="22"/>
       <c r="H164" s="22"/>
     </row>
-    <row r="168" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>142</v>
       </c>
@@ -6461,8 +6547,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D160" location="关卡时间轴!T1" display="关卡时间轴"/>
-    <hyperlink ref="D163" location="黄昏旋转木马!A1" display="回到顶部"/>
+    <hyperlink ref="D160" location="关卡时间轴!T1" display="关卡时间轴" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="D163" location="黄昏旋转木马!A1" display="回到顶部" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6471,14 +6557,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:L128"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>170</v>
       </c>
@@ -6490,22 +6576,22 @@
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>173</v>
       </c>
@@ -6514,22 +6600,22 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>176</v>
       </c>
@@ -6537,32 +6623,32 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B22" s="21" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B24" s="21" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="39" t="s">
         <v>184</v>
       </c>
@@ -6571,12 +6657,12 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="20" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>188</v>
       </c>
@@ -6584,32 +6670,32 @@
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B50" s="21" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B52" s="21" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B54" s="21" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B57" s="21" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="39" t="s">
         <v>195</v>
       </c>
@@ -6618,7 +6704,7 @@
       <c r="D79" s="33"/>
       <c r="E79" s="33"/>
     </row>
-    <row r="122" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A122" s="39" t="s">
         <v>197</v>
       </c>
@@ -6627,7 +6713,7 @@
       <c r="D122" s="33"/>
       <c r="E122" s="33"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>196</v>
       </c>
@@ -6635,14 +6721,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A128" s="30" t="s">
         <v>143</v>
       </c>
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
       <c r="D128" s="63" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E128" s="28"/>
       <c r="F128" s="28"/>
@@ -6652,9 +6738,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I48" location="黄昏旋转木马!A1" display="黄昏旋转木马"/>
-    <hyperlink ref="C124" location="关卡时间轴!AC1" display="关卡时间轴"/>
-    <hyperlink ref="D128" location="梦幻乐园!A1" display="回到顶部"/>
+    <hyperlink ref="I48" location="黄昏旋转木马!A1" display="黄昏旋转木马" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="C124" location="关卡时间轴!AC1" display="关卡时间轴" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="D128" location="梦幻乐园!A1" display="回到顶部" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/零式梦幻乐园缇亚拉 残梦之章4.xlsx
+++ b/零式梦幻乐园缇亚拉 残梦之章4.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tiera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C4BB11-BDEC-487D-BEDF-2AD9D3CCA606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="635" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="635" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="1" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="241">
   <si>
     <t>版本记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1309,34 +1308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>塔分为黑色塔和白色塔两种，塔从出现到判定有</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8s（5s？）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>时间。</t>
-    </r>
-  </si>
-  <si>
     <t>根据机制内容，分别会出现一人塔、二人塔及四人塔。</t>
   </si>
   <si>
@@ -2098,10 +2069,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>并生成【第四轮塔】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第四轮塔判定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2525,6 +2492,457 @@
   </si>
   <si>
     <r>
+      <t>八个塔的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>圆心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的坐标分别为：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在（10，45°）及（10，225°）位置各出现1个四人</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黑塔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（黑白塔细则详见</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4s后，在（10，0°）及（10，180°）位置各出现1个四人</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白塔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>再4s后，在（10，-45°）及（10，135°）位置各出现1个四人</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黑塔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>再4s后，在（10，-90°）及（10，90°）位置各出现1个四人</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白塔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即每一轮出现2个四人塔，总共四轮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>传送门0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的位置为极坐标系90°方向（y轴正方向）：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔的配置如下图所示：</t>
+  </si>
+  <si>
+    <t>机制整体流程图示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机制时间轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦幻乐园  机制内时间轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到主时间轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赋予黑白debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑白debuff倒计时结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1列车突进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2列车突进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>急急如律令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读条结束，伤害判定</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3列车突进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-4列车突进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-5列车突进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-6列车突进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-7列车突进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-8列车突进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔1、2出现</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔3、4出现</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔5、6出现</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔7、8出现</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔1、2判定</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔3、4判定</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔5、6判定</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔7、8判定</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>boss开始读条</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC45911"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>急急如律令</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>boss出现，开始读条</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>急急如律令</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回到顶部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>若塔里的角色数小于所需人数，则</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1s后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>塔爆炸并对所有玩家造成血量上限十倍的伤害。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> 备注：圆内接正五边形边长2r*sin36°，出于略微增加容错率考虑取r=12m，则得边长约为14m。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.7.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦幻乐园机制复写到excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>梦幻乐园</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读条开始</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>梦幻乐园</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读条结束，传送门0出现</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一轮塔出现到判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到详细机制说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔分为黑色塔和白色塔两种，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔从出现到判定的时间依机制内容不等。详细见各机制时间轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>塔的判定范围为</t>
     </r>
     <r>
@@ -2547,435 +2965,36 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>的圆形</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>八个塔的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>圆心</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的坐标分别为：</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在（10，45°）及（10，225°）位置各出现1个四人</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>黑塔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（黑白塔细则详见</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4s后，在（10，0°）及（10，180°）位置各出现1个四人</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>白塔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>再4s后，在（10，-45°）及（10，135°）位置各出现1个四人</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>黑塔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>再4s后，在（10，-90°）及（10，90°）位置各出现1个四人</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>白塔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>即每一轮出现2个四人塔，总共四轮。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>以</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>传送门0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的位置为极坐标系90°方向（y轴正方向）：</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塔的配置如下图所示：</t>
-  </si>
-  <si>
-    <t>机制整体流程图示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详见：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机制时间轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦幻乐园  机制内时间轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转到主时间轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赋予黑白debuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑白debuff倒计时结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-1列车突进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2列车突进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>急急如律令</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>读条结束，伤害判定</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-3列车突进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-4列车突进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-5列车突进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-6列车突进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-7列车突进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-8列车突进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塔1、2出现</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>塔3、4出现</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>塔5、6出现</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>塔7、8出现</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>塔1、2判定</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>塔3、4判定</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>塔5、6判定</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>塔7、8判定</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>boss开始读条</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFC45911"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>急急如律令</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>boss出现，开始读条</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>急急如律令</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回到顶部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>若塔里的角色数小于所需人数，则</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1s后</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>塔爆炸并对所有玩家造成血量上限十倍的伤害。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t> 备注：圆内接正五边形边长2r*sin36°，出于略微增加容错率考虑取r=12m，则得边长约为14m。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.7.21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦幻乐园机制复写到excel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>梦幻乐园</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>读条开始</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>梦幻乐园</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>读条结束，传送门0出现</t>
-    </r>
+      <t>的圆形。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五轮塔出现到判定的间隔时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四轮塔出现到判定的间隔时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三轮塔出现到判定的间隔时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二轮塔出现到判定的间隔时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时生成【第四轮塔】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3254,15 +3273,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
@@ -3292,8 +3302,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3342,6 +3370,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3356,7 +3390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3413,7 +3447,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3493,6 +3527,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3531,7 +3572,7 @@
         <xdr:cNvPr id="7" name="图形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30550A4F-09EC-D5E0-DD8E-D62D116DC5EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30550A4F-09EC-D5E0-DD8E-D62D116DC5EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3543,7 +3584,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3581,7 +3622,7 @@
         <xdr:cNvPr id="8" name="图形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A663BC8C-291E-7E34-3B2F-F707997B3BC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A663BC8C-291E-7E34-3B2F-F707997B3BC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3593,7 +3634,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3631,7 +3672,7 @@
         <xdr:cNvPr id="9" name="图形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9356973A-31E4-30F0-02C9-71FCE853527B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9356973A-31E4-30F0-02C9-71FCE853527B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3643,7 +3684,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3686,7 +3727,7 @@
         <xdr:cNvPr id="4" name="图形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC42D317-D275-E0EB-01BB-967C7967E283}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC42D317-D275-E0EB-01BB-967C7967E283}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3698,7 +3739,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3736,7 +3777,7 @@
         <xdr:cNvPr id="5" name="图形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6200373B-BE66-4CE6-D476-123E7B1B2332}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6200373B-BE66-4CE6-D476-123E7B1B2332}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3748,7 +3789,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3786,7 +3827,7 @@
         <xdr:cNvPr id="6" name="图形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA4E6A10-D5E5-F8BE-2666-65C89006724C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA4E6A10-D5E5-F8BE-2666-65C89006724C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3798,7 +3839,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3836,7 +3877,7 @@
         <xdr:cNvPr id="7" name="图形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F03BF5-B449-6E07-B2D8-009730997649}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24F03BF5-B449-6E07-B2D8-009730997649}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3848,7 +3889,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3886,7 +3927,7 @@
         <xdr:cNvPr id="8" name="图形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CEED0E-018D-62AC-7628-0133305A567A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02CEED0E-018D-62AC-7628-0133305A567A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3898,7 +3939,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3936,7 +3977,7 @@
         <xdr:cNvPr id="9" name="图形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C31F56-9130-8B63-5BE1-9CC35BF18262}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78C31F56-9130-8B63-5BE1-9CC35BF18262}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3948,7 +3989,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId10"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3986,7 +4027,7 @@
         <xdr:cNvPr id="11" name="图形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66FEA8E4-7479-633F-BAD8-59804560CA64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66FEA8E4-7479-633F-BAD8-59804560CA64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3998,7 +4039,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId12"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4036,7 +4077,7 @@
         <xdr:cNvPr id="12" name="图形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D220289E-9034-22A7-5A6B-904F5E802D8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D220289E-9034-22A7-5A6B-904F5E802D8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4048,7 +4089,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId14"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4086,7 +4127,7 @@
         <xdr:cNvPr id="13" name="图形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4AA4174-8963-41F0-B638-7AC71ADA759E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4AA4174-8963-41F0-B638-7AC71ADA759E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4098,7 +4139,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4136,7 +4177,7 @@
         <xdr:cNvPr id="14" name="图形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A72AB1F8-2CB1-E314-CCEB-45127655A069}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A72AB1F8-2CB1-E314-CCEB-45127655A069}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4148,7 +4189,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId18"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4191,7 +4232,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4235,7 +4276,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4279,7 +4320,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4323,7 +4364,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4367,7 +4408,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4411,7 +4452,7 @@
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4702,23 +4743,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="10.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="10.44140625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.875" style="6"/>
+    <col min="2" max="2" width="10.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="6"/>
+    <col min="4" max="4" width="10.5" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
@@ -4726,28 +4767,28 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4758,19 +4799,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -4788,7 +4829,7 @@
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
     </row>
-    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
@@ -4796,7 +4837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
@@ -4804,12 +4845,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L7" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -4819,12 +4860,12 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
@@ -4837,12 +4878,12 @@
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
     </row>
-    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L13" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
@@ -4852,35 +4893,35 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="L14" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L15" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K17" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L19" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4890,30 +4931,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA17" sqref="AA17"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="8.88671875" style="45"/>
-    <col min="11" max="11" width="9.6640625" style="49" customWidth="1"/>
-    <col min="12" max="19" width="8.88671875" style="45"/>
-    <col min="20" max="20" width="8.88671875" style="49"/>
-    <col min="21" max="28" width="8.88671875" style="45"/>
-    <col min="29" max="29" width="8.88671875" style="49"/>
-    <col min="30" max="31" width="10.77734375" style="45" customWidth="1"/>
-    <col min="32" max="32" width="12.33203125" style="45" customWidth="1"/>
-    <col min="33" max="33" width="11.33203125" style="45" customWidth="1"/>
-    <col min="34" max="34" width="11.77734375" style="45" customWidth="1"/>
-    <col min="35" max="16384" width="8.88671875" style="45"/>
+    <col min="1" max="10" width="8.875" style="45"/>
+    <col min="11" max="11" width="9.625" style="49" customWidth="1"/>
+    <col min="12" max="19" width="8.875" style="45"/>
+    <col min="20" max="20" width="8.875" style="49"/>
+    <col min="21" max="22" width="8.875" style="45"/>
+    <col min="23" max="23" width="10.125" style="45" customWidth="1"/>
+    <col min="24" max="28" width="8.875" style="45"/>
+    <col min="29" max="29" width="8.875" style="49"/>
+    <col min="30" max="31" width="10.75" style="45" customWidth="1"/>
+    <col min="32" max="32" width="12.375" style="45" customWidth="1"/>
+    <col min="33" max="33" width="11.375" style="45" customWidth="1"/>
+    <col min="34" max="34" width="11.75" style="45" customWidth="1"/>
+    <col min="35" max="16384" width="8.875" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="40" t="s">
         <v>83</v>
       </c>
@@ -4930,7 +4973,7 @@
       <c r="O1" s="47"/>
       <c r="P1" s="47"/>
       <c r="T1" s="46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U1" s="47"/>
       <c r="V1" s="47"/>
@@ -4939,7 +4982,7 @@
       <c r="Y1" s="47"/>
       <c r="Z1" s="47"/>
       <c r="AC1" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AD1" s="47"/>
       <c r="AE1" s="47"/>
@@ -4947,83 +4990,91 @@
       <c r="AG1" s="47"/>
       <c r="AH1" s="47"/>
       <c r="AJ1" s="45" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K2" s="48">
         <v>0</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T2" s="48">
         <v>0</v>
       </c>
       <c r="U2" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AC2" s="54">
         <v>0</v>
       </c>
       <c r="AD2" s="37" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AE2" s="55"/>
       <c r="AF2" s="55"/>
       <c r="AG2" s="55"/>
       <c r="AH2" s="13"/>
     </row>
-    <row r="3" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K3" s="48">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="L3" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T3" s="48">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="U3" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC3" s="54">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="AD3" s="13" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AE3" s="55"/>
       <c r="AF3" s="55"/>
       <c r="AG3" s="55"/>
       <c r="AH3" s="13"/>
     </row>
-    <row r="4" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K4" s="48">
         <v>4.8611111111111112E-3</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>86</v>
       </c>
+      <c r="T4" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="U4" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
       <c r="AC4" s="54">
         <v>4.8611111111111112E-3</v>
       </c>
       <c r="AD4" s="55" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AE4" s="13"/>
       <c r="AF4" s="13"/>
       <c r="AG4" s="13"/>
       <c r="AH4" s="13"/>
     </row>
-    <row r="5" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K5" s="48"/>
       <c r="L5" s="13"/>
       <c r="T5" s="50">
         <v>9.0277777777777787E-3</v>
       </c>
       <c r="U5" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC5" s="56"/>
       <c r="AD5" s="55"/>
@@ -5032,7 +5083,7 @@
       <c r="AG5" s="55"/>
       <c r="AH5" s="13"/>
     </row>
-    <row r="6" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K6" s="50">
         <v>1.1805555555555555E-2</v>
       </c>
@@ -5043,26 +5094,34 @@
         <v>9.0277777777777787E-3</v>
       </c>
       <c r="U6" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AC6" s="54">
         <v>5.5555555555555558E-3</v>
       </c>
       <c r="AD6" s="57" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AE6" s="55"/>
       <c r="AF6" s="55"/>
       <c r="AG6" s="55"/>
       <c r="AH6" s="13"/>
     </row>
-    <row r="7" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K7" s="48">
         <v>1.2499999999999999E-2</v>
       </c>
       <c r="L7" s="13" t="s">
         <v>89</v>
       </c>
+      <c r="T7" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="U7" s="64" t="s">
+        <v>239</v>
+      </c>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
       <c r="AC7" s="56"/>
       <c r="AD7" s="13"/>
       <c r="AE7" s="13"/>
@@ -5070,7 +5129,7 @@
       <c r="AG7" s="13"/>
       <c r="AH7" s="13"/>
     </row>
-    <row r="8" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K8" s="48">
         <v>1.3194444444444399E-2</v>
       </c>
@@ -5081,7 +5140,7 @@
         <v>1.4583333333333332E-2</v>
       </c>
       <c r="U8" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AC8" s="56"/>
       <c r="AD8" s="13"/>
@@ -5090,7 +5149,7 @@
       <c r="AG8" s="55"/>
       <c r="AH8" s="13"/>
     </row>
-    <row r="9" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K9" s="48">
         <v>1.38888888888889E-2</v>
       </c>
@@ -5101,20 +5160,20 @@
         <v>1.4583333333333332E-2</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AC9" s="54">
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="AD9" s="58" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AE9" s="55"/>
       <c r="AF9" s="55"/>
       <c r="AG9" s="55"/>
       <c r="AH9" s="13"/>
     </row>
-    <row r="10" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K10" s="48">
         <v>1.4583333333333301E-2</v>
       </c>
@@ -5125,7 +5184,7 @@
         <v>1.4583333333333332E-2</v>
       </c>
       <c r="U10" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AC10" s="56"/>
       <c r="AD10" s="13"/>
@@ -5134,47 +5193,55 @@
       <c r="AG10" s="13"/>
       <c r="AH10" s="13"/>
     </row>
-    <row r="11" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K11" s="51">
         <v>1.5277777777777777E-2</v>
       </c>
       <c r="L11" s="37" t="s">
         <v>93</v>
       </c>
+      <c r="T11" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="U11" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="V11" s="64"/>
+      <c r="W11" s="64"/>
       <c r="AC11" s="54">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="AD11" s="55"/>
       <c r="AE11" s="55"/>
       <c r="AF11" s="55" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AG11" s="55"/>
       <c r="AH11" s="13"/>
     </row>
-    <row r="12" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T12" s="48">
-        <v>2.013888888888889E-2</v>
+        <v>1.9444444444444445E-2</v>
       </c>
       <c r="U12" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AC12" s="59">
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="AD12" s="60" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AE12" s="57" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AF12" s="55"/>
       <c r="AG12" s="61" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AH12" s="61"/>
     </row>
-    <row r="13" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K13" s="50">
         <v>2.2222222222222223E-2</v>
       </c>
@@ -5182,10 +5249,10 @@
         <v>94</v>
       </c>
       <c r="T13" s="48">
-        <v>2.013888888888889E-2</v>
+        <v>1.9444444444444445E-2</v>
       </c>
       <c r="U13" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AC13" s="54">
         <v>1.1805555555555555E-2</v>
@@ -5193,12 +5260,12 @@
       <c r="AD13" s="55"/>
       <c r="AE13" s="55"/>
       <c r="AF13" s="55" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AG13" s="55"/>
       <c r="AH13" s="13"/>
     </row>
-    <row r="14" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K14" s="48">
         <v>2.2916666666666669E-2</v>
       </c>
@@ -5206,7 +5273,7 @@
         <v>95</v>
       </c>
       <c r="U14" s="13" t="s">
-        <v>161</v>
+        <v>240</v>
       </c>
       <c r="AC14" s="56"/>
       <c r="AD14" s="13"/>
@@ -5215,25 +5282,33 @@
       <c r="AG14" s="13"/>
       <c r="AH14" s="13"/>
     </row>
-    <row r="15" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K15" s="51">
         <v>2.361111111111111E-2</v>
       </c>
       <c r="L15" s="37" t="s">
         <v>99</v>
       </c>
+      <c r="T15" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="U15" s="64" t="s">
+        <v>237</v>
+      </c>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
       <c r="AC15" s="54">
         <v>1.3194444444444444E-2</v>
       </c>
       <c r="AD15" s="55"/>
       <c r="AE15" s="55"/>
       <c r="AF15" s="55" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AG15" s="55"/>
       <c r="AH15" s="13"/>
     </row>
-    <row r="16" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K16" s="52">
         <v>2.36111111111111E-2</v>
       </c>
@@ -5241,25 +5316,25 @@
         <v>96</v>
       </c>
       <c r="T16" s="48">
-        <v>2.5694444444444447E-2</v>
+        <v>2.361111111111111E-2</v>
       </c>
       <c r="U16" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AC16" s="54">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="AD16" s="62" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AE16" s="58" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AF16" s="55"/>
       <c r="AG16" s="55"/>
       <c r="AH16" s="13"/>
     </row>
-    <row r="17" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K17" s="52">
         <v>2.4305555555555601E-2</v>
       </c>
@@ -5267,10 +5342,10 @@
         <v>97</v>
       </c>
       <c r="T17" s="48">
-        <v>2.5694444444444447E-2</v>
+        <v>2.361111111111111E-2</v>
       </c>
       <c r="U17" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AC17" s="54">
         <v>1.4583333333333332E-2</v>
@@ -5278,18 +5353,26 @@
       <c r="AD17" s="55"/>
       <c r="AE17" s="55"/>
       <c r="AF17" s="55" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AG17" s="13"/>
       <c r="AH17" s="13"/>
     </row>
-    <row r="18" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K18" s="52">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L18" s="13" t="s">
         <v>98</v>
       </c>
+      <c r="T18" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="U18" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
       <c r="AC18" s="56"/>
       <c r="AD18" s="13"/>
       <c r="AE18" s="13"/>
@@ -5297,12 +5380,12 @@
       <c r="AG18" s="13"/>
       <c r="AH18" s="13"/>
     </row>
-    <row r="19" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T19" s="48">
-        <v>3.125E-2</v>
+        <v>2.7083333333333334E-2</v>
       </c>
       <c r="U19" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AC19" s="54">
         <v>1.5972222222222224E-2</v>
@@ -5310,12 +5393,12 @@
       <c r="AD19" s="55"/>
       <c r="AE19" s="55"/>
       <c r="AF19" s="55" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AG19" s="13"/>
       <c r="AH19" s="13"/>
     </row>
-    <row r="20" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K20" s="48">
         <v>2.5694444444444447E-2</v>
       </c>
@@ -5327,24 +5410,24 @@
       </c>
       <c r="AD20" s="55"/>
       <c r="AE20" s="60" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AF20" s="55"/>
       <c r="AG20" s="55"/>
       <c r="AH20" s="13"/>
     </row>
-    <row r="21" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K21" s="48">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="L21" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T21" s="48">
-        <v>3.1944444444444449E-2</v>
+        <v>2.9166666666666664E-2</v>
       </c>
       <c r="U21" s="13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AC21" s="54">
         <v>1.7361111111111112E-2</v>
@@ -5352,23 +5435,23 @@
       <c r="AD21" s="55"/>
       <c r="AE21" s="55"/>
       <c r="AF21" s="55" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AG21" s="55"/>
       <c r="AH21" s="13"/>
     </row>
-    <row r="22" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K22" s="48">
         <v>3.125E-2</v>
       </c>
       <c r="L22" s="37" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="T22" s="48">
-        <v>3.5416666666666666E-2</v>
+        <v>3.2638888888888891E-2</v>
       </c>
       <c r="U22" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AC22" s="56"/>
       <c r="AD22" s="13"/>
@@ -5377,12 +5460,12 @@
       <c r="AG22" s="55"/>
       <c r="AH22" s="13"/>
     </row>
-    <row r="23" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T23" s="50">
         <v>3.6805555555555557E-2</v>
       </c>
       <c r="U23" s="38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AC23" s="54">
         <v>1.8749999999999999E-2</v>
@@ -5390,29 +5473,32 @@
       <c r="AD23" s="55"/>
       <c r="AE23" s="55"/>
       <c r="AF23" s="55" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AG23" s="55"/>
       <c r="AH23" s="13"/>
     </row>
-    <row r="24" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K24" s="53" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AC24" s="54">
         <v>1.9444444444444445E-2</v>
       </c>
       <c r="AD24" s="55"/>
       <c r="AE24" s="62" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AF24" s="55"/>
       <c r="AG24" s="55"/>
       <c r="AH24" s="13"/>
     </row>
-    <row r="25" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="53" t="s">
+        <v>232</v>
+      </c>
       <c r="T25" s="53" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AC25" s="54">
         <v>2.013888888888889E-2</v>
@@ -5420,12 +5506,15 @@
       <c r="AD25" s="55"/>
       <c r="AE25" s="55"/>
       <c r="AF25" s="55" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG25" s="55"/>
       <c r="AH25" s="13"/>
     </row>
-    <row r="26" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T26" s="53" t="s">
+        <v>232</v>
+      </c>
       <c r="AC26" s="56"/>
       <c r="AD26" s="13"/>
       <c r="AE26" s="13"/>
@@ -5433,19 +5522,19 @@
       <c r="AG26" s="55"/>
       <c r="AH26" s="13"/>
     </row>
-    <row r="27" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC27" s="54">
         <v>2.1527777777777781E-2</v>
       </c>
       <c r="AD27" s="55" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AE27" s="55"/>
       <c r="AF27" s="55"/>
       <c r="AG27" s="55"/>
       <c r="AH27" s="13"/>
     </row>
-    <row r="28" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC28" s="56"/>
       <c r="AD28" s="55"/>
       <c r="AE28" s="55"/>
@@ -5453,19 +5542,19 @@
       <c r="AG28" s="55"/>
       <c r="AH28" s="13"/>
     </row>
-    <row r="29" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC29" s="54">
         <v>2.4999999999999998E-2</v>
       </c>
       <c r="AD29" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AE29" s="55"/>
       <c r="AF29" s="55"/>
       <c r="AG29" s="55"/>
       <c r="AH29" s="13"/>
     </row>
-    <row r="30" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC30" s="56"/>
       <c r="AD30" s="13"/>
       <c r="AE30" s="13"/>
@@ -5473,7 +5562,7 @@
       <c r="AG30" s="55"/>
       <c r="AH30" s="13"/>
     </row>
-    <row r="31" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC31" s="54">
         <v>3.888888888888889E-2</v>
       </c>
@@ -5481,11 +5570,11 @@
       <c r="AE31" s="55"/>
       <c r="AF31" s="55"/>
       <c r="AG31" s="61" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AH31" s="61"/>
     </row>
-    <row r="32" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC32" s="56"/>
       <c r="AD32" s="55"/>
       <c r="AE32" s="55"/>
@@ -5493,75 +5582,77 @@
       <c r="AG32" s="55"/>
       <c r="AH32" s="13"/>
     </row>
-    <row r="33" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC33" s="53" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AE33" s="13"/>
       <c r="AF33" s="13"/>
       <c r="AG33" s="13"/>
       <c r="AH33" s="13"/>
     </row>
-    <row r="34" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AC34" s="43"/>
+    <row r="34" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC34" s="53" t="s">
+        <v>232</v>
+      </c>
       <c r="AD34" s="42"/>
       <c r="AE34" s="42"/>
       <c r="AF34" s="42"/>
       <c r="AG34" s="42"/>
     </row>
-    <row r="35" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC35" s="43"/>
       <c r="AD35" s="42"/>
       <c r="AE35" s="42"/>
       <c r="AF35" s="42"/>
       <c r="AG35" s="42"/>
     </row>
-    <row r="36" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC36" s="43"/>
       <c r="AD36" s="42"/>
       <c r="AE36" s="42"/>
       <c r="AF36" s="42"/>
       <c r="AG36" s="42"/>
     </row>
-    <row r="37" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC37" s="43"/>
       <c r="AD37" s="42"/>
       <c r="AE37" s="42"/>
       <c r="AF37" s="42"/>
       <c r="AG37" s="42"/>
     </row>
-    <row r="38" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AG38" s="42"/>
     </row>
-    <row r="39" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC39" s="43"/>
       <c r="AD39" s="42"/>
       <c r="AE39" s="42"/>
       <c r="AF39" s="42"/>
       <c r="AG39" s="42"/>
     </row>
-    <row r="40" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC40" s="43"/>
       <c r="AD40" s="42"/>
       <c r="AE40" s="42"/>
       <c r="AF40" s="42"/>
       <c r="AG40" s="42"/>
     </row>
-    <row r="41" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC41" s="43"/>
       <c r="AD41" s="42"/>
       <c r="AE41" s="42"/>
       <c r="AF41" s="42"/>
       <c r="AG41" s="42"/>
     </row>
-    <row r="42" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC42" s="43"/>
       <c r="AD42" s="42"/>
       <c r="AE42" s="42"/>
       <c r="AF42" s="42"/>
       <c r="AG42" s="42"/>
     </row>
-    <row r="43" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC43" s="43"/>
       <c r="AD43" s="42"/>
       <c r="AE43" s="42"/>
@@ -5571,28 +5662,32 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="T25" location="关卡时间轴!A1" display="跳转到主时间轴" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="AC33" location="关卡时间轴!A1" display="跳转到主时间轴" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="K24" location="关卡时间轴!A1" display="跳转到主时间轴" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="T25" location="关卡时间轴!A1" display="跳转到主时间轴"/>
+    <hyperlink ref="AC33" location="关卡时间轴!A1" display="跳转到主时间轴"/>
+    <hyperlink ref="K24" location="关卡时间轴!A1" display="跳转到主时间轴"/>
+    <hyperlink ref="K25" location="黎明过山车!A1" display="跳转到详细机制说明"/>
+    <hyperlink ref="T26" location="黄昏旋转木马!A1" display="跳转到详细机制说明"/>
+    <hyperlink ref="AC34" location="梦幻乐园!A1" display="跳转到详细机制说明"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O59"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>49</v>
       </c>
@@ -5603,7 +5698,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
@@ -5612,22 +5707,22 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="13" t="s">
         <v>23</v>
       </c>
@@ -5641,17 +5736,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
@@ -5660,27 +5755,27 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>30</v>
       </c>
@@ -5689,22 +5784,22 @@
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="13" t="s">
         <v>40</v>
       </c>
@@ -5712,12 +5807,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O32" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>32</v>
       </c>
@@ -5726,22 +5821,22 @@
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
     </row>
-    <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="13" t="s">
         <v>40</v>
       </c>
@@ -5749,12 +5844,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O42" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>34</v>
       </c>
@@ -5763,22 +5858,22 @@
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
     </row>
-    <row r="46" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>36</v>
       </c>
@@ -5787,17 +5882,17 @@
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
     </row>
-    <row r="55" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="13" t="s">
         <v>48</v>
       </c>
@@ -5809,21 +5904,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>50</v>
       </c>
@@ -5834,12 +5929,12 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>53</v>
       </c>
@@ -5847,27 +5942,27 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>58</v>
       </c>
@@ -5875,33 +5970,33 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" location="黎明过山车!A1" display="黎明过山车" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="D7" location="黄昏旋转木马!A1" display="黄昏旋转木马" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="D5" location="黎明过山车!A1" display="黎明过山车"/>
+    <hyperlink ref="D7" location="黄昏旋转木马!A1" display="黄昏旋转木马"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="22"/>
-    <col min="3" max="3" width="13.44140625" style="22" customWidth="1"/>
-    <col min="4" max="7" width="8.88671875" style="22"/>
-    <col min="8" max="8" width="11.88671875" style="22" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="22" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="22"/>
+    <col min="1" max="2" width="8.875" style="22"/>
+    <col min="3" max="3" width="13.5" style="22" customWidth="1"/>
+    <col min="4" max="7" width="8.875" style="22"/>
+    <col min="8" max="8" width="11.875" style="22" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="22" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="22" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="22"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>59</v>
       </c>
@@ -5913,52 +6008,52 @@
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="29" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="23" t="s">
         <v>63</v>
       </c>
@@ -5967,7 +6062,7 @@
       </c>
       <c r="E32" s="21"/>
     </row>
-    <row r="34" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="24" t="s">
         <v>62</v>
       </c>
@@ -5976,12 +6071,12 @@
       </c>
       <c r="E34" s="21"/>
     </row>
-    <row r="35" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="21" t="s">
         <v>85</v>
       </c>
@@ -5989,7 +6084,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="25" t="s">
         <v>64</v>
       </c>
@@ -5997,37 +6092,37 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="26" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="21" t="s">
         <v>81</v>
       </c>
@@ -6040,7 +6135,7 @@
       <c r="M83" s="21"/>
       <c r="N83" s="21"/>
     </row>
-    <row r="84" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="22" t="s">
         <v>82</v>
       </c>
@@ -6048,27 +6143,27 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
       <c r="D87" s="63" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E87" s="28"/>
       <c r="F87" s="28"/>
       <c r="G87" s="28"/>
       <c r="H87" s="28"/>
     </row>
-    <row r="93" spans="1:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="1:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I83" location="'关卡机制设计（1）'!A1" display="急急如律令" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="D84" location="关卡时间轴!K1" display="关卡时间轴" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="D87" location="黎明过山车!A1" display="回到顶部" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="I83" location="'关卡机制设计（1）'!A1" display="急急如律令"/>
+    <hyperlink ref="D84" location="关卡时间轴!K1" display="关卡时间轴"/>
+    <hyperlink ref="D87" location="黎明过山车!A1" display="回到顶部"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6076,27 +6171,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>101</v>
       </c>
@@ -6108,7 +6203,7 @@
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>102</v>
       </c>
@@ -6117,194 +6212,197 @@
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
     </row>
-    <row r="6" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
-        <v>186</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-    </row>
-    <row r="9" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-    </row>
-    <row r="10" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
+        <v>221</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
       <c r="O10" s="29"/>
       <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="10"/>
-    </row>
-    <row r="11" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="M11" s="10"/>
-      <c r="N11" s="34" t="s">
-        <v>113</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="10"/>
       <c r="O11" s="29"/>
       <c r="P11" s="29"/>
       <c r="Q11" s="10"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="10"/>
-    </row>
-    <row r="12" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M12" s="10"/>
-      <c r="N12" s="29"/>
+    </row>
+    <row r="12" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="10"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="10"/>
       <c r="O12" s="29"/>
       <c r="P12" s="29"/>
       <c r="Q12" s="10"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="10"/>
-    </row>
-    <row r="13" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="M13" s="10"/>
-      <c r="N13" s="29" t="s">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="10"/>
       <c r="O13" s="29"/>
       <c r="P13" s="29"/>
       <c r="Q13" s="10"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="10"/>
-    </row>
-    <row r="14" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="M14" s="10"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29" t="s">
-        <v>109</v>
-      </c>
+      <c r="M14" s="29"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="29"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="10"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="10"/>
-    </row>
-    <row r="15" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M15" s="10"/>
+    </row>
+    <row r="15" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
       <c r="N15" s="10"/>
       <c r="O15" s="29"/>
       <c r="P15" s="29"/>
       <c r="Q15" s="10"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="10"/>
-    </row>
-    <row r="16" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="M16" s="10"/>
-      <c r="N16" s="29" t="s">
-        <v>115</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="10"/>
       <c r="O16" s="29"/>
       <c r="P16" s="29"/>
       <c r="Q16" s="10"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="10"/>
-    </row>
-    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M17" s="10"/>
-      <c r="N17" s="29" t="s">
-        <v>116</v>
-      </c>
+    </row>
+    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="10"/>
+      <c r="K17" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="10"/>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="10"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="10"/>
-    </row>
-    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="M18" s="10"/>
-      <c r="N18" s="29"/>
+        <v>110</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="10"/>
       <c r="O18" s="29"/>
       <c r="P18" s="29"/>
       <c r="Q18" s="10"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="10"/>
-    </row>
-    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
+    </row>
+    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
       <c r="O19" s="29"/>
       <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="10"/>
-    </row>
-    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
+        <v>111</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
       <c r="O20" s="29"/>
       <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="10"/>
-    </row>
-    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
       <c r="O21" s="29"/>
       <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="10"/>
-    </row>
-    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="29"/>
@@ -6314,7 +6412,7 @@
       <c r="S22" s="29"/>
       <c r="T22" s="10"/>
     </row>
-    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
       <c r="O23" s="29"/>
@@ -6324,9 +6422,9 @@
       <c r="S23" s="29"/>
       <c r="T23" s="10"/>
     </row>
-    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
@@ -6341,14 +6439,14 @@
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
     </row>
-    <row r="26" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="36" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="36" t="s">
-        <v>119</v>
       </c>
       <c r="C28" s="32"/>
       <c r="D28" s="32"/>
@@ -6356,52 +6454,52 @@
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
     </row>
-    <row r="29" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C53" s="36"/>
       <c r="D53" s="36"/>
@@ -6410,19 +6508,19 @@
       <c r="G53" s="36"/>
       <c r="H53" s="36"/>
     </row>
-    <row r="54" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C75" s="36"/>
       <c r="D75" s="36"/>
@@ -6431,34 +6529,34 @@
       <c r="G75" s="36"/>
       <c r="H75" s="36"/>
     </row>
-    <row r="76" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="6" t="s">
+    <row r="79" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="100" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C100" s="36"/>
       <c r="D100" s="36"/>
@@ -6466,46 +6564,46 @@
       <c r="F100" s="36"/>
       <c r="G100" s="36"/>
     </row>
-    <row r="101" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="138" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C138" s="36"/>
       <c r="D138" s="36"/>
       <c r="E138" s="36"/>
       <c r="F138" s="36"/>
     </row>
-    <row r="139" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="141" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="157" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="158" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="160" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="22" t="s">
         <v>82</v>
       </c>
@@ -6515,21 +6613,21 @@
       </c>
       <c r="E160" s="22"/>
     </row>
-    <row r="163" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B163" s="28"/>
       <c r="C163" s="28"/>
       <c r="D163" s="63" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E163" s="28"/>
       <c r="F163" s="28"/>
       <c r="G163" s="28"/>
       <c r="H163" s="28"/>
     </row>
-    <row r="164" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="22"/>
       <c r="B164" s="22"/>
       <c r="C164" s="22"/>
@@ -6539,16 +6637,16 @@
       <c r="G164" s="22"/>
       <c r="H164" s="22"/>
     </row>
-    <row r="168" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D160" location="关卡时间轴!T1" display="关卡时间轴" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="D163" location="黄昏旋转木马!A1" display="回到顶部" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="D160" location="关卡时间轴!T1" display="关卡时间轴"/>
+    <hyperlink ref="D163" location="黄昏旋转木马!A1" display="回到顶部"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6557,16 +6655,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L128"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -6576,159 +6674,159 @@
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B4" s="21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B6" s="21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
     </row>
-    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B12" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="L16" s="29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="21" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
+    <row r="19" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B22" s="21" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L16" s="29" t="s">
+    <row r="24" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B24" s="21" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B22" s="21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B24" s="21" t="s">
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="39" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="39" t="s">
-        <v>184</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
+        <v>185</v>
+      </c>
+      <c r="I48" s="41" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B50" s="21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B52" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B54" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="I48" s="41" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B50" s="21" t="s">
+    </row>
+    <row r="56" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B56" s="21" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B52" s="21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B54" s="21" t="s">
+    <row r="57" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B57" s="21" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B56" s="21" t="s">
+    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="39" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B57" s="21" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A79" s="39" t="s">
-        <v>195</v>
       </c>
       <c r="B79" s="33"/>
       <c r="C79" s="33"/>
       <c r="D79" s="33"/>
       <c r="E79" s="33"/>
     </row>
-    <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A122" s="39" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B122" s="33"/>
       <c r="C122" s="33"/>
       <c r="D122" s="33"/>
       <c r="E122" s="33"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C124" s="41" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A128" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
       <c r="D128" s="63" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E128" s="28"/>
       <c r="F128" s="28"/>
@@ -6738,9 +6836,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I48" location="黄昏旋转木马!A1" display="黄昏旋转木马" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="C124" location="关卡时间轴!AC1" display="关卡时间轴" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="D128" location="梦幻乐园!A1" display="回到顶部" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="I48" location="黄昏旋转木马!A1" display="黄昏旋转木马"/>
+    <hyperlink ref="C124" location="关卡时间轴!AC1" display="关卡时间轴"/>
+    <hyperlink ref="D128" location="梦幻乐园!A1" display="回到顶部"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/零式梦幻乐园缇亚拉 残梦之章4.xlsx
+++ b/零式梦幻乐园缇亚拉 残梦之章4.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="635" activeTab="7"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="704" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="1" r:id="rId1"/>
-    <sheet name="关卡设定" sheetId="2" r:id="rId2"/>
+    <sheet name="关卡基本设定" sheetId="2" r:id="rId2"/>
     <sheet name="关卡时间轴" sheetId="6" r:id="rId3"/>
     <sheet name="关卡机制设计（1）" sheetId="3" r:id="rId4"/>
     <sheet name="关卡机制设计（2）" sheetId="4" r:id="rId5"/>
     <sheet name="黎明过山车" sheetId="5" r:id="rId6"/>
-    <sheet name="黄昏旋转木马" sheetId="7" r:id="rId7"/>
-    <sheet name="梦幻乐园" sheetId="8" r:id="rId8"/>
+    <sheet name="人偶剧场（小红帽）" sheetId="9" r:id="rId7"/>
+    <sheet name="黄昏旋转木马" sheetId="7" r:id="rId8"/>
+    <sheet name="人偶剧场（爱丽丝）" sheetId="10" r:id="rId9"/>
+    <sheet name="梦幻乐园" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="244">
   <si>
     <t>版本记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1772,8 +1774,238 @@
     <t>第二轮塔判定后，在第二次塔的配置基础上随机减少2个白塔和2个黑塔，即生成2黑2白共4个塔。</t>
   </si>
   <si>
-    <r>
-      <t>同时boss读条</t>
+    <t>随后在这四名角色的所在位置生成4个二人塔，塔的颜色与着弹时玩家身上的debuff颜色相同（在下一轮判定）。</t>
+  </si>
+  <si>
+    <r>
+      <t>此次流星群为对离boss最远的四名角色造成小范围AOE伤害，附加3s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>易伤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>debuff</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【第四轮塔， 2个二人黑 + 2个二人白】</t>
+  </si>
+  <si>
+    <t>第三轮塔时生成的4个二人塔判定。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本页内容结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【第五轮塔， 1个四人黑 + 1个四人白】</t>
+  </si>
+  <si>
+    <t>第四轮塔判定后，在第四轮塔的配置基础上随机减少1个白塔1个黑塔，剩下的塔变成四人塔，即生成1黑1白共2个塔。</t>
+  </si>
+  <si>
+    <r>
+      <t>第五轮塔判定后，玩家两两靠近解除</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黑之命运、白之命运</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>debuff</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>随后boss读条</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>急急如律令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。全体AOE结束后机制结束。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄昏旋转木马  机制内时间轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>黄昏旋转木马</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读条开始</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>黎明过山车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读条开始</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>黎明过山车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读条结束</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>急急如律令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读条开始</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>黄昏旋转木马</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>读条结束，场地八个方向出现【第一轮塔】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>第一轮塔判定，玩家被赋予</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黑之命运、白之命运</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>debuff</t>
+    </r>
+  </si>
+  <si>
+    <t>出现【第二轮塔】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二轮塔判定</t>
+  </si>
+  <si>
+    <t>出现【第三轮塔】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>boss开始读条</t>
     </r>
     <r>
       <rPr>
@@ -1787,25 +2019,210 @@
       </rPr>
       <t>流星群</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，读条时间8s</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随后在这四名角色的所在位置生成4个二人塔，塔的颜色与着弹时玩家身上的debuff颜色相同（在下一轮判定）。</t>
-  </si>
-  <si>
-    <r>
-      <t>此次流星群为对离boss最远的四名角色造成小范围AOE伤害，附加3s</t>
+  </si>
+  <si>
+    <t>第三轮塔判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>流星群</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读条结束，对离boss最远的四名角色造成小范围AOE伤害，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四轮塔判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现【第五轮塔】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五轮塔判定</t>
+  </si>
+  <si>
+    <r>
+      <t>急急如律令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读条结束，伤害判定</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>黑之命运、白之命运</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>debuff倒计时结束（此时仍未解除debuff则玩家死亡）</t>
+    </r>
+  </si>
+  <si>
+    <t>创建原word文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.7.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复写到本excel文档（完成到黄昏旋转木马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦幻乐园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Boss读条</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC45911"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>梦幻乐园</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，读条时间5s。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">本机制分成 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>列车突进</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">及 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黑白塔</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两部分同时进行，具体细则下述。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列车突进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Boss读条结束时，场地东南西北中随机一个方向外周出现</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传送门0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时所有玩家角色随机被点名1-8的序号。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>并对受到伤害的玩家附加30s</t>
     </r>
     <r>
       <rPr>
@@ -1817,87 +2234,242 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>易伤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>debuff</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【第四轮塔， 2个二人黑 + 2个二人白】</t>
-  </si>
-  <si>
-    <t>第三轮塔时生成的4个二人塔判定。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本页内容结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【第五轮塔， 1个四人黑 + 1个四人白】</t>
-  </si>
-  <si>
-    <t>第四轮塔判定后，在第四轮塔的配置基础上随机减少1个白塔1个黑塔，剩下的塔变成四人塔，即生成1黑1白共2个塔。</t>
-  </si>
-  <si>
-    <r>
-      <t>第五轮塔判定后，玩家两两靠近解除</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>物理易伤</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>伤害判定的同时在1号玩家所在位置留下一个新</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传送门1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>伤害判定的同时在1号玩家所在位置留下一个新</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>传送门2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>一段时间过后，列车</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>由传送门0向1号玩家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进行突进，对沿途造成</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>距离衰减伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（物理伤害）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="12"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>黑之命运、白之命运</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>debuff</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>随后boss读条</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>急急如律令</t>
-    </r>
-    <r>
-      <rPr>
+      </rPr>
+      <t>物理易伤</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：受到所有物理伤害提高100倍，持续30s</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续3-8号玩家同理。即列车总共突进8次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列车距离衰减伤害细则如下图所示：</t>
+  </si>
+  <si>
+    <r>
+      <t>随后，列车</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>由传送门1向2号玩家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进行突进，对沿途造成</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>距离衰减伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>并附带</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>物理易伤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（同上）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑白塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄昏旋转木马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>八个塔的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -1905,755 +2477,156 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>。全体AOE结束后机制结束。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄昏旋转木马  机制内时间轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>黄昏旋转木马</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>读条开始</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>黎明过山车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>读条开始</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>黎明过山车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>读条结束</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>急急如律令</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>读条开始</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>黄昏旋转木马</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>读条结束，场地八个方向出现【第一轮塔】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>第一轮塔判定，玩家被赋予</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>黑之命运、白之命运</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>debuff</t>
-    </r>
-  </si>
-  <si>
-    <t>出现【第二轮塔】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二轮塔判定</t>
-  </si>
-  <si>
-    <t>出现【第三轮塔】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>boss开始读条</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFC45911"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>流星群</t>
-    </r>
-  </si>
-  <si>
-    <t>第三轮塔判定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>流星群</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>读条结束，对离boss最远的四名角色造成小范围AOE伤害，</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四轮塔判定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现【第五轮塔】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第五轮塔判定</t>
-  </si>
-  <si>
-    <r>
-      <t>急急如律令</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>读条结束，伤害判定</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>黑之命运、白之命运</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>debuff倒计时结束（此时仍未解除debuff则玩家死亡）</t>
-    </r>
-  </si>
-  <si>
-    <t>创建原word文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.7.17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复写到本excel文档（完成到黄昏旋转木马</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦幻乐园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Boss读条</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFC45911"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>梦幻乐园</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，读条时间5s。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">本机制分成 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>列车突进</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">及 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>黑白塔</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>两部分同时进行，具体细则下述。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列车突进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Boss读条结束时，场地东南西北中随机一个方向外周出现</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
+      <t>圆心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的坐标分别为：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在（10，45°）及（10，225°）位置各出现1个四人</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黑塔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（黑白塔细则详见</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4s后，在（10，0°）及（10，180°）位置各出现1个四人</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白塔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>再4s后，在（10，-45°）及（10，135°）位置各出现1个四人</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黑塔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>再4s后，在（10，-90°）及（10，90°）位置各出现1个四人</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白塔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即每一轮出现2个四人塔，总共四轮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>传送门0</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同时所有玩家角色随机被点名1-8的序号。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>并对受到伤害的玩家附加30s</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>物理易伤</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>伤害判定的同时在1号玩家所在位置留下一个新</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>传送门1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>伤害判定的同时在1号玩家所在位置留下一个新</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>传送门2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>一段时间过后，列车</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>由传送门0向1号玩家</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>进行突进，对沿途造成</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>距离衰减伤害</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（物理伤害）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>物理易伤</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：受到所有物理伤害提高100倍，持续30s</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后续3-8号玩家同理。即列车总共突进8次。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列车距离衰减伤害细则如下图所示：</t>
-  </si>
-  <si>
-    <r>
-      <t>随后，列车</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>由传送门1向2号玩家</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>进行突进，对沿途造成</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>距离衰减伤害</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>并附带</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>物理易伤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（同上）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑白塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄昏旋转木马</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>八个塔的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>圆心</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的坐标分别为：</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在（10，45°）及（10，225°）位置各出现1个四人</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>黑塔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（黑白塔细则详见</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4s后，在（10，0°）及（10，180°）位置各出现1个四人</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>白塔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>再4s后，在（10，-45°）及（10，135°）位置各出现1个四人</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>黑塔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>再4s后，在（10，-90°）及（10，90°）位置各出现1个四人</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>白塔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>即每一轮出现2个四人塔，总共四轮。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>以</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>传送门0</t>
-    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -2684,10 +2657,6 @@
   </si>
   <si>
     <t>梦幻乐园  机制内时间轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转到主时间轴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2987,6 +2956,51 @@
   </si>
   <si>
     <t>同时生成【第四轮塔】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>同时boss读条</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC45911"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>流星群</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，读条时间7s</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若玩家身上没有黑白debuff。则随机生成黑塔或白塔。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人偶剧场（小红帽）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人偶剧场（爱丽丝）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回到主时间轴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3572,7 +3586,7 @@
         <xdr:cNvPr id="7" name="图形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30550A4F-09EC-D5E0-DD8E-D62D116DC5EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30550A4F-09EC-D5E0-DD8E-D62D116DC5EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3584,7 +3598,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3622,7 +3636,7 @@
         <xdr:cNvPr id="8" name="图形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A663BC8C-291E-7E34-3B2F-F707997B3BC9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A663BC8C-291E-7E34-3B2F-F707997B3BC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3634,7 +3648,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId4"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3672,7 +3686,7 @@
         <xdr:cNvPr id="9" name="图形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9356973A-31E4-30F0-02C9-71FCE853527B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9356973A-31E4-30F0-02C9-71FCE853527B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3684,7 +3698,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3727,7 +3741,7 @@
         <xdr:cNvPr id="4" name="图形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC42D317-D275-E0EB-01BB-967C7967E283}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC42D317-D275-E0EB-01BB-967C7967E283}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3739,7 +3753,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3777,7 +3791,7 @@
         <xdr:cNvPr id="5" name="图形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6200373B-BE66-4CE6-D476-123E7B1B2332}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6200373B-BE66-4CE6-D476-123E7B1B2332}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3789,7 +3803,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId4"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3827,7 +3841,7 @@
         <xdr:cNvPr id="6" name="图形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA4E6A10-D5E5-F8BE-2666-65C89006724C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA4E6A10-D5E5-F8BE-2666-65C89006724C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3839,7 +3853,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3877,7 +3891,7 @@
         <xdr:cNvPr id="7" name="图形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24F03BF5-B449-6E07-B2D8-009730997649}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F03BF5-B449-6E07-B2D8-009730997649}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3889,7 +3903,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3913,13 +3927,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3927,7 +3941,7 @@
         <xdr:cNvPr id="8" name="图形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02CEED0E-018D-62AC-7628-0133305A567A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CEED0E-018D-62AC-7628-0133305A567A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3939,7 +3953,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId8"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3949,8 +3963,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="18288000"/>
-          <a:ext cx="6583680" cy="3703320"/>
+          <a:off x="2495550" y="18516600"/>
+          <a:ext cx="7313295" cy="3703320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3961,23 +3975,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>32860</xdr:rowOff>
+      <xdr:colOff>455295</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>23335</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="图形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78C31F56-9130-8B63-5BE1-9CC35BF18262}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C31F56-9130-8B63-5BE1-9CC35BF18262}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3989,7 +4003,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId10"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3999,8 +4013,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8519160" y="18287999"/>
-          <a:ext cx="6560820" cy="3690461"/>
+          <a:off x="9982200" y="18735674"/>
+          <a:ext cx="7322820" cy="3690461"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4013,13 +4027,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>167164</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4027,7 +4041,7 @@
         <xdr:cNvPr id="11" name="图形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66FEA8E4-7479-633F-BAD8-59804560CA64}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66FEA8E4-7479-633F-BAD8-59804560CA64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4039,7 +4053,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId12"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4063,13 +4077,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>188595</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4077,7 +4091,7 @@
         <xdr:cNvPr id="12" name="图形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D220289E-9034-22A7-5A6B-904F5E802D8F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D220289E-9034-22A7-5A6B-904F5E802D8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4089,7 +4103,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId14"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4113,13 +4127,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>353907</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4127,7 +4141,7 @@
         <xdr:cNvPr id="13" name="图形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4AA4174-8963-41F0-B638-7AC71ADA759E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4AA4174-8963-41F0-B638-7AC71ADA759E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4139,7 +4153,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId16"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4163,13 +4177,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>543560</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>205740</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4177,7 +4191,7 @@
         <xdr:cNvPr id="14" name="图形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A72AB1F8-2CB1-E314-CCEB-45127655A069}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A72AB1F8-2CB1-E314-CCEB-45127655A069}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4189,7 +4203,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId18"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4232,7 +4246,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4276,7 +4290,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4320,7 +4334,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4364,7 +4378,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4408,7 +4422,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4452,7 +4466,7 @@
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4772,29 +4786,221 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L128"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B7" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" s="29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B22" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B24" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>184</v>
+      </c>
+      <c r="I48" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B50" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B52" s="21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B54" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B56" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B57" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+    </row>
+    <row r="122" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A122" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="B122" s="33"/>
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="33"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>192</v>
+      </c>
+      <c r="C124" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A128" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B128" s="28"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="E128" s="28"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="28"/>
+      <c r="H128" s="28"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I48" location="黄昏旋转木马!A1" display="黄昏旋转木马"/>
+    <hyperlink ref="C124" location="关卡时间轴!AC1" display="关卡时间轴"/>
+    <hyperlink ref="D128" location="梦幻乐园!A1" display="回到顶部"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4934,9 +5140,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AJ43"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S12" sqref="S12"/>
+      <selection pane="bottomLeft" activeCell="Z30" sqref="Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4973,7 +5179,7 @@
       <c r="O1" s="47"/>
       <c r="P1" s="47"/>
       <c r="T1" s="46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U1" s="47"/>
       <c r="V1" s="47"/>
@@ -4982,7 +5188,7 @@
       <c r="Y1" s="47"/>
       <c r="Z1" s="47"/>
       <c r="AC1" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AD1" s="47"/>
       <c r="AE1" s="47"/>
@@ -4990,7 +5196,7 @@
       <c r="AG1" s="47"/>
       <c r="AH1" s="47"/>
       <c r="AJ1" s="45" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4998,19 +5204,19 @@
         <v>0</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T2" s="48">
         <v>0</v>
       </c>
       <c r="U2" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AC2" s="54">
         <v>0</v>
       </c>
       <c r="AD2" s="37" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AE2" s="55"/>
       <c r="AF2" s="55"/>
@@ -5022,19 +5228,19 @@
         <v>3.472222222222222E-3</v>
       </c>
       <c r="L3" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T3" s="48">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="U3" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC3" s="54">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="AD3" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AE3" s="55"/>
       <c r="AF3" s="55"/>
@@ -5049,10 +5255,10 @@
         <v>86</v>
       </c>
       <c r="T4" s="65" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="U4" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="V4" s="64"/>
       <c r="W4" s="64"/>
@@ -5060,7 +5266,7 @@
         <v>4.8611111111111112E-3</v>
       </c>
       <c r="AD4" s="55" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AE4" s="13"/>
       <c r="AF4" s="13"/>
@@ -5074,7 +5280,7 @@
         <v>9.0277777777777787E-3</v>
       </c>
       <c r="U5" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC5" s="56"/>
       <c r="AD5" s="55"/>
@@ -5094,13 +5300,13 @@
         <v>9.0277777777777787E-3</v>
       </c>
       <c r="U6" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC6" s="54">
         <v>5.5555555555555558E-3</v>
       </c>
       <c r="AD6" s="57" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AE6" s="55"/>
       <c r="AF6" s="55"/>
@@ -5115,10 +5321,10 @@
         <v>89</v>
       </c>
       <c r="T7" s="65" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="U7" s="64" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="V7" s="64"/>
       <c r="W7" s="64"/>
@@ -5140,7 +5346,7 @@
         <v>1.4583333333333332E-2</v>
       </c>
       <c r="U8" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AC8" s="56"/>
       <c r="AD8" s="13"/>
@@ -5160,13 +5366,13 @@
         <v>1.4583333333333332E-2</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AC9" s="54">
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="AD9" s="58" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AE9" s="55"/>
       <c r="AF9" s="55"/>
@@ -5184,7 +5390,7 @@
         <v>1.4583333333333332E-2</v>
       </c>
       <c r="U10" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AC10" s="56"/>
       <c r="AD10" s="13"/>
@@ -5201,10 +5407,10 @@
         <v>93</v>
       </c>
       <c r="T11" s="65" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="U11" s="64" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="V11" s="64"/>
       <c r="W11" s="64"/>
@@ -5214,7 +5420,7 @@
       <c r="AD11" s="55"/>
       <c r="AE11" s="55"/>
       <c r="AF11" s="55" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG11" s="55"/>
       <c r="AH11" s="13"/>
@@ -5224,20 +5430,20 @@
         <v>1.9444444444444445E-2</v>
       </c>
       <c r="U12" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AC12" s="59">
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="AD12" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE12" s="57" t="s">
         <v>212</v>
-      </c>
-      <c r="AE12" s="57" t="s">
-        <v>214</v>
       </c>
       <c r="AF12" s="55"/>
       <c r="AG12" s="61" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AH12" s="61"/>
     </row>
@@ -5252,7 +5458,7 @@
         <v>1.9444444444444445E-2</v>
       </c>
       <c r="U13" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AC13" s="54">
         <v>1.1805555555555555E-2</v>
@@ -5260,7 +5466,7 @@
       <c r="AD13" s="55"/>
       <c r="AE13" s="55"/>
       <c r="AF13" s="55" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AG13" s="55"/>
       <c r="AH13" s="13"/>
@@ -5273,7 +5479,7 @@
         <v>95</v>
       </c>
       <c r="U14" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AC14" s="56"/>
       <c r="AD14" s="13"/>
@@ -5290,10 +5496,10 @@
         <v>99</v>
       </c>
       <c r="T15" s="65" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="U15" s="64" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="V15" s="64"/>
       <c r="W15" s="64"/>
@@ -5303,7 +5509,7 @@
       <c r="AD15" s="55"/>
       <c r="AE15" s="55"/>
       <c r="AF15" s="55" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AG15" s="55"/>
       <c r="AH15" s="13"/>
@@ -5319,16 +5525,16 @@
         <v>2.361111111111111E-2</v>
       </c>
       <c r="U16" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AC16" s="54">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="AD16" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE16" s="58" t="s">
         <v>213</v>
-      </c>
-      <c r="AE16" s="58" t="s">
-        <v>215</v>
       </c>
       <c r="AF16" s="55"/>
       <c r="AG16" s="55"/>
@@ -5345,7 +5551,7 @@
         <v>2.361111111111111E-2</v>
       </c>
       <c r="U17" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AC17" s="54">
         <v>1.4583333333333332E-2</v>
@@ -5353,7 +5559,7 @@
       <c r="AD17" s="55"/>
       <c r="AE17" s="55"/>
       <c r="AF17" s="55" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG17" s="13"/>
       <c r="AH17" s="13"/>
@@ -5366,10 +5572,10 @@
         <v>98</v>
       </c>
       <c r="T18" s="65" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U18" s="64" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V18" s="64"/>
       <c r="W18" s="64"/>
@@ -5385,7 +5591,7 @@
         <v>2.7083333333333334E-2</v>
       </c>
       <c r="U19" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AC19" s="54">
         <v>1.5972222222222224E-2</v>
@@ -5393,7 +5599,7 @@
       <c r="AD19" s="55"/>
       <c r="AE19" s="55"/>
       <c r="AF19" s="55" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG19" s="13"/>
       <c r="AH19" s="13"/>
@@ -5410,7 +5616,7 @@
       </c>
       <c r="AD20" s="55"/>
       <c r="AE20" s="60" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AF20" s="55"/>
       <c r="AG20" s="55"/>
@@ -5421,13 +5627,13 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="L21" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T21" s="48">
         <v>2.9166666666666664E-2</v>
       </c>
       <c r="U21" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AC21" s="54">
         <v>1.7361111111111112E-2</v>
@@ -5435,7 +5641,7 @@
       <c r="AD21" s="55"/>
       <c r="AE21" s="55"/>
       <c r="AF21" s="55" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AG21" s="55"/>
       <c r="AH21" s="13"/>
@@ -5445,13 +5651,13 @@
         <v>3.125E-2</v>
       </c>
       <c r="L22" s="37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="T22" s="48">
         <v>3.2638888888888891E-2</v>
       </c>
       <c r="U22" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AC22" s="56"/>
       <c r="AD22" s="13"/>
@@ -5465,7 +5671,7 @@
         <v>3.6805555555555557E-2</v>
       </c>
       <c r="U23" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC23" s="54">
         <v>1.8749999999999999E-2</v>
@@ -5473,21 +5679,21 @@
       <c r="AD23" s="55"/>
       <c r="AE23" s="55"/>
       <c r="AF23" s="55" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG23" s="55"/>
       <c r="AH23" s="13"/>
     </row>
     <row r="24" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K24" s="53" t="s">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="AC24" s="54">
         <v>1.9444444444444445E-2</v>
       </c>
       <c r="AD24" s="55"/>
       <c r="AE24" s="62" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AF24" s="55"/>
       <c r="AG24" s="55"/>
@@ -5495,10 +5701,10 @@
     </row>
     <row r="25" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K25" s="53" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="T25" s="53" t="s">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="AC25" s="54">
         <v>2.013888888888889E-2</v>
@@ -5506,14 +5712,14 @@
       <c r="AD25" s="55"/>
       <c r="AE25" s="55"/>
       <c r="AF25" s="55" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AG25" s="55"/>
       <c r="AH25" s="13"/>
     </row>
     <row r="26" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T26" s="53" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AC26" s="56"/>
       <c r="AD26" s="13"/>
@@ -5527,7 +5733,7 @@
         <v>2.1527777777777781E-2</v>
       </c>
       <c r="AD27" s="55" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AE27" s="55"/>
       <c r="AF27" s="55"/>
@@ -5547,7 +5753,7 @@
         <v>2.4999999999999998E-2</v>
       </c>
       <c r="AD29" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AE29" s="55"/>
       <c r="AF29" s="55"/>
@@ -5570,7 +5776,7 @@
       <c r="AE31" s="55"/>
       <c r="AF31" s="55"/>
       <c r="AG31" s="61" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AH31" s="61"/>
     </row>
@@ -5584,7 +5790,7 @@
     </row>
     <row r="33" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC33" s="53" t="s">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="AE33" s="13"/>
       <c r="AF33" s="13"/>
@@ -5593,7 +5799,7 @@
     </row>
     <row r="34" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC34" s="53" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AD34" s="42"/>
       <c r="AE34" s="42"/>
@@ -5981,8 +6187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N93"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6035,7 +6241,7 @@
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6145,12 +6351,12 @@
     </row>
     <row r="87" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
       <c r="D87" s="63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E87" s="28"/>
       <c r="F87" s="28"/>
@@ -6172,10 +6378,39 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC168"/>
+  <dimension ref="A2:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC169"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6188,7 +6423,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6214,10 +6449,10 @@
     </row>
     <row r="6" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E6" s="66" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6227,7 +6462,7 @@
     </row>
     <row r="8" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -6253,7 +6488,7 @@
         <v>104</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -6461,7 +6696,7 @@
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>127</v>
@@ -6536,117 +6771,122 @@
     </row>
     <row r="78" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
-        <v>136</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="100" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="36" t="s">
+    <row r="101" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+    </row>
+    <row r="102" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C100" s="36"/>
-      <c r="D100" s="36"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="36"/>
-      <c r="G100" s="36"/>
-    </row>
-    <row r="101" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="21" t="s">
+    </row>
+    <row r="104" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C139" s="36"/>
+      <c r="D139" s="36"/>
+      <c r="E139" s="36"/>
+      <c r="F139" s="36"/>
+    </row>
+    <row r="140" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C161" s="22"/>
+      <c r="D161" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E161" s="22"/>
+    </row>
+    <row r="164" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B164" s="28"/>
+      <c r="C164" s="28"/>
+      <c r="D164" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="E164" s="28"/>
+      <c r="F164" s="28"/>
+      <c r="G164" s="28"/>
+      <c r="H164" s="28"/>
+    </row>
+    <row r="165" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="22"/>
+      <c r="B165" s="22"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="22"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="22"/>
+      <c r="H165" s="22"/>
+    </row>
+    <row r="169" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="138" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="C138" s="36"/>
-      <c r="D138" s="36"/>
-      <c r="E138" s="36"/>
-      <c r="F138" s="36"/>
-    </row>
-    <row r="139" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="141" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="160" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C160" s="22"/>
-      <c r="D160" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E160" s="22"/>
-    </row>
-    <row r="163" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B163" s="28"/>
-      <c r="C163" s="28"/>
-      <c r="D163" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="E163" s="28"/>
-      <c r="F163" s="28"/>
-      <c r="G163" s="28"/>
-      <c r="H163" s="28"/>
-    </row>
-    <row r="164" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="22"/>
-      <c r="B164" s="22"/>
-      <c r="C164" s="22"/>
-      <c r="D164" s="22"/>
-      <c r="E164" s="22"/>
-      <c r="F164" s="22"/>
-      <c r="G164" s="22"/>
-      <c r="H164" s="22"/>
-    </row>
-    <row r="168" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D160" location="关卡时间轴!T1" display="关卡时间轴"/>
-    <hyperlink ref="D163" location="黄昏旋转木马!A1" display="回到顶部"/>
+    <hyperlink ref="D161" location="关卡时间轴!T1" display="关卡时间轴"/>
+    <hyperlink ref="D164" location="黄昏旋转木马!A1" display="回到顶部"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6654,17 +6894,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L128"/>
+  <dimension ref="A2:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>168</v>
+        <v>242</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -6674,174 +6916,8 @@
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="21" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B7" s="21" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="L16" s="29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B17" s="21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B22" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>185</v>
-      </c>
-      <c r="I48" s="41" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B50" s="21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B52" s="21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B54" s="21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B56" s="21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B57" s="21" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
-    </row>
-    <row r="122" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="B122" s="33"/>
-      <c r="C122" s="33"/>
-      <c r="D122" s="33"/>
-      <c r="E122" s="33"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
-        <v>193</v>
-      </c>
-      <c r="C124" s="41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A128" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B128" s="28"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="E128" s="28"/>
-      <c r="F128" s="28"/>
-      <c r="G128" s="28"/>
-      <c r="H128" s="28"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="I48" location="黄昏旋转木马!A1" display="黄昏旋转木马"/>
-    <hyperlink ref="C124" location="关卡时间轴!AC1" display="关卡时间轴"/>
-    <hyperlink ref="D128" location="梦幻乐园!A1" display="回到顶部"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/零式梦幻乐园缇亚拉 残梦之章4.xlsx
+++ b/零式梦幻乐园缇亚拉 残梦之章4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="704" activeTab="6"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="704" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="294">
   <si>
     <t>版本记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3001,6 +3001,511 @@
   </si>
   <si>
     <t>回到主时间轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大灰狼 与 小红帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大灰狼：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小红帽：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会释放技能（后述）</t>
+  </si>
+  <si>
+    <t>敌方单位，追随当前第一仇恨玩家移动并进行平a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>boss读条</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>剧场开幕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，读条时间5s。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害大约为血量上限的100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读条结束时对所有玩家造成魔法伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时场地变成舞台样式，boss消失。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>随后，场地右侧（10，0）处出现</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小红帽</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小红帽初始血量50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小红帽会追随对小红帽自身的治疗量最高的玩家移动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友方单位，不会进行攻击，可被治疗及净化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量、防御等数值大致与非坦克职能的角色相当。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人偶剧场（小红帽） 机制流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大灰狼技能机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒吼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>小红帽出现2s后，在场地左侧（-10，0）处出现</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大灰狼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>大灰狼读条</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>怒吼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，读条时间5s。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>恐惧</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：可叠加层数，层数叠加到2以上时小红帽立即死亡。可净化解除。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>同时对小红帽附加1层</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>恐惧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>debuff。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害大约为血量上限的45%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直线突进（暂）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大灰狼读条直线突进，读条时间7s。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大灰狼的分身</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：敌对单位，不可选中。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>以及两个大灰狼的分身各会发出一条连向小红帽的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，线可被玩家截断（类似p3s死刑）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读条结束时大灰狼对所有玩家及小红帽造成魔法伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读条结束时，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大灰狼本体朝着直线分摊方向突进并对整条直线上所有玩家造成分摊伤害，随后停在撞到的第一个角色位置处。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害大约为坦克血量上限的70%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大灰狼的分身各自对被连线的目标造成单体物理伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若角色离大灰狼距离小于15m则其自身受到的本次伤害变为10倍。</t>
+  </si>
+  <si>
+    <t>分摊总伤害大约为血量上限的400%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示意图如下：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小红帽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>也视为分摊对象</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读条开始时，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在（15，45°）、（15，135°）、（15，-45°）以及（15，-135°）四个点中离小红帽最近的两个点处出现</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大灰狼的分身</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读条过程中，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>会出现大灰狼本体向小红帽方向的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>直线分摊标记</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>随后，大灰狼先后释放</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>怒吼、直线突进</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>直线分摊会对小红帽附加1层</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>恐惧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>debuff，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400 / (6 + 1) ≈ 57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>分身连线的目标若为小红帽，则也会附加1层</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>恐惧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>debuff</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小红帽也会追随对小红帽自身的治疗量最高的玩家移动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平a过程中大灰狼会追随第一仇恨目标移动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直线突进结束后，大灰狼进行一段时间的平a。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>随后再次先后释放</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>怒吼、直线突进</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loop 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loop 2（与Loop 1一致）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loop 3（技能形态变化）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3008,7 +3513,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3334,6 +3839,69 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -3404,7 +3972,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3548,6 +4116,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3586,7 +4159,7 @@
         <xdr:cNvPr id="7" name="图形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30550A4F-09EC-D5E0-DD8E-D62D116DC5EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30550A4F-09EC-D5E0-DD8E-D62D116DC5EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3598,7 +4171,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3636,7 +4209,7 @@
         <xdr:cNvPr id="8" name="图形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A663BC8C-291E-7E34-3B2F-F707997B3BC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A663BC8C-291E-7E34-3B2F-F707997B3BC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3648,7 +4221,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3686,7 +4259,7 @@
         <xdr:cNvPr id="9" name="图形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9356973A-31E4-30F0-02C9-71FCE853527B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9356973A-31E4-30F0-02C9-71FCE853527B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3698,7 +4271,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3741,7 +4314,7 @@
         <xdr:cNvPr id="4" name="图形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC42D317-D275-E0EB-01BB-967C7967E283}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC42D317-D275-E0EB-01BB-967C7967E283}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3753,7 +4326,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3791,7 +4364,7 @@
         <xdr:cNvPr id="5" name="图形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6200373B-BE66-4CE6-D476-123E7B1B2332}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6200373B-BE66-4CE6-D476-123E7B1B2332}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3803,7 +4376,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3841,7 +4414,7 @@
         <xdr:cNvPr id="6" name="图形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA4E6A10-D5E5-F8BE-2666-65C89006724C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA4E6A10-D5E5-F8BE-2666-65C89006724C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3853,7 +4426,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3891,7 +4464,7 @@
         <xdr:cNvPr id="7" name="图形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F03BF5-B449-6E07-B2D8-009730997649}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24F03BF5-B449-6E07-B2D8-009730997649}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3903,7 +4476,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3941,7 +4514,7 @@
         <xdr:cNvPr id="8" name="图形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CEED0E-018D-62AC-7628-0133305A567A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02CEED0E-018D-62AC-7628-0133305A567A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3953,7 +4526,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3991,7 +4564,7 @@
         <xdr:cNvPr id="9" name="图形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C31F56-9130-8B63-5BE1-9CC35BF18262}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78C31F56-9130-8B63-5BE1-9CC35BF18262}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4003,7 +4576,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId10"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4041,7 +4614,7 @@
         <xdr:cNvPr id="11" name="图形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66FEA8E4-7479-633F-BAD8-59804560CA64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66FEA8E4-7479-633F-BAD8-59804560CA64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4053,7 +4626,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId12"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4091,7 +4664,7 @@
         <xdr:cNvPr id="12" name="图形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D220289E-9034-22A7-5A6B-904F5E802D8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D220289E-9034-22A7-5A6B-904F5E802D8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4103,7 +4676,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId14"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4141,7 +4714,7 @@
         <xdr:cNvPr id="13" name="图形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4AA4174-8963-41F0-B638-7AC71ADA759E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4AA4174-8963-41F0-B638-7AC71ADA759E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4153,7 +4726,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4191,7 +4764,7 @@
         <xdr:cNvPr id="14" name="图形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A72AB1F8-2CB1-E314-CCEB-45127655A069}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A72AB1F8-2CB1-E314-CCEB-45127655A069}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4203,7 +4776,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId18"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4246,7 +4819,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4290,7 +4863,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4334,7 +4907,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4378,7 +4951,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4422,7 +4995,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4466,7 +5039,7 @@
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5884,8 +6457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O59"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5929,7 +6502,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="14"/>
@@ -5948,7 +6521,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5977,7 +6550,7 @@
       </c>
     </row>
     <row r="22" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6006,7 +6579,7 @@
       </c>
     </row>
     <row r="31" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="13" t="s">
+      <c r="D31" s="13" t="s">
         <v>40</v>
       </c>
       <c r="O31" s="17" t="s">
@@ -6043,7 +6616,7 @@
       </c>
     </row>
     <row r="41" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="13" t="s">
+      <c r="D41" s="13" t="s">
         <v>40</v>
       </c>
       <c r="O41" s="17" t="s">
@@ -6187,8 +6760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6378,13 +6951,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H2"/>
+  <dimension ref="A2:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="8.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -6397,6 +6974,266 @@
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="68" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="67" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="69" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" s="70"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>264</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="69" t="s">
+        <v>266</v>
+      </c>
+      <c r="C25" s="70"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>279</v>
+      </c>
+      <c r="D28" t="s">
+        <v>280</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>281</v>
+      </c>
+      <c r="D30" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>271</v>
+      </c>
+      <c r="D46" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>276</v>
+      </c>
+      <c r="I47" s="71" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E49" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C83" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6410,7 +7247,7 @@
   <dimension ref="A1:AC169"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6898,7 +7735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/零式梦幻乐园缇亚拉 残梦之章4.xlsx
+++ b/零式梦幻乐园缇亚拉 残梦之章4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="704" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="704" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="1" r:id="rId1"/>
@@ -2883,19 +2883,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第一轮塔出现到判定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3506,6 +3494,18 @@
   </si>
   <si>
     <t>Loop 3（技能形态变化）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一轮塔出现到判定的间隔时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3513,7 +3513,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3823,16 +3823,6 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
@@ -4112,15 +4102,15 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4128,6 +4118,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3300"/>
+      <color rgb="FFFF6600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4159,7 +4155,7 @@
         <xdr:cNvPr id="7" name="图形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30550A4F-09EC-D5E0-DD8E-D62D116DC5EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30550A4F-09EC-D5E0-DD8E-D62D116DC5EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4171,7 +4167,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4209,7 +4205,7 @@
         <xdr:cNvPr id="8" name="图形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A663BC8C-291E-7E34-3B2F-F707997B3BC9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A663BC8C-291E-7E34-3B2F-F707997B3BC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4221,7 +4217,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId4"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4259,7 +4255,7 @@
         <xdr:cNvPr id="9" name="图形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9356973A-31E4-30F0-02C9-71FCE853527B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9356973A-31E4-30F0-02C9-71FCE853527B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4271,7 +4267,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4314,7 +4310,7 @@
         <xdr:cNvPr id="4" name="图形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC42D317-D275-E0EB-01BB-967C7967E283}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC42D317-D275-E0EB-01BB-967C7967E283}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4326,7 +4322,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4364,7 +4360,7 @@
         <xdr:cNvPr id="5" name="图形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6200373B-BE66-4CE6-D476-123E7B1B2332}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6200373B-BE66-4CE6-D476-123E7B1B2332}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4376,7 +4372,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId4"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4414,7 +4410,7 @@
         <xdr:cNvPr id="6" name="图形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA4E6A10-D5E5-F8BE-2666-65C89006724C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA4E6A10-D5E5-F8BE-2666-65C89006724C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4426,7 +4422,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4464,7 +4460,7 @@
         <xdr:cNvPr id="7" name="图形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24F03BF5-B449-6E07-B2D8-009730997649}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F03BF5-B449-6E07-B2D8-009730997649}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4476,7 +4472,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4514,7 +4510,7 @@
         <xdr:cNvPr id="8" name="图形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02CEED0E-018D-62AC-7628-0133305A567A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CEED0E-018D-62AC-7628-0133305A567A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4526,7 +4522,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId8"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4564,7 +4560,7 @@
         <xdr:cNvPr id="9" name="图形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78C31F56-9130-8B63-5BE1-9CC35BF18262}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C31F56-9130-8B63-5BE1-9CC35BF18262}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4576,7 +4572,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId10"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4614,7 +4610,7 @@
         <xdr:cNvPr id="11" name="图形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66FEA8E4-7479-633F-BAD8-59804560CA64}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66FEA8E4-7479-633F-BAD8-59804560CA64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4626,7 +4622,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId12"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4664,7 +4660,7 @@
         <xdr:cNvPr id="12" name="图形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D220289E-9034-22A7-5A6B-904F5E802D8F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D220289E-9034-22A7-5A6B-904F5E802D8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4676,7 +4672,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId14"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4714,7 +4710,7 @@
         <xdr:cNvPr id="13" name="图形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4AA4174-8963-41F0-B638-7AC71ADA759E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4AA4174-8963-41F0-B638-7AC71ADA759E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4726,7 +4722,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId16"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4764,7 +4760,7 @@
         <xdr:cNvPr id="14" name="图形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A72AB1F8-2CB1-E314-CCEB-45127655A069}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A72AB1F8-2CB1-E314-CCEB-45127655A069}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4776,7 +4772,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId18"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4819,7 +4815,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4863,7 +4859,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4907,7 +4903,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4951,7 +4947,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4995,7 +4991,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5039,7 +5035,7 @@
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5713,9 +5709,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AJ43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z30" sqref="Z30"/>
+      <selection pane="bottomLeft" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5827,11 +5823,11 @@
       <c r="L4" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="T4" s="65" t="s">
+      <c r="T4" s="71" t="s">
         <v>225</v>
       </c>
       <c r="U4" s="64" t="s">
-        <v>226</v>
+        <v>293</v>
       </c>
       <c r="V4" s="64"/>
       <c r="W4" s="64"/>
@@ -5893,11 +5889,11 @@
       <c r="L7" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="T7" s="65" t="s">
+      <c r="T7" s="71" t="s">
         <v>225</v>
       </c>
       <c r="U7" s="64" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="V7" s="64"/>
       <c r="W7" s="64"/>
@@ -5979,11 +5975,11 @@
       <c r="L11" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="T11" s="65" t="s">
-        <v>228</v>
+      <c r="T11" s="71" t="s">
+        <v>291</v>
       </c>
       <c r="U11" s="64" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="V11" s="64"/>
       <c r="W11" s="64"/>
@@ -6052,7 +6048,7 @@
         <v>95</v>
       </c>
       <c r="U14" s="13" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AC14" s="56"/>
       <c r="AD14" s="13"/>
@@ -6068,11 +6064,11 @@
       <c r="L15" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="T15" s="65" t="s">
-        <v>227</v>
+      <c r="T15" s="71" t="s">
+        <v>226</v>
       </c>
       <c r="U15" s="64" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="V15" s="64"/>
       <c r="W15" s="64"/>
@@ -6144,11 +6140,11 @@
       <c r="L18" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="T18" s="65" t="s">
-        <v>229</v>
+      <c r="T18" s="71" t="s">
+        <v>292</v>
       </c>
       <c r="U18" s="64" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="V18" s="64"/>
       <c r="W18" s="64"/>
@@ -6259,7 +6255,7 @@
     </row>
     <row r="24" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K24" s="53" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AC24" s="54">
         <v>1.9444444444444445E-2</v>
@@ -6274,10 +6270,10 @@
     </row>
     <row r="25" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K25" s="53" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="T25" s="53" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AC25" s="54">
         <v>2.013888888888889E-2</v>
@@ -6292,7 +6288,7 @@
     </row>
     <row r="26" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T26" s="53" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AC26" s="56"/>
       <c r="AD26" s="13"/>
@@ -6363,7 +6359,7 @@
     </row>
     <row r="33" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC33" s="53" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AE33" s="13"/>
       <c r="AF33" s="13"/>
@@ -6372,7 +6368,7 @@
     </row>
     <row r="34" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC34" s="53" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AD34" s="42"/>
       <c r="AE34" s="42"/>
@@ -6953,7 +6949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
@@ -6965,7 +6961,7 @@
   <sheetData>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -6977,7 +6973,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -6985,43 +6981,43 @@
       <c r="E4" s="33"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="68" t="s">
-        <v>245</v>
+      <c r="B6" s="67" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="67" t="s">
-        <v>246</v>
+      <c r="B10" s="66" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
@@ -7029,123 +7025,123 @@
       <c r="E16" s="33"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="69" t="s">
-        <v>260</v>
-      </c>
-      <c r="C18" s="70"/>
+      <c r="B18" s="68" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18" s="69"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H23" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="68" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="69" t="s">
-        <v>266</v>
-      </c>
-      <c r="C25" s="70"/>
+      <c r="C25" s="69"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D28" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P28" s="14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D30" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D46" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
-        <v>276</v>
-      </c>
-      <c r="I47" s="71" t="s">
-        <v>285</v>
+        <v>273</v>
+      </c>
+      <c r="I47" s="70" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E49" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E52" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A58" s="39" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B58" s="33"/>
       <c r="C58" s="33"/>
@@ -7154,84 +7150,84 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C71" s="1"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C78" s="1"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C83" s="1"/>
     </row>
@@ -7286,10 +7282,10 @@
     </row>
     <row r="6" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>232</v>
+        <v>228</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7299,7 +7295,7 @@
     </row>
     <row r="8" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -7608,7 +7604,7 @@
     </row>
     <row r="78" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7623,7 +7619,7 @@
     </row>
     <row r="81" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7743,7 +7739,7 @@
   <sheetData>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>

--- a/零式梦幻乐园缇亚拉 残梦之章4.xlsx
+++ b/零式梦幻乐园缇亚拉 残梦之章4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="704" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="704" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="关卡机制设计（1）" sheetId="3" r:id="rId4"/>
     <sheet name="关卡机制设计（2）" sheetId="4" r:id="rId5"/>
     <sheet name="黎明过山车" sheetId="5" r:id="rId6"/>
-    <sheet name="人偶剧场（小红帽）" sheetId="9" r:id="rId7"/>
+    <sheet name="人偶剧场 - 小红帽" sheetId="9" r:id="rId7"/>
     <sheet name="黄昏旋转木马" sheetId="7" r:id="rId8"/>
-    <sheet name="人偶剧场（爱丽丝）" sheetId="10" r:id="rId9"/>
+    <sheet name="人偶剧场 - 爱丽丝" sheetId="10" r:id="rId9"/>
     <sheet name="梦幻乐园" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="360">
   <si>
     <t>版本记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -886,13 +886,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人偶剧场（小红帽）</t>
-  </si>
-  <si>
     <t>黄昏旋转木马</t>
-  </si>
-  <si>
-    <t>人偶剧场（爱丽丝）</t>
   </si>
   <si>
     <t>梦幻乐园</t>
@@ -2980,14 +2974,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人偶剧场（小红帽）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人偶剧场（爱丽丝）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回到主时间轴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3287,9 +3273,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>若角色离大灰狼距离小于15m则其自身受到的本次伤害变为10倍。</t>
-  </si>
-  <si>
     <t>分摊总伤害大约为血量上限的400%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3506,6 +3489,1251 @@
   </si>
   <si>
     <t>第一轮塔出现到判定的间隔时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若角色离大灰狼距离小于13m则其自身受到的本次伤害变为10倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>大灰狼读条并释放</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>怒吼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>随后，大灰狼读条</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>直线突进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。同时boss（在场外）读条</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创造</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此处的两个技能以下述说明为准：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直线突进（Loop 3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此次直线突进不会召唤分身，仅由大灰狼本体进行直线分摊攻击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有分摊对象的伤害固定为999999（包括小红帽）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>通过下述</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景创造</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>机制进行处理</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>大灰狼读条直线突进，读条时间</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景创造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读条过程中，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4名DPS中随机两人被点名范围AOE，另外两人被点名距离衰减。有点名标记提示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读条结束时，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围AOE和距离衰减伤害判定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>同时在范围AOE攻击的位置分别留下一片</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>荆棘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，在距离衰减玩家所在位置分别留下一座</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小屋</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆棘：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大灰狼受到止步效果时读条会被打断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>对范围内的所有角色造成</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>止步</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>效果（包括大灰狼和小红帽），荆棘范围存在时间10s。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小屋：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在地面上生成一个小屋形状的物体，无特殊效果，具体作用后述。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>boss读条</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景创造</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，读条时间</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>大灰狼</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>直线突进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>被打断后不再释放其他技能。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>止步效果结束后，大灰狼连续读条并释放</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>怒吼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即释放两次后小红帽死亡，团灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>此处的怒吼给小红帽附加的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>恐惧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>debuff无法被净化</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在整个人偶剧场机制过程中，若小红帽在任一时刻死亡，则boss立即读条</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>剧场闭幕</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，团灭。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在任一时刻大灰狼血量被打到0.1%以下时，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>死亡宣告：</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>倒计时结束时玩家立即死亡，持续15s。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景创造机制图示如右图：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（若场地中没有小屋，则随机逃向一个方向。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>小红帽会解除所有玩家身上的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>死亡宣告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，随后消失。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>立即对所有玩家附加</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>死亡宣告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>debuff，同时逃向随机一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小屋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的方向，随后消失。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大灰狼消失后，小红帽被带到小屋处可触发机制：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>当小红帽被带到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>没有大灰狼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的小屋时，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>小红帽也消失后，boss重新在场中出现，读条</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>剧场闭幕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，读条时间5s</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（带到有大灰狼的小屋则不解除死亡宣告，小红帽直接消失）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读条结束时对所有玩家造成魔法伤害，伤害大约为血量上限的100%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时场地变回原状，机制结束。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人偶剧场（小红帽）  机制内时间轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>剧场开幕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读条开始</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>剧场开幕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读条结束，伤害判定</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss消失，场地变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小红帽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出现</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大灰狼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出现</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>大灰狼读条</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>怒吼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>怒吼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读条结束，伤害判定，附加</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>恐惧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>debuff</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>大灰狼读条</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>直线突进</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>直线突进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读条结束，伤害判定，附加</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>恐惧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>debuff</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loop 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loop 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>大灰狼读条</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>直线突进，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>boss读条</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景创造</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（直线突进读条结束，团灭）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>大灰狼被</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>止步</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（直线突进读条被打断）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>荆棘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>消失，止步效果结束</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:48 （1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:48 （2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>怒吼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读条结束，伤害判定，附加1层无法净化的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>恐惧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>debuff</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>怒吼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读条结束，附加第2层</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>恐惧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>debuff（小红帽死亡，团灭）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>大灰狼被击倒逃跑，附加</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>死亡宣告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>debuff</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>死亡宣告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>倒计时结束</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2:00）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>剧场闭幕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读条开始</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>剧场闭幕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读条结束，伤害判定，场地恢复原状</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2:01）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2:06）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场景创造</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读条结束，伤害判定，生成</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>荆棘、小屋</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人偶剧场 - 小红帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人偶剧场 - 爱丽丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人偶剧场 - 小红帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人偶剧场 - 爱丽丝（未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3513,7 +4741,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3892,8 +5120,42 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3948,6 +5210,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3962,7 +5230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4111,6 +5379,29 @@
     <xf numFmtId="0" fontId="37" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4155,7 +5446,7 @@
         <xdr:cNvPr id="7" name="图形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30550A4F-09EC-D5E0-DD8E-D62D116DC5EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30550A4F-09EC-D5E0-DD8E-D62D116DC5EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4167,7 +5458,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4205,7 +5496,7 @@
         <xdr:cNvPr id="8" name="图形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A663BC8C-291E-7E34-3B2F-F707997B3BC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A663BC8C-291E-7E34-3B2F-F707997B3BC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4217,7 +5508,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4255,7 +5546,7 @@
         <xdr:cNvPr id="9" name="图形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9356973A-31E4-30F0-02C9-71FCE853527B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9356973A-31E4-30F0-02C9-71FCE853527B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4267,7 +5558,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4310,7 +5601,7 @@
         <xdr:cNvPr id="4" name="图形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC42D317-D275-E0EB-01BB-967C7967E283}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC42D317-D275-E0EB-01BB-967C7967E283}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4322,7 +5613,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4360,7 +5651,7 @@
         <xdr:cNvPr id="5" name="图形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6200373B-BE66-4CE6-D476-123E7B1B2332}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6200373B-BE66-4CE6-D476-123E7B1B2332}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4372,7 +5663,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4410,7 +5701,7 @@
         <xdr:cNvPr id="6" name="图形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA4E6A10-D5E5-F8BE-2666-65C89006724C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA4E6A10-D5E5-F8BE-2666-65C89006724C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4422,7 +5713,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4460,7 +5751,7 @@
         <xdr:cNvPr id="7" name="图形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F03BF5-B449-6E07-B2D8-009730997649}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24F03BF5-B449-6E07-B2D8-009730997649}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4472,7 +5763,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4510,7 +5801,7 @@
         <xdr:cNvPr id="8" name="图形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CEED0E-018D-62AC-7628-0133305A567A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02CEED0E-018D-62AC-7628-0133305A567A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4522,7 +5813,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4560,7 +5851,7 @@
         <xdr:cNvPr id="9" name="图形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C31F56-9130-8B63-5BE1-9CC35BF18262}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78C31F56-9130-8B63-5BE1-9CC35BF18262}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4572,7 +5863,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId10"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4610,7 +5901,7 @@
         <xdr:cNvPr id="11" name="图形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66FEA8E4-7479-633F-BAD8-59804560CA64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66FEA8E4-7479-633F-BAD8-59804560CA64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4622,7 +5913,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId12"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4660,7 +5951,7 @@
         <xdr:cNvPr id="12" name="图形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D220289E-9034-22A7-5A6B-904F5E802D8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D220289E-9034-22A7-5A6B-904F5E802D8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4672,7 +5963,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId14"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4710,7 +6001,7 @@
         <xdr:cNvPr id="13" name="图形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4AA4174-8963-41F0-B638-7AC71ADA759E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4AA4174-8963-41F0-B638-7AC71ADA759E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4722,7 +6013,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4760,7 +6051,7 @@
         <xdr:cNvPr id="14" name="图形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A72AB1F8-2CB1-E314-CCEB-45127655A069}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A72AB1F8-2CB1-E314-CCEB-45127655A069}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4772,7 +6063,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId18"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4815,7 +6106,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4859,7 +6150,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4903,7 +6194,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4947,7 +6238,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4991,7 +6282,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5035,7 +6326,7 @@
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5355,23 +6646,23 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -5385,13 +6676,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L128"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -5403,22 +6696,22 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B4" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B6" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -5427,55 +6720,55 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B12" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B17" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B22" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B24" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -5484,45 +6777,45 @@
     </row>
     <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I48" s="41" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B50" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B52" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B54" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B56" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B57" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A79" s="39" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B79" s="33"/>
       <c r="C79" s="33"/>
@@ -5531,7 +6824,7 @@
     </row>
     <row r="122" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A122" s="39" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B122" s="33"/>
       <c r="C122" s="33"/>
@@ -5540,20 +6833,20 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C124" s="41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A128" s="30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
       <c r="D128" s="63" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E128" s="28"/>
       <c r="F128" s="28"/>
@@ -5622,7 +6915,7 @@
     </row>
     <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L7" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5668,7 +6961,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="L14" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5683,7 +6976,7 @@
     </row>
     <row r="17" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K17" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5691,12 +6984,12 @@
         <v>7</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L19" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -5707,742 +7000,957 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AJ43"/>
+  <dimension ref="B1:AS43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R13" sqref="R13"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="10" width="8.875" style="45"/>
     <col min="11" max="11" width="9.625" style="49" customWidth="1"/>
-    <col min="12" max="19" width="8.875" style="45"/>
-    <col min="20" max="20" width="8.875" style="49"/>
-    <col min="21" max="22" width="8.875" style="45"/>
-    <col min="23" max="23" width="10.125" style="45" customWidth="1"/>
-    <col min="24" max="28" width="8.875" style="45"/>
-    <col min="29" max="29" width="8.875" style="49"/>
-    <col min="30" max="31" width="10.75" style="45" customWidth="1"/>
-    <col min="32" max="32" width="12.375" style="45" customWidth="1"/>
-    <col min="33" max="33" width="11.375" style="45" customWidth="1"/>
-    <col min="34" max="34" width="11.75" style="45" customWidth="1"/>
-    <col min="35" max="16384" width="8.875" style="45"/>
+    <col min="12" max="18" width="8.875" style="45"/>
+    <col min="19" max="19" width="9.375" style="49" customWidth="1"/>
+    <col min="20" max="20" width="8.875" style="45"/>
+    <col min="21" max="21" width="24.875" style="45" customWidth="1"/>
+    <col min="22" max="22" width="8.875" style="45" customWidth="1"/>
+    <col min="23" max="25" width="8.875" style="45"/>
+    <col min="26" max="26" width="11" style="45" customWidth="1"/>
+    <col min="27" max="27" width="8.875" style="45"/>
+    <col min="28" max="28" width="8.875" style="49"/>
+    <col min="29" max="30" width="8.875" style="45"/>
+    <col min="31" max="31" width="10.125" style="45" customWidth="1"/>
+    <col min="32" max="37" width="8.875" style="45"/>
+    <col min="38" max="38" width="8.875" style="49"/>
+    <col min="39" max="40" width="10.75" style="45" customWidth="1"/>
+    <col min="41" max="41" width="12.375" style="45" customWidth="1"/>
+    <col min="42" max="42" width="11.375" style="45" customWidth="1"/>
+    <col min="43" max="43" width="11.75" style="45" customWidth="1"/>
+    <col min="44" max="16384" width="8.875" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
       <c r="E1" s="44"/>
       <c r="F1" s="44"/>
       <c r="K1" s="46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L1" s="47"/>
       <c r="M1" s="47"/>
       <c r="N1" s="47"/>
       <c r="O1" s="47"/>
       <c r="P1" s="47"/>
-      <c r="T1" s="46" t="s">
-        <v>146</v>
-      </c>
+      <c r="S1" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="T1" s="47"/>
       <c r="U1" s="47"/>
       <c r="V1" s="47"/>
       <c r="W1" s="47"/>
       <c r="X1" s="47"/>
       <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AC1" s="46" t="s">
-        <v>194</v>
-      </c>
+      <c r="AB1" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC1" s="47"/>
       <c r="AD1" s="47"/>
       <c r="AE1" s="47"/>
       <c r="AF1" s="47"/>
       <c r="AG1" s="47"/>
       <c r="AH1" s="47"/>
-      <c r="AJ1" s="45" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI1" s="47"/>
+      <c r="AL1" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="47"/>
+      <c r="AS1" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K2" s="48">
         <v>0</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="T2" s="48">
+        <v>146</v>
+      </c>
+      <c r="S2" s="48">
         <v>0</v>
       </c>
-      <c r="U2" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC2" s="54">
+      <c r="T2" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB2" s="48">
         <v>0</v>
       </c>
-      <c r="AD2" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="13"/>
-    </row>
-    <row r="3" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC2" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL2" s="54">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="13"/>
+    </row>
+    <row r="3" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K3" s="48">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="L3" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="S3" s="48">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="T3" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB3" s="48">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AC3" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="T3" s="48">
+      <c r="AL3" s="54">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="U3" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC3" s="54">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="AD3" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="13"/>
-    </row>
-    <row r="4" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM3" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="13"/>
+    </row>
+    <row r="4" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K4" s="48">
         <v>4.8611111111111112E-3</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="T4" s="71" t="s">
-        <v>225</v>
-      </c>
-      <c r="U4" s="64" t="s">
-        <v>293</v>
-      </c>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64"/>
-      <c r="AC4" s="54">
+        <v>84</v>
+      </c>
+      <c r="S4" s="48">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="AD4" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-    </row>
-    <row r="5" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T4" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="AB4" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC4" s="64" t="s">
+        <v>288</v>
+      </c>
+      <c r="AD4" s="64"/>
+      <c r="AE4" s="64"/>
+      <c r="AL4" s="54">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="AM4" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+    </row>
+    <row r="5" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="83"/>
       <c r="K5" s="48"/>
       <c r="L5" s="13"/>
-      <c r="T5" s="50">
+      <c r="AB5" s="50">
         <v>9.0277777777777787E-3</v>
       </c>
-      <c r="U5" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="55"/>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="55"/>
-      <c r="AH5" s="13"/>
-    </row>
-    <row r="6" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC5" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="55"/>
+      <c r="AN5" s="55"/>
+      <c r="AO5" s="55"/>
+      <c r="AP5" s="55"/>
+      <c r="AQ5" s="13"/>
+    </row>
+    <row r="6" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K6" s="50">
         <v>1.1805555555555555E-2</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="T6" s="48">
+        <v>85</v>
+      </c>
+      <c r="S6" s="48">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="T6" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="AB6" s="48">
         <v>9.0277777777777787E-3</v>
       </c>
-      <c r="U6" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC6" s="54">
+      <c r="AC6" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL6" s="54">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="AD6" s="57" t="s">
-        <v>208</v>
-      </c>
-      <c r="AE6" s="55"/>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="55"/>
-      <c r="AH6" s="13"/>
-    </row>
-    <row r="7" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM6" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN6" s="55"/>
+      <c r="AO6" s="55"/>
+      <c r="AP6" s="55"/>
+      <c r="AQ6" s="13"/>
+    </row>
+    <row r="7" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K7" s="48">
         <v>1.2499999999999999E-2</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="T7" s="71" t="s">
-        <v>225</v>
-      </c>
-      <c r="U7" s="64" t="s">
-        <v>234</v>
-      </c>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
-      <c r="AC7" s="56"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-    </row>
-    <row r="8" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="S7" s="48">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="T7" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="AB7" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC7" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD7" s="64"/>
+      <c r="AE7" s="64"/>
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+    </row>
+    <row r="8" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K8" s="48">
         <v>1.3194444444444399E-2</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="T8" s="48">
+        <v>88</v>
+      </c>
+      <c r="S8" s="84"/>
+      <c r="T8" s="64" t="s">
+        <v>283</v>
+      </c>
+      <c r="U8" s="85"/>
+      <c r="V8" s="85"/>
+      <c r="AB8" s="48">
         <v>1.4583333333333332E-2</v>
       </c>
-      <c r="U8" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC8" s="56"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="13"/>
-    </row>
-    <row r="9" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC8" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="55"/>
+      <c r="AO8" s="55"/>
+      <c r="AP8" s="55"/>
+      <c r="AQ8" s="13"/>
+    </row>
+    <row r="9" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K9" s="48">
         <v>1.38888888888889E-2</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="T9" s="48">
+        <v>89</v>
+      </c>
+      <c r="S9" s="48">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="T9" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB9" s="48">
         <v>1.4583333333333332E-2</v>
       </c>
-      <c r="U9" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC9" s="54">
+      <c r="AC9" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL9" s="54">
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="AD9" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE9" s="55"/>
-      <c r="AF9" s="55"/>
-      <c r="AG9" s="55"/>
-      <c r="AH9" s="13"/>
-    </row>
-    <row r="10" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM9" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN9" s="55"/>
+      <c r="AO9" s="55"/>
+      <c r="AP9" s="55"/>
+      <c r="AQ9" s="13"/>
+    </row>
+    <row r="10" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K10" s="48">
         <v>1.4583333333333301E-2</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="T10" s="48">
+        <v>90</v>
+      </c>
+      <c r="S10" s="48">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="T10" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB10" s="48">
         <v>1.4583333333333332E-2</v>
       </c>
-      <c r="U10" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-    </row>
-    <row r="11" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC10" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL10" s="56"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+    </row>
+    <row r="11" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K11" s="51">
         <v>1.5277777777777777E-2</v>
       </c>
       <c r="L11" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="T11" s="71" t="s">
-        <v>291</v>
-      </c>
-      <c r="U11" s="64" t="s">
-        <v>233</v>
-      </c>
-      <c r="V11" s="64"/>
-      <c r="W11" s="64"/>
-      <c r="AC11" s="54">
+        <v>91</v>
+      </c>
+      <c r="S11" s="48">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="T11" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB11" s="71" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC11" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD11" s="64"/>
+      <c r="AE11" s="64"/>
+      <c r="AL11" s="54">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="AD11" s="55"/>
-      <c r="AE11" s="55"/>
-      <c r="AF11" s="55" t="s">
-        <v>199</v>
-      </c>
-      <c r="AG11" s="55"/>
-      <c r="AH11" s="13"/>
-    </row>
-    <row r="12" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="T12" s="48">
+      <c r="AM11" s="55"/>
+      <c r="AN11" s="55"/>
+      <c r="AO11" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="AP11" s="55"/>
+      <c r="AQ11" s="13"/>
+    </row>
+    <row r="12" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="48">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="T12" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB12" s="48">
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="U12" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC12" s="59">
+      <c r="AC12" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL12" s="59">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="AD12" s="60" t="s">
+      <c r="AM12" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="AN12" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="AE12" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="AF12" s="55"/>
-      <c r="AG12" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="AH12" s="61"/>
-    </row>
-    <row r="13" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AO12" s="55"/>
+      <c r="AP12" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="AQ12" s="61"/>
+    </row>
+    <row r="13" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K13" s="50">
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="T13" s="48">
+        <v>92</v>
+      </c>
+      <c r="S13" s="84"/>
+      <c r="T13" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="U13" s="85"/>
+      <c r="V13" s="85"/>
+      <c r="AB13" s="48">
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="U13" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC13" s="54">
+      <c r="AC13" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL13" s="54">
         <v>1.1805555555555555E-2</v>
       </c>
-      <c r="AD13" s="55"/>
-      <c r="AE13" s="55"/>
-      <c r="AF13" s="55" t="s">
-        <v>200</v>
-      </c>
-      <c r="AG13" s="55"/>
-      <c r="AH13" s="13"/>
-    </row>
-    <row r="14" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM13" s="55"/>
+      <c r="AN13" s="55"/>
+      <c r="AO13" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP13" s="55"/>
+      <c r="AQ13" s="13"/>
+    </row>
+    <row r="14" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K14" s="48">
         <v>2.2916666666666669E-2</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="U14" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-    </row>
-    <row r="15" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="S14" s="48">
+        <v>2.7083333333333334E-2</v>
+      </c>
+      <c r="T14" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="AC14" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="AL14" s="56"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+    </row>
+    <row r="15" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K15" s="51">
         <v>2.361111111111111E-2</v>
       </c>
       <c r="L15" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="T15" s="71" t="s">
-        <v>226</v>
-      </c>
-      <c r="U15" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="V15" s="64"/>
-      <c r="W15" s="64"/>
-      <c r="AC15" s="54">
+        <v>97</v>
+      </c>
+      <c r="S15" s="48">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="T15" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB15" s="71" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC15" s="64" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD15" s="64"/>
+      <c r="AE15" s="64"/>
+      <c r="AL15" s="54">
         <v>1.3194444444444444E-2</v>
       </c>
-      <c r="AD15" s="55"/>
-      <c r="AE15" s="55"/>
-      <c r="AF15" s="55" t="s">
-        <v>202</v>
-      </c>
-      <c r="AG15" s="55"/>
-      <c r="AH15" s="13"/>
-    </row>
-    <row r="16" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM15" s="55"/>
+      <c r="AN15" s="55"/>
+      <c r="AO15" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP15" s="55"/>
+      <c r="AQ15" s="13"/>
+    </row>
+    <row r="16" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K16" s="52">
         <v>2.36111111111111E-2</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="T16" s="48">
+        <v>94</v>
+      </c>
+      <c r="S16" s="48">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="T16" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB16" s="48">
         <v>2.361111111111111E-2</v>
       </c>
-      <c r="U16" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC16" s="54">
+      <c r="AC16" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL16" s="54">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="AD16" s="62" t="s">
+      <c r="AM16" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN16" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="AE16" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="AF16" s="55"/>
-      <c r="AG16" s="55"/>
-      <c r="AH16" s="13"/>
-    </row>
-    <row r="17" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AO16" s="55"/>
+      <c r="AP16" s="55"/>
+      <c r="AQ16" s="13"/>
+    </row>
+    <row r="17" spans="11:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K17" s="52">
         <v>2.4305555555555601E-2</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="T17" s="48">
+        <v>95</v>
+      </c>
+      <c r="S17" s="48">
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="T17" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB17" s="48">
         <v>2.361111111111111E-2</v>
       </c>
-      <c r="U17" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC17" s="54">
+      <c r="AC17" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL17" s="54">
         <v>1.4583333333333332E-2</v>
       </c>
-      <c r="AD17" s="55"/>
-      <c r="AE17" s="55"/>
-      <c r="AF17" s="55" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
-    </row>
-    <row r="18" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM17" s="55"/>
+      <c r="AN17" s="55"/>
+      <c r="AO17" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP17" s="13"/>
+      <c r="AQ17" s="13"/>
+    </row>
+    <row r="18" spans="11:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K18" s="52">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="T18" s="71" t="s">
-        <v>292</v>
-      </c>
-      <c r="U18" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="V18" s="64"/>
-      <c r="W18" s="64"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-    </row>
-    <row r="19" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="T19" s="48">
+        <v>96</v>
+      </c>
+      <c r="S18" s="84"/>
+      <c r="T18" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="U18" s="85"/>
+      <c r="V18" s="85"/>
+      <c r="AB18" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC18" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD18" s="64"/>
+      <c r="AE18" s="64"/>
+      <c r="AL18" s="56"/>
+      <c r="AM18" s="13"/>
+      <c r="AN18" s="13"/>
+      <c r="AO18" s="13"/>
+      <c r="AP18" s="13"/>
+      <c r="AQ18" s="13"/>
+    </row>
+    <row r="19" spans="11:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S19" s="48">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="T19" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB19" s="48">
         <v>2.7083333333333334E-2</v>
       </c>
-      <c r="U19" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC19" s="54">
+      <c r="AC19" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL19" s="54">
         <v>1.5972222222222224E-2</v>
       </c>
-      <c r="AD19" s="55"/>
-      <c r="AE19" s="55"/>
-      <c r="AF19" s="55" t="s">
-        <v>204</v>
-      </c>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
-    </row>
-    <row r="20" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM19" s="55"/>
+      <c r="AN19" s="55"/>
+      <c r="AO19" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="AP19" s="13"/>
+      <c r="AQ19" s="13"/>
+    </row>
+    <row r="20" spans="11:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K20" s="48">
         <v>2.5694444444444447E-2</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC20" s="54">
+        <v>98</v>
+      </c>
+      <c r="S20" s="48">
+        <v>4.9305555555555554E-2</v>
+      </c>
+      <c r="T20" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="AL20" s="54">
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="AD20" s="55"/>
-      <c r="AE20" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="AF20" s="55"/>
-      <c r="AG20" s="55"/>
-      <c r="AH20" s="13"/>
-    </row>
-    <row r="21" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM20" s="55"/>
+      <c r="AN20" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="AO20" s="55"/>
+      <c r="AP20" s="55"/>
+      <c r="AQ20" s="13"/>
+    </row>
+    <row r="21" spans="11:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K21" s="48">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="L21" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="T21" s="48">
+        <v>148</v>
+      </c>
+      <c r="S21" s="48">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="T21" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="V21" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB21" s="48">
         <v>2.9166666666666664E-2</v>
       </c>
-      <c r="U21" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="AC21" s="54">
+      <c r="AC21" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL21" s="54">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="AD21" s="55"/>
-      <c r="AE21" s="55"/>
-      <c r="AF21" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="AG21" s="55"/>
-      <c r="AH21" s="13"/>
-    </row>
-    <row r="22" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM21" s="55"/>
+      <c r="AN21" s="55"/>
+      <c r="AO21" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AP21" s="55"/>
+      <c r="AQ21" s="13"/>
+    </row>
+    <row r="22" spans="11:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K22" s="48">
         <v>3.125E-2</v>
       </c>
       <c r="L22" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="T22" s="48">
+        <v>199</v>
+      </c>
+      <c r="S22" s="48">
+        <v>5.7638888888888885E-2</v>
+      </c>
+      <c r="T22" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="V22" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB22" s="48">
         <v>3.2638888888888891E-2</v>
       </c>
-      <c r="U22" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="55"/>
-      <c r="AH22" s="13"/>
-    </row>
-    <row r="23" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="T23" s="50">
+      <c r="AC22" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL22" s="56"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="55"/>
+      <c r="AQ22" s="13"/>
+    </row>
+    <row r="23" spans="11:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S23" s="48">
+        <v>5.9722222222222225E-2</v>
+      </c>
+      <c r="T23" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB23" s="50">
         <v>3.6805555555555557E-2</v>
       </c>
-      <c r="U23" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC23" s="54">
+      <c r="AC23" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL23" s="54">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="AD23" s="55"/>
-      <c r="AE23" s="55"/>
-      <c r="AF23" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG23" s="55"/>
-      <c r="AH23" s="13"/>
-    </row>
-    <row r="24" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM23" s="55"/>
+      <c r="AN23" s="55"/>
+      <c r="AO23" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="AP23" s="55"/>
+      <c r="AQ23" s="13"/>
+    </row>
+    <row r="24" spans="11:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K24" s="53" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC24" s="54">
+        <v>236</v>
+      </c>
+      <c r="AL24" s="54">
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="AD24" s="55"/>
-      <c r="AE24" s="62" t="s">
+      <c r="AM24" s="55"/>
+      <c r="AN24" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO24" s="55"/>
+      <c r="AP24" s="55"/>
+      <c r="AQ24" s="13"/>
+    </row>
+    <row r="25" spans="11:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="S25" s="48">
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="T25" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="V25" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="AB25" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL25" s="54">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="AM25" s="55"/>
+      <c r="AN25" s="55"/>
+      <c r="AO25" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="AP25" s="55"/>
+      <c r="AQ25" s="13"/>
+    </row>
+    <row r="26" spans="11:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S26" s="48">
+        <v>6.805555555555555E-2</v>
+      </c>
+      <c r="T26" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB26" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="AL26" s="56"/>
+      <c r="AM26" s="13"/>
+      <c r="AN26" s="13"/>
+      <c r="AO26" s="13"/>
+      <c r="AP26" s="55"/>
+      <c r="AQ26" s="13"/>
+    </row>
+    <row r="27" spans="11:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S27" s="48">
+        <v>7.1527777777777787E-2</v>
+      </c>
+      <c r="T27" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="AL27" s="54">
+        <v>2.1527777777777781E-2</v>
+      </c>
+      <c r="AM27" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="AF24" s="55"/>
-      <c r="AG24" s="55"/>
-      <c r="AH24" s="13"/>
-    </row>
-    <row r="25" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K25" s="53" t="s">
-        <v>227</v>
-      </c>
-      <c r="T25" s="53" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC25" s="54">
-        <v>2.013888888888889E-2</v>
-      </c>
-      <c r="AD25" s="55"/>
-      <c r="AE25" s="55"/>
-      <c r="AF25" s="55" t="s">
-        <v>207</v>
-      </c>
-      <c r="AG25" s="55"/>
-      <c r="AH25" s="13"/>
-    </row>
-    <row r="26" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="T26" s="53" t="s">
-        <v>227</v>
-      </c>
-      <c r="AC26" s="56"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="55"/>
-      <c r="AH26" s="13"/>
-    </row>
-    <row r="27" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC27" s="54">
-        <v>2.1527777777777781E-2</v>
-      </c>
-      <c r="AD27" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE27" s="55"/>
-      <c r="AF27" s="55"/>
-      <c r="AG27" s="55"/>
-      <c r="AH27" s="13"/>
-    </row>
-    <row r="28" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC28" s="56"/>
-      <c r="AD28" s="55"/>
-      <c r="AE28" s="55"/>
-      <c r="AF28" s="55"/>
-      <c r="AG28" s="55"/>
-      <c r="AH28" s="13"/>
-    </row>
-    <row r="29" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC29" s="54">
+      <c r="AN27" s="55"/>
+      <c r="AO27" s="55"/>
+      <c r="AP27" s="55"/>
+      <c r="AQ27" s="13"/>
+    </row>
+    <row r="28" spans="11:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S28" s="48" t="s">
+        <v>344</v>
+      </c>
+      <c r="T28" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="AL28" s="56"/>
+      <c r="AM28" s="55"/>
+      <c r="AN28" s="55"/>
+      <c r="AO28" s="55"/>
+      <c r="AP28" s="55"/>
+      <c r="AQ28" s="13"/>
+    </row>
+    <row r="29" spans="11:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S29" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="T29" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="AL29" s="54">
         <v>2.4999999999999998E-2</v>
       </c>
-      <c r="AD29" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE29" s="55"/>
-      <c r="AF29" s="55"/>
-      <c r="AG29" s="55"/>
-      <c r="AH29" s="13"/>
-    </row>
-    <row r="30" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC30" s="56"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="55"/>
-      <c r="AH30" s="13"/>
-    </row>
-    <row r="31" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC31" s="54">
+      <c r="AM29" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN29" s="55"/>
+      <c r="AO29" s="55"/>
+      <c r="AP29" s="55"/>
+      <c r="AQ29" s="13"/>
+    </row>
+    <row r="30" spans="11:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S30" s="48">
+        <v>8.5416666666666655E-2</v>
+      </c>
+      <c r="T30" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="AL30" s="56"/>
+      <c r="AM30" s="13"/>
+      <c r="AN30" s="13"/>
+      <c r="AO30" s="13"/>
+      <c r="AP30" s="55"/>
+      <c r="AQ30" s="13"/>
+    </row>
+    <row r="31" spans="11:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL31" s="54">
         <v>3.888888888888889E-2</v>
       </c>
-      <c r="AD31" s="55"/>
-      <c r="AE31" s="55"/>
-      <c r="AF31" s="55"/>
-      <c r="AG31" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH31" s="61"/>
-    </row>
-    <row r="32" spans="11:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC32" s="56"/>
-      <c r="AD32" s="55"/>
-      <c r="AE32" s="55"/>
-      <c r="AF32" s="55"/>
-      <c r="AG32" s="55"/>
-      <c r="AH32" s="13"/>
-    </row>
-    <row r="33" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC33" s="53" t="s">
-        <v>240</v>
-      </c>
-      <c r="AE33" s="13"/>
-      <c r="AF33" s="13"/>
-      <c r="AG33" s="13"/>
-      <c r="AH33" s="13"/>
-    </row>
-    <row r="34" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC34" s="53" t="s">
-        <v>227</v>
-      </c>
-      <c r="AD34" s="42"/>
-      <c r="AE34" s="42"/>
-      <c r="AF34" s="42"/>
-      <c r="AG34" s="42"/>
-    </row>
-    <row r="35" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC35" s="43"/>
-      <c r="AD35" s="42"/>
-      <c r="AE35" s="42"/>
-      <c r="AF35" s="42"/>
-      <c r="AG35" s="42"/>
-    </row>
-    <row r="36" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC36" s="43"/>
-      <c r="AD36" s="42"/>
-      <c r="AE36" s="42"/>
-      <c r="AF36" s="42"/>
-      <c r="AG36" s="42"/>
-    </row>
-    <row r="37" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC37" s="43"/>
-      <c r="AD37" s="42"/>
-      <c r="AE37" s="42"/>
-      <c r="AF37" s="42"/>
-      <c r="AG37" s="42"/>
-    </row>
-    <row r="38" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AG38" s="42"/>
-    </row>
-    <row r="39" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC39" s="43"/>
-      <c r="AD39" s="42"/>
-      <c r="AE39" s="42"/>
-      <c r="AF39" s="42"/>
-      <c r="AG39" s="42"/>
-    </row>
-    <row r="40" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC40" s="43"/>
-      <c r="AD40" s="42"/>
-      <c r="AE40" s="42"/>
-      <c r="AF40" s="42"/>
-      <c r="AG40" s="42"/>
-    </row>
-    <row r="41" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC41" s="43"/>
-      <c r="AD41" s="42"/>
-      <c r="AE41" s="42"/>
-      <c r="AF41" s="42"/>
-      <c r="AG41" s="42"/>
-    </row>
-    <row r="42" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC42" s="43"/>
-      <c r="AD42" s="42"/>
-      <c r="AE42" s="42"/>
-      <c r="AF42" s="42"/>
-      <c r="AG42" s="42"/>
-    </row>
-    <row r="43" spans="29:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC43" s="43"/>
-      <c r="AD43" s="42"/>
-      <c r="AE43" s="42"/>
-      <c r="AF43" s="42"/>
-      <c r="AG43" s="42"/>
+      <c r="AM31" s="55"/>
+      <c r="AN31" s="55"/>
+      <c r="AO31" s="55"/>
+      <c r="AP31" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="AQ31" s="61"/>
+    </row>
+    <row r="32" spans="11:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S32" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="T32" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL32" s="56"/>
+      <c r="AM32" s="55"/>
+      <c r="AN32" s="55"/>
+      <c r="AO32" s="55"/>
+      <c r="AP32" s="55"/>
+      <c r="AQ32" s="13"/>
+    </row>
+    <row r="33" spans="19:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S33" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="T33" s="45" t="s">
+        <v>351</v>
+      </c>
+      <c r="AL33" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="AN33" s="13"/>
+      <c r="AO33" s="13"/>
+      <c r="AP33" s="13"/>
+      <c r="AQ33" s="13"/>
+    </row>
+    <row r="34" spans="19:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S34" s="48" t="s">
+        <v>354</v>
+      </c>
+      <c r="T34" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="AL34" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM34" s="42"/>
+      <c r="AN34" s="42"/>
+      <c r="AO34" s="42"/>
+      <c r="AP34" s="42"/>
+    </row>
+    <row r="35" spans="19:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL35" s="43"/>
+      <c r="AM35" s="42"/>
+      <c r="AN35" s="42"/>
+      <c r="AO35" s="42"/>
+      <c r="AP35" s="42"/>
+    </row>
+    <row r="36" spans="19:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S36" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL36" s="43"/>
+      <c r="AM36" s="42"/>
+      <c r="AN36" s="42"/>
+      <c r="AO36" s="42"/>
+      <c r="AP36" s="42"/>
+    </row>
+    <row r="37" spans="19:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S37" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="AL37" s="43"/>
+      <c r="AM37" s="42"/>
+      <c r="AN37" s="42"/>
+      <c r="AO37" s="42"/>
+      <c r="AP37" s="42"/>
+    </row>
+    <row r="38" spans="19:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP38" s="42"/>
+    </row>
+    <row r="39" spans="19:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL39" s="43"/>
+      <c r="AM39" s="42"/>
+      <c r="AN39" s="42"/>
+      <c r="AO39" s="42"/>
+      <c r="AP39" s="42"/>
+    </row>
+    <row r="40" spans="19:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL40" s="43"/>
+      <c r="AM40" s="42"/>
+      <c r="AN40" s="42"/>
+      <c r="AO40" s="42"/>
+      <c r="AP40" s="42"/>
+    </row>
+    <row r="41" spans="19:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL41" s="43"/>
+      <c r="AM41" s="42"/>
+      <c r="AN41" s="42"/>
+      <c r="AO41" s="42"/>
+      <c r="AP41" s="42"/>
+    </row>
+    <row r="42" spans="19:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL42" s="43"/>
+      <c r="AM42" s="42"/>
+      <c r="AN42" s="42"/>
+      <c r="AO42" s="42"/>
+      <c r="AP42" s="42"/>
+    </row>
+    <row r="43" spans="19:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL43" s="43"/>
+      <c r="AM43" s="42"/>
+      <c r="AN43" s="42"/>
+      <c r="AO43" s="42"/>
+      <c r="AP43" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="T25" location="关卡时间轴!A1" display="跳转到主时间轴"/>
-    <hyperlink ref="AC33" location="关卡时间轴!A1" display="跳转到主时间轴"/>
+    <hyperlink ref="AB25" location="关卡时间轴!A1" display="跳转到主时间轴"/>
+    <hyperlink ref="AL33" location="关卡时间轴!A1" display="跳转到主时间轴"/>
     <hyperlink ref="K24" location="关卡时间轴!A1" display="跳转到主时间轴"/>
     <hyperlink ref="K25" location="黎明过山车!A1" display="跳转到详细机制说明"/>
-    <hyperlink ref="T26" location="黄昏旋转木马!A1" display="跳转到详细机制说明"/>
-    <hyperlink ref="AC34" location="梦幻乐园!A1" display="跳转到详细机制说明"/>
+    <hyperlink ref="AB26" location="黄昏旋转木马!A1" display="跳转到详细机制说明"/>
+    <hyperlink ref="AL34" location="梦幻乐园!A1" display="跳转到详细机制说明"/>
+    <hyperlink ref="S36" location="关卡时间轴!A1" display="跳转到主时间轴"/>
+    <hyperlink ref="S37" location="'人偶剧场（小红帽）'!A1" display="跳转到详细机制说明"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6453,8 +7961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O59"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6683,7 +8191,7 @@
   <dimension ref="A2:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6719,27 +8227,27 @@
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="18" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="18" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="19" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="18" t="s">
-        <v>56</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -6747,6 +8255,8 @@
   <hyperlinks>
     <hyperlink ref="D5" location="黎明过山车!A1" display="黎明过山车"/>
     <hyperlink ref="D7" location="黄昏旋转木马!A1" display="黄昏旋转木马"/>
+    <hyperlink ref="D6" location="'人偶剧场 - 小红帽'!A1" display="人偶剧场 - 小红帽"/>
+    <hyperlink ref="D8" location="'人偶剧场 - 爱丽丝'!A1" display="人偶剧场 - 爱丽丝（未完成"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6756,8 +8266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N93"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6773,7 +8283,7 @@
   <sheetData>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -6785,147 +8295,150 @@
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E32" s="21"/>
     </row>
     <row r="34" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E34" s="21"/>
     </row>
     <row r="35" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L36" s="29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I83" s="27" t="s">
         <v>18</v>
       </c>
       <c r="J83" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M83" s="21"/>
       <c r="N83" s="21"/>
     </row>
     <row r="84" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D84" s="41" t="s">
-        <v>83</v>
-      </c>
+      <c r="A84" s="77"/>
+      <c r="B84" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" s="77"/>
+      <c r="D84" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="E84" s="77"/>
     </row>
     <row r="87" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
       <c r="D87" s="63" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E87" s="28"/>
       <c r="F87" s="28"/>
@@ -6947,21 +8460,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P83"/>
+  <dimension ref="A2:L142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
     <col min="8" max="8" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>238</v>
+        <v>356</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -6973,7 +8487,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -6982,257 +8496,512 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="67" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="66" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="74" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="39" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="39" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="68" t="s">
+        <v>253</v>
+      </c>
+      <c r="C19" s="69"/>
+    </row>
+    <row r="20" spans="1:12" s="72" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>257</v>
+      </c>
+      <c r="I25" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="68" t="s">
-        <v>257</v>
-      </c>
-      <c r="C18" s="69"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="68" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
+      <c r="C27" s="69"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>271</v>
+      </c>
+      <c r="D30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>273</v>
+      </c>
+      <c r="D32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>264</v>
+      </c>
+      <c r="D48" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>268</v>
+      </c>
+      <c r="I49" s="70" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E51" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
-        <v>261</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="68" t="s">
-        <v>263</v>
-      </c>
-      <c r="C25" s="69"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
         <v>276</v>
       </c>
-      <c r="D28" t="s">
-        <v>277</v>
-      </c>
-      <c r="P28" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
         <v>278</v>
       </c>
-      <c r="D30" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
-        <v>268</v>
-      </c>
-      <c r="D46" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E47" t="s">
-        <v>273</v>
-      </c>
-      <c r="I47" s="70" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E48" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E49" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D51" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E52" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D54" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D55" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C63" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C68" t="s">
-        <v>251</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>258</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
+      <c r="B71" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C75" t="s">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="72"/>
+      <c r="B82" s="72" t="s">
+        <v>282</v>
+      </c>
+      <c r="C82" s="72"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="72"/>
+      <c r="F82" s="72"/>
+      <c r="G82" s="72"/>
+      <c r="H82" s="72"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="72"/>
+      <c r="B83" s="72"/>
+      <c r="C83" s="72"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="72"/>
+      <c r="H83" s="72"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="72"/>
+      <c r="B84" s="72" t="s">
+        <v>281</v>
+      </c>
+      <c r="C84" s="72"/>
+      <c r="D84" s="72"/>
+      <c r="E84" s="72"/>
+      <c r="F84" s="72"/>
+      <c r="G84" s="72"/>
+      <c r="H84" s="72"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C76" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
+      <c r="C86" s="1"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
         <v>290</v>
       </c>
-      <c r="C83" s="1"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B91" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="C91" s="74"/>
+      <c r="D91" s="74"/>
+      <c r="E91" s="74"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C93" s="68" t="s">
+        <v>293</v>
+      </c>
+      <c r="D93" s="69"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C96" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D97" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C103" s="68" t="s">
+        <v>298</v>
+      </c>
+      <c r="D103" s="69"/>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C104" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C106" t="s">
+        <v>299</v>
+      </c>
+      <c r="D106" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
+        <v>301</v>
+      </c>
+      <c r="D108" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D109" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="111" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D111" s="75" t="s">
+        <v>304</v>
+      </c>
+      <c r="E111" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D112" s="75" t="s">
+        <v>307</v>
+      </c>
+      <c r="E112" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C114" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F114" s="86"/>
+      <c r="G114" s="86"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F115" s="86"/>
+      <c r="G115" s="86"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B119" s="18"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C121" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C122" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C126" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C127" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C130" t="s">
+        <v>322</v>
+      </c>
+      <c r="F130" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C131" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="80"/>
+      <c r="B139" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C139" s="81"/>
+      <c r="D139" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="E139" s="81"/>
+    </row>
+    <row r="142" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A142" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B142" s="28"/>
+      <c r="C142" s="28"/>
+      <c r="D142" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="E142" s="28"/>
+      <c r="F142" s="28"/>
+      <c r="G142" s="28"/>
+      <c r="H142" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D139" location="关卡时间轴!S1" display="关卡时间轴"/>
+    <hyperlink ref="D142" location="'人偶剧场（小红帽）'!A1" display="回到顶部"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -7242,9 +9011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC169"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7256,12 +9023,12 @@
   <sheetData>
     <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AC1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -7273,7 +9040,7 @@
     </row>
     <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -7282,20 +9049,20 @@
     </row>
     <row r="6" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -7318,10 +9085,10 @@
     </row>
     <row r="10" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -7334,11 +9101,11 @@
     </row>
     <row r="11" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
@@ -7359,11 +9126,11 @@
     </row>
     <row r="13" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
@@ -7374,12 +9141,12 @@
     </row>
     <row r="14" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="29"/>
       <c r="L14" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M14" s="29"/>
       <c r="N14" s="10"/>
@@ -7399,11 +9166,11 @@
     </row>
     <row r="16" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
@@ -7415,7 +9182,7 @@
     <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J17" s="10"/>
       <c r="K17" s="29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
@@ -7426,7 +9193,7 @@
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="29"/>
@@ -7449,7 +9216,7 @@
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -7492,7 +9259,7 @@
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
@@ -7509,12 +9276,12 @@
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C28" s="32"/>
       <c r="D28" s="32"/>
@@ -7524,50 +9291,50 @@
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F32" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C53" s="36"/>
       <c r="D53" s="36"/>
@@ -7578,17 +9345,17 @@
     </row>
     <row r="54" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C75" s="36"/>
       <c r="D75" s="36"/>
@@ -7599,37 +9366,37 @@
     </row>
     <row r="76" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C101" s="36"/>
       <c r="D101" s="36"/>
@@ -7639,17 +9406,17 @@
     </row>
     <row r="102" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="139" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="36" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C139" s="36"/>
       <c r="D139" s="36"/>
@@ -7658,42 +9425,43 @@
     </row>
     <row r="140" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="158" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="159" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C161" s="22"/>
-      <c r="D161" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E161" s="22"/>
+      <c r="A161" s="80"/>
+      <c r="B161" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C161" s="81"/>
+      <c r="D161" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="E161" s="81"/>
     </row>
     <row r="164" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B164" s="28"/>
       <c r="C164" s="28"/>
       <c r="D164" s="63" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E164" s="28"/>
       <c r="F164" s="28"/>
@@ -7712,7 +9480,7 @@
     </row>
     <row r="169" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -7731,15 +9499,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>239</v>
+        <v>357</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>

--- a/零式梦幻乐园缇亚拉 残梦之章4.xlsx
+++ b/零式梦幻乐园缇亚拉 残梦之章4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="704" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="704" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="1" r:id="rId1"/>
@@ -5230,7 +5230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5402,6 +5402,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5446,7 +5447,7 @@
         <xdr:cNvPr id="7" name="图形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30550A4F-09EC-D5E0-DD8E-D62D116DC5EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30550A4F-09EC-D5E0-DD8E-D62D116DC5EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5458,7 +5459,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5496,7 +5497,7 @@
         <xdr:cNvPr id="8" name="图形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A663BC8C-291E-7E34-3B2F-F707997B3BC9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A663BC8C-291E-7E34-3B2F-F707997B3BC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5508,7 +5509,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId4"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5546,7 +5547,7 @@
         <xdr:cNvPr id="9" name="图形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9356973A-31E4-30F0-02C9-71FCE853527B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9356973A-31E4-30F0-02C9-71FCE853527B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5558,7 +5559,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5601,7 +5602,7 @@
         <xdr:cNvPr id="4" name="图形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC42D317-D275-E0EB-01BB-967C7967E283}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC42D317-D275-E0EB-01BB-967C7967E283}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5613,7 +5614,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5651,7 +5652,7 @@
         <xdr:cNvPr id="5" name="图形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6200373B-BE66-4CE6-D476-123E7B1B2332}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6200373B-BE66-4CE6-D476-123E7B1B2332}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5663,7 +5664,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId4"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5701,7 +5702,7 @@
         <xdr:cNvPr id="6" name="图形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA4E6A10-D5E5-F8BE-2666-65C89006724C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA4E6A10-D5E5-F8BE-2666-65C89006724C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5713,7 +5714,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5751,7 +5752,7 @@
         <xdr:cNvPr id="7" name="图形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24F03BF5-B449-6E07-B2D8-009730997649}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F03BF5-B449-6E07-B2D8-009730997649}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5763,7 +5764,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5801,7 +5802,7 @@
         <xdr:cNvPr id="8" name="图形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02CEED0E-018D-62AC-7628-0133305A567A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CEED0E-018D-62AC-7628-0133305A567A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5813,7 +5814,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId8"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5851,7 +5852,7 @@
         <xdr:cNvPr id="9" name="图形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78C31F56-9130-8B63-5BE1-9CC35BF18262}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C31F56-9130-8B63-5BE1-9CC35BF18262}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5863,7 +5864,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId10"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5901,7 +5902,7 @@
         <xdr:cNvPr id="11" name="图形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66FEA8E4-7479-633F-BAD8-59804560CA64}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66FEA8E4-7479-633F-BAD8-59804560CA64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5913,7 +5914,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId12"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5951,7 +5952,7 @@
         <xdr:cNvPr id="12" name="图形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D220289E-9034-22A7-5A6B-904F5E802D8F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D220289E-9034-22A7-5A6B-904F5E802D8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5963,7 +5964,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId14"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6001,7 +6002,7 @@
         <xdr:cNvPr id="13" name="图形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4AA4174-8963-41F0-B638-7AC71ADA759E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4AA4174-8963-41F0-B638-7AC71ADA759E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6013,7 +6014,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId16"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6051,7 +6052,7 @@
         <xdr:cNvPr id="14" name="图形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A72AB1F8-2CB1-E314-CCEB-45127655A069}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A72AB1F8-2CB1-E314-CCEB-45127655A069}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6063,7 +6064,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId18"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6106,7 +6107,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6150,7 +6151,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6194,7 +6195,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6238,7 +6239,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6282,7 +6283,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6326,7 +6327,7 @@
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6870,8 +6871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6980,7 +6981,7 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="87" t="s">
         <v>7</v>
       </c>
       <c r="L18" s="6" t="s">
@@ -6995,6 +6996,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7002,8 +7004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AS43"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
@@ -8462,7 +8464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>

--- a/零式梦幻乐园缇亚拉 残梦之章4.xlsx
+++ b/零式梦幻乐园缇亚拉 残梦之章4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="704" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="704" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="1" r:id="rId1"/>
@@ -5447,7 +5447,7 @@
         <xdr:cNvPr id="7" name="图形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30550A4F-09EC-D5E0-DD8E-D62D116DC5EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30550A4F-09EC-D5E0-DD8E-D62D116DC5EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5459,7 +5459,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5497,7 +5497,7 @@
         <xdr:cNvPr id="8" name="图形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A663BC8C-291E-7E34-3B2F-F707997B3BC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A663BC8C-291E-7E34-3B2F-F707997B3BC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5509,7 +5509,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5547,7 +5547,7 @@
         <xdr:cNvPr id="9" name="图形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9356973A-31E4-30F0-02C9-71FCE853527B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9356973A-31E4-30F0-02C9-71FCE853527B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5559,7 +5559,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5602,7 +5602,7 @@
         <xdr:cNvPr id="4" name="图形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC42D317-D275-E0EB-01BB-967C7967E283}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC42D317-D275-E0EB-01BB-967C7967E283}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5614,7 +5614,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5652,7 +5652,7 @@
         <xdr:cNvPr id="5" name="图形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6200373B-BE66-4CE6-D476-123E7B1B2332}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6200373B-BE66-4CE6-D476-123E7B1B2332}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5664,7 +5664,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5702,7 +5702,7 @@
         <xdr:cNvPr id="6" name="图形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA4E6A10-D5E5-F8BE-2666-65C89006724C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA4E6A10-D5E5-F8BE-2666-65C89006724C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5714,7 +5714,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5752,7 +5752,7 @@
         <xdr:cNvPr id="7" name="图形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F03BF5-B449-6E07-B2D8-009730997649}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24F03BF5-B449-6E07-B2D8-009730997649}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5764,7 +5764,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5802,7 +5802,7 @@
         <xdr:cNvPr id="8" name="图形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CEED0E-018D-62AC-7628-0133305A567A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02CEED0E-018D-62AC-7628-0133305A567A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5814,7 +5814,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5852,7 +5852,7 @@
         <xdr:cNvPr id="9" name="图形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C31F56-9130-8B63-5BE1-9CC35BF18262}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78C31F56-9130-8B63-5BE1-9CC35BF18262}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5864,7 +5864,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId10"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5902,7 +5902,7 @@
         <xdr:cNvPr id="11" name="图形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66FEA8E4-7479-633F-BAD8-59804560CA64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66FEA8E4-7479-633F-BAD8-59804560CA64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5914,7 +5914,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId12"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5952,7 +5952,7 @@
         <xdr:cNvPr id="12" name="图形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D220289E-9034-22A7-5A6B-904F5E802D8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D220289E-9034-22A7-5A6B-904F5E802D8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5964,7 +5964,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId14"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6002,7 +6002,7 @@
         <xdr:cNvPr id="13" name="图形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4AA4174-8963-41F0-B638-7AC71ADA759E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4AA4174-8963-41F0-B638-7AC71ADA759E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6014,7 +6014,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6052,7 +6052,7 @@
         <xdr:cNvPr id="14" name="图形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A72AB1F8-2CB1-E314-CCEB-45127655A069}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A72AB1F8-2CB1-E314-CCEB-45127655A069}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6064,7 +6064,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId18"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6107,7 +6107,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6151,7 +6151,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6195,7 +6195,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6239,7 +6239,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6283,7 +6283,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6327,7 +6327,7 @@
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6871,7 +6871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -7004,9 +7004,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AS43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S37" sqref="S37"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
